--- a/OptimalizationLabs1/proj4_Izworski_Jarek_Klimczyk.xlsx
+++ b/OptimalizationLabs1/proj4_Izworski_Jarek_Klimczyk.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA91215-92BA-444C-B5FC-B34A0FE15642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41D4F27-E729-4891-8EF7-3D85A45CFC73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="27">
   <si>
     <t>Lp.</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>x2(0)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1027,91 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1149,6 +1068,97 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1489,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V305"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,46 +1517,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="56" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="52" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="75"/>
     </row>
     <row r="2" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
@@ -1603,14 +1613,14 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="64">
-        <v>1</v>
-      </c>
-      <c r="B3" s="55" cm="1">
+      <c r="A3" s="68">
+        <v>1</v>
+      </c>
+      <c r="B3" s="76" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B3))</f>
         <v>2.5598700000000001</v>
       </c>
-      <c r="C3" s="65" cm="1">
+      <c r="C3" s="69" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C3))</f>
         <v>6.2868700000000004</v>
       </c>
@@ -1673,9 +1683,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="36">
         <v>0.12</v>
       </c>
@@ -1735,9 +1745,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="44"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="36" t="s">
         <v>13</v>
       </c>
@@ -1797,14 +1807,14 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+      <c r="A6" s="58">
         <v>2</v>
       </c>
-      <c r="B6" s="46" cm="1">
+      <c r="B6" s="77" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B6))</f>
         <v>-7.6412000000000004</v>
       </c>
-      <c r="C6" s="44" cm="1">
+      <c r="C6" s="70" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C6))</f>
         <v>-4.6449999999999996</v>
       </c>
@@ -1867,9 +1877,9 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="44"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="36">
         <v>0.12</v>
       </c>
@@ -1929,9 +1939,9 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="36" t="s">
         <v>13</v>
       </c>
@@ -1991,14 +2001,14 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
-        <v>3</v>
-      </c>
-      <c r="B9" s="46" cm="1">
+      <c r="A9" s="58">
+        <v>3</v>
+      </c>
+      <c r="B9" s="77" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B9))</f>
         <v>-9.4310399999999994</v>
       </c>
-      <c r="C9" s="44" cm="1">
+      <c r="C9" s="70" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C9))</f>
         <v>-1.8706100000000001</v>
       </c>
@@ -2061,9 +2071,9 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="44"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="36">
         <v>0.12</v>
       </c>
@@ -2123,9 +2133,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="44"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="36" t="s">
         <v>13</v>
       </c>
@@ -2185,14 +2195,14 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="58">
         <v>4</v>
       </c>
-      <c r="B12" s="46" cm="1">
+      <c r="B12" s="77" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B12))</f>
         <v>9.5726499999999994</v>
       </c>
-      <c r="C12" s="44" cm="1">
+      <c r="C12" s="70" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C12))</f>
         <v>-2.1742900000000001</v>
       </c>
@@ -2255,9 +2265,9 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="36">
         <v>0.12</v>
       </c>
@@ -2317,9 +2327,9 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="36" t="s">
         <v>13</v>
       </c>
@@ -2379,14 +2389,14 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+      <c r="A15" s="58">
         <v>5</v>
       </c>
-      <c r="B15" s="46" cm="1">
+      <c r="B15" s="77" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B15))</f>
         <v>1.00668</v>
       </c>
-      <c r="C15" s="44" cm="1">
+      <c r="C15" s="70" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C15))</f>
         <v>-8.6196000000000002</v>
       </c>
@@ -2449,9 +2459,9 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="36">
         <v>0.12</v>
       </c>
@@ -2511,9 +2521,9 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="44"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="36" t="s">
         <v>13</v>
       </c>
@@ -2573,14 +2583,14 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="A18" s="58">
         <v>6</v>
       </c>
-      <c r="B18" s="46" cm="1">
+      <c r="B18" s="77" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B18))</f>
         <v>-3.27806E-2</v>
       </c>
-      <c r="C18" s="44" cm="1">
+      <c r="C18" s="70" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C18))</f>
         <v>1.6834899999999999</v>
       </c>
@@ -2643,9 +2653,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="44"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="36">
         <v>0.12</v>
       </c>
@@ -2705,9 +2715,9 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="44"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="36" t="s">
         <v>13</v>
       </c>
@@ -2767,14 +2777,14 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
+      <c r="A21" s="58">
         <v>7</v>
       </c>
-      <c r="B21" s="46" cm="1">
+      <c r="B21" s="77" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B21))</f>
         <v>3.4472999999999998</v>
       </c>
-      <c r="C21" s="44" cm="1">
+      <c r="C21" s="70" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C21))</f>
         <v>-6.07524</v>
       </c>
@@ -2837,9 +2847,9 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="44"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="36">
         <v>0.12</v>
       </c>
@@ -2899,9 +2909,9 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="44"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="36" t="s">
         <v>13</v>
       </c>
@@ -2961,14 +2971,14 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
+      <c r="A24" s="58">
         <v>8</v>
       </c>
-      <c r="B24" s="46" cm="1">
+      <c r="B24" s="77" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B24))</f>
         <v>-8.0791000000000004</v>
       </c>
-      <c r="C24" s="44" cm="1">
+      <c r="C24" s="70" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C24))</f>
         <v>0.58078700000000005</v>
       </c>
@@ -3031,9 +3041,9 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="44"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="36">
         <v>0.12</v>
       </c>
@@ -3093,9 +3103,9 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="36" t="s">
         <v>13</v>
       </c>
@@ -3155,14 +3165,14 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="48">
+      <c r="A27" s="58">
         <v>9</v>
       </c>
-      <c r="B27" s="46" cm="1">
+      <c r="B27" s="77" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B27))</f>
         <v>4.8041700000000001</v>
       </c>
-      <c r="C27" s="44" cm="1">
+      <c r="C27" s="70" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C27))</f>
         <v>7.9092000000000002</v>
       </c>
@@ -3225,9 +3235,9 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="44"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="36">
         <v>0.12</v>
       </c>
@@ -3287,9 +3297,9 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="44"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="36" t="s">
         <v>13</v>
       </c>
@@ -3349,14 +3359,14 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="48">
+      <c r="A30" s="58">
         <v>10</v>
       </c>
-      <c r="B30" s="46" cm="1">
+      <c r="B30" s="77" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B30))</f>
         <v>-4.68431</v>
       </c>
-      <c r="C30" s="44" cm="1">
+      <c r="C30" s="70" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C30))</f>
         <v>7.7426899999999996</v>
       </c>
@@ -3419,9 +3429,9 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="44"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="36">
         <v>0.12</v>
       </c>
@@ -3481,9 +3491,9 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="44"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="36" t="s">
         <v>13</v>
       </c>
@@ -3543,14 +3553,14 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
+      <c r="A33" s="58">
         <v>11</v>
       </c>
-      <c r="B33" s="46" cm="1">
+      <c r="B33" s="77" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B33))</f>
         <v>8.3499800000000004</v>
       </c>
-      <c r="C33" s="44" cm="1">
+      <c r="C33" s="70" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C33))</f>
         <v>5.8054699999999997</v>
       </c>
@@ -3613,9 +3623,9 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="44"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="70"/>
       <c r="D34" s="36">
         <v>0.12</v>
       </c>
@@ -3675,9 +3685,9 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="44"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="36" t="s">
         <v>13</v>
       </c>
@@ -3737,14 +3747,14 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="48">
+      <c r="A36" s="58">
         <v>12</v>
       </c>
-      <c r="B36" s="46" cm="1">
+      <c r="B36" s="77" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B36))</f>
         <v>-3.9275799999999998</v>
       </c>
-      <c r="C36" s="44" cm="1">
+      <c r="C36" s="70" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C36))</f>
         <v>-3.37175</v>
       </c>
@@ -3807,9 +3817,9 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="44"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="36">
         <v>0.12</v>
       </c>
@@ -3869,9 +3879,9 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="44"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="36" t="s">
         <v>13</v>
       </c>
@@ -3931,14 +3941,14 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="48">
+      <c r="A39" s="58">
         <v>13</v>
       </c>
-      <c r="B39" s="46" cm="1">
+      <c r="B39" s="77" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B39))</f>
         <v>6.42645</v>
       </c>
-      <c r="C39" s="44" cm="1">
+      <c r="C39" s="70" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C39))</f>
         <v>-4.86287</v>
       </c>
@@ -4001,9 +4011,9 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="44"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="70"/>
       <c r="D40" s="36">
         <v>0.12</v>
       </c>
@@ -4063,9 +4073,9 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="44"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="70"/>
       <c r="D41" s="36" t="s">
         <v>13</v>
       </c>
@@ -4125,14 +4135,14 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="48">
+      <c r="A42" s="58">
         <v>14</v>
       </c>
-      <c r="B42" s="46" cm="1">
+      <c r="B42" s="77" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B42))</f>
         <v>-1.5804100000000001</v>
       </c>
-      <c r="C42" s="44" cm="1">
+      <c r="C42" s="70" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C42))</f>
         <v>9.7219999999999995</v>
       </c>
@@ -4195,9 +4205,9 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="44"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="70"/>
       <c r="D43" s="36">
         <v>0.12</v>
       </c>
@@ -4257,9 +4267,9 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="44"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="36" t="s">
         <v>13</v>
       </c>
@@ -4319,14 +4329,14 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="48">
+      <c r="A45" s="58">
         <v>15</v>
       </c>
-      <c r="B45" s="46" cm="1">
+      <c r="B45" s="77" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B45))</f>
         <v>-2.3795600000000001</v>
       </c>
-      <c r="C45" s="44" cm="1">
+      <c r="C45" s="70" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C45))</f>
         <v>8.7926199999999994</v>
       </c>
@@ -4389,9 +4399,9 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="44"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="36">
         <v>0.12</v>
       </c>
@@ -4451,9 +4461,9 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="44"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="70"/>
       <c r="D47" s="36" t="s">
         <v>13</v>
       </c>
@@ -4513,14 +4523,14 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="48">
+      <c r="A48" s="58">
         <v>16</v>
       </c>
-      <c r="B48" s="46" cm="1">
+      <c r="B48" s="77" cm="1">
         <f t="array" aca="1" ref="B48" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B48))</f>
         <v>-3.8668999999999998</v>
       </c>
-      <c r="C48" s="44" cm="1">
+      <c r="C48" s="70" cm="1">
         <f t="array" aca="1" ref="C48" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C48))</f>
         <v>9.8111800000000002</v>
       </c>
@@ -4583,9 +4593,9 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="44"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="36">
         <v>0.12</v>
       </c>
@@ -4645,9 +4655,9 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="44"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="70"/>
       <c r="D50" s="36" t="s">
         <v>13</v>
       </c>
@@ -4707,14 +4717,14 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="48">
+      <c r="A51" s="58">
         <v>17</v>
       </c>
-      <c r="B51" s="46" cm="1">
+      <c r="B51" s="77" cm="1">
         <f t="array" aca="1" ref="B51" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B51))</f>
         <v>2.1819299999999999</v>
       </c>
-      <c r="C51" s="44" cm="1">
+      <c r="C51" s="70" cm="1">
         <f t="array" aca="1" ref="C51" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C51))</f>
         <v>4.4275200000000003</v>
       </c>
@@ -4777,9 +4787,9 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="44"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="70"/>
       <c r="D52" s="36">
         <v>0.12</v>
       </c>
@@ -4839,9 +4849,9 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="44"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="36" t="s">
         <v>13</v>
       </c>
@@ -4901,14 +4911,14 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="48">
+      <c r="A54" s="58">
         <v>18</v>
       </c>
-      <c r="B54" s="46" cm="1">
+      <c r="B54" s="77" cm="1">
         <f t="array" aca="1" ref="B54" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B54))</f>
         <v>-2.90991</v>
       </c>
-      <c r="C54" s="44" cm="1">
+      <c r="C54" s="70" cm="1">
         <f t="array" aca="1" ref="C54" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C54))</f>
         <v>8.7422000000000004</v>
       </c>
@@ -4971,9 +4981,9 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="44"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="70"/>
       <c r="D55" s="36">
         <v>0.12</v>
       </c>
@@ -5033,9 +5043,9 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="44"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="70"/>
       <c r="D56" s="36" t="s">
         <v>13</v>
       </c>
@@ -5095,14 +5105,14 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="48">
+      <c r="A57" s="58">
         <v>19</v>
       </c>
-      <c r="B57" s="46" cm="1">
+      <c r="B57" s="77" cm="1">
         <f t="array" aca="1" ref="B57" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B57))</f>
         <v>9.2419100000000007</v>
       </c>
-      <c r="C57" s="44" cm="1">
+      <c r="C57" s="70" cm="1">
         <f t="array" aca="1" ref="C57" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C57))</f>
         <v>1.22451</v>
       </c>
@@ -5165,9 +5175,9 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="44"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="70"/>
       <c r="D58" s="36">
         <v>0.12</v>
       </c>
@@ -5227,9 +5237,9 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="44"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="36" t="s">
         <v>13</v>
       </c>
@@ -5289,14 +5299,14 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="48">
+      <c r="A60" s="58">
         <v>20</v>
       </c>
-      <c r="B60" s="46" cm="1">
+      <c r="B60" s="77" cm="1">
         <f t="array" aca="1" ref="B60" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B60))</f>
         <v>-8.6705900000000007</v>
       </c>
-      <c r="C60" s="44" cm="1">
+      <c r="C60" s="70" cm="1">
         <f t="array" aca="1" ref="C60" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C60))</f>
         <v>3.4120300000000001</v>
       </c>
@@ -5359,9 +5369,9 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="44"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="70"/>
       <c r="D61" s="36">
         <v>0.12</v>
       </c>
@@ -5421,9 +5431,9 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="44"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="36" t="s">
         <v>13</v>
       </c>
@@ -5483,14 +5493,14 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="48">
+      <c r="A63" s="58">
         <v>21</v>
       </c>
-      <c r="B63" s="46" cm="1">
+      <c r="B63" s="77" cm="1">
         <f t="array" aca="1" ref="B63" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B63))</f>
         <v>-8.7731200000000005</v>
       </c>
-      <c r="C63" s="44" cm="1">
+      <c r="C63" s="70" cm="1">
         <f t="array" aca="1" ref="C63" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C63))</f>
         <v>-3.04786</v>
       </c>
@@ -5553,9 +5563,9 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="44"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="36">
         <v>0.12</v>
       </c>
@@ -5615,9 +5625,9 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="44"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="36" t="s">
         <v>13</v>
       </c>
@@ -5677,14 +5687,14 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="48">
+      <c r="A66" s="58">
         <v>22</v>
       </c>
-      <c r="B66" s="46" cm="1">
+      <c r="B66" s="77" cm="1">
         <f t="array" aca="1" ref="B66" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B66))</f>
         <v>5.1472499999999997</v>
       </c>
-      <c r="C66" s="44" cm="1">
+      <c r="C66" s="70" cm="1">
         <f t="array" aca="1" ref="C66" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C66))</f>
         <v>-9.2269900000000007</v>
       </c>
@@ -5747,9 +5757,9 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="44"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="70"/>
       <c r="D67" s="36">
         <v>0.12</v>
       </c>
@@ -5809,9 +5819,9 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="44"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="70"/>
       <c r="D68" s="36" t="s">
         <v>13</v>
       </c>
@@ -5871,14 +5881,14 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="48">
-        <v>23</v>
-      </c>
-      <c r="B69" s="46" cm="1">
+      <c r="A69" s="58">
+        <v>23</v>
+      </c>
+      <c r="B69" s="77" cm="1">
         <f t="array" aca="1" ref="B69" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B69))</f>
         <v>9.4546799999999998</v>
       </c>
-      <c r="C69" s="44" cm="1">
+      <c r="C69" s="70" cm="1">
         <f t="array" aca="1" ref="C69" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C69))</f>
         <v>-0.31943700000000003</v>
       </c>
@@ -5941,9 +5951,9 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="44"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="70"/>
       <c r="D70" s="36">
         <v>0.12</v>
       </c>
@@ -6003,9 +6013,9 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="44"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="70"/>
       <c r="D71" s="36" t="s">
         <v>13</v>
       </c>
@@ -6065,14 +6075,14 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="48">
+      <c r="A72" s="58">
         <v>24</v>
       </c>
-      <c r="B72" s="46" cm="1">
+      <c r="B72" s="77" cm="1">
         <f t="array" aca="1" ref="B72" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B72))</f>
         <v>-4.4474099999999996</v>
       </c>
-      <c r="C72" s="44" cm="1">
+      <c r="C72" s="70" cm="1">
         <f t="array" aca="1" ref="C72" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C72))</f>
         <v>3.8868100000000001</v>
       </c>
@@ -6135,9 +6145,9 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="44"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="70"/>
       <c r="D73" s="36">
         <v>0.12</v>
       </c>
@@ -6197,9 +6207,9 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="44"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="70"/>
       <c r="D74" s="36" t="s">
         <v>13</v>
       </c>
@@ -6259,14 +6269,14 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="48">
+      <c r="A75" s="58">
         <v>25</v>
       </c>
-      <c r="B75" s="46" cm="1">
+      <c r="B75" s="77" cm="1">
         <f t="array" aca="1" ref="B75" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B75))</f>
         <v>8.0113299999999992</v>
       </c>
-      <c r="C75" s="44" cm="1">
+      <c r="C75" s="70" cm="1">
         <f t="array" aca="1" ref="C75" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C75))</f>
         <v>3.6339399999999999</v>
       </c>
@@ -6329,9 +6339,9 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="44"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="70"/>
       <c r="D76" s="36">
         <v>0.12</v>
       </c>
@@ -6391,9 +6401,9 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="44"/>
+      <c r="A77" s="58"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="70"/>
       <c r="D77" s="36" t="s">
         <v>13</v>
       </c>
@@ -6453,14 +6463,14 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="48">
+      <c r="A78" s="58">
         <v>26</v>
       </c>
-      <c r="B78" s="46" cm="1">
+      <c r="B78" s="77" cm="1">
         <f t="array" aca="1" ref="B78" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B78))</f>
         <v>-6.0860099999999999</v>
       </c>
-      <c r="C78" s="44" cm="1">
+      <c r="C78" s="70" cm="1">
         <f t="array" aca="1" ref="C78" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C78))</f>
         <v>-6.6094499999999998</v>
       </c>
@@ -6523,9 +6533,9 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="44"/>
+      <c r="A79" s="58"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="70"/>
       <c r="D79" s="36">
         <v>0.12</v>
       </c>
@@ -6585,9 +6595,9 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="44"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="70"/>
       <c r="D80" s="36" t="s">
         <v>13</v>
       </c>
@@ -6647,14 +6657,14 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="48">
+      <c r="A81" s="58">
         <v>27</v>
       </c>
-      <c r="B81" s="46" cm="1">
+      <c r="B81" s="77" cm="1">
         <f t="array" aca="1" ref="B81" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B81))</f>
         <v>-4.9218500000000001</v>
       </c>
-      <c r="C81" s="44" cm="1">
+      <c r="C81" s="70" cm="1">
         <f t="array" aca="1" ref="C81" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C81))</f>
         <v>-4.1971499999999997</v>
       </c>
@@ -6717,9 +6727,9 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="48"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="44"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="70"/>
       <c r="D82" s="36">
         <v>0.12</v>
       </c>
@@ -6779,9 +6789,9 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="44"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="70"/>
       <c r="D83" s="36" t="s">
         <v>13</v>
       </c>
@@ -6841,14 +6851,14 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="48">
+      <c r="A84" s="58">
         <v>28</v>
       </c>
-      <c r="B84" s="46" cm="1">
+      <c r="B84" s="77" cm="1">
         <f t="array" aca="1" ref="B84" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B84))</f>
         <v>5.69841</v>
       </c>
-      <c r="C84" s="44" cm="1">
+      <c r="C84" s="70" cm="1">
         <f t="array" aca="1" ref="C84" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C84))</f>
         <v>-7.2034200000000004</v>
       </c>
@@ -6911,9 +6921,9 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="44"/>
+      <c r="A85" s="58"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="70"/>
       <c r="D85" s="36">
         <v>0.12</v>
       </c>
@@ -6973,9 +6983,9 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="44"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="70"/>
       <c r="D86" s="36" t="s">
         <v>13</v>
       </c>
@@ -7035,14 +7045,14 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="48">
+      <c r="A87" s="58">
         <v>29</v>
       </c>
-      <c r="B87" s="46" cm="1">
+      <c r="B87" s="77" cm="1">
         <f t="array" aca="1" ref="B87" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B87))</f>
         <v>-7.5792300000000007E-2</v>
       </c>
-      <c r="C87" s="44" cm="1">
+      <c r="C87" s="70" cm="1">
         <f t="array" aca="1" ref="C87" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C87))</f>
         <v>-7.7102599999999999</v>
       </c>
@@ -7105,9 +7115,9 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="44"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="70"/>
       <c r="D88" s="36">
         <v>0.12</v>
       </c>
@@ -7167,9 +7177,9 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="44"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="70"/>
       <c r="D89" s="36" t="s">
         <v>13</v>
       </c>
@@ -7229,14 +7239,14 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="48">
+      <c r="A90" s="58">
         <v>30</v>
       </c>
-      <c r="B90" s="46" cm="1">
+      <c r="B90" s="77" cm="1">
         <f t="array" aca="1" ref="B90" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B90))</f>
         <v>-0.43646000000000001</v>
       </c>
-      <c r="C90" s="44" cm="1">
+      <c r="C90" s="70" cm="1">
         <f t="array" aca="1" ref="C90" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C90))</f>
         <v>4.4763599999999997</v>
       </c>
@@ -7299,9 +7309,9 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="44"/>
+      <c r="A91" s="58"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="70"/>
       <c r="D91" s="36">
         <v>0.12</v>
       </c>
@@ -7361,9 +7371,9 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="44"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="70"/>
       <c r="D92" s="36" t="s">
         <v>13</v>
       </c>
@@ -7423,14 +7433,14 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="48">
+      <c r="A93" s="58">
         <v>31</v>
       </c>
-      <c r="B93" s="46" cm="1">
+      <c r="B93" s="77" cm="1">
         <f t="array" aca="1" ref="B93" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B93))</f>
         <v>0.58140199999999997</v>
       </c>
-      <c r="C93" s="44" cm="1">
+      <c r="C93" s="70" cm="1">
         <f t="array" aca="1" ref="C93" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C93))</f>
         <v>-0.64212599999999997</v>
       </c>
@@ -7493,9 +7503,9 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="44"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="70"/>
       <c r="D94" s="36">
         <v>0.12</v>
       </c>
@@ -7555,9 +7565,9 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="44"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="77"/>
+      <c r="C95" s="70"/>
       <c r="D95" s="36" t="s">
         <v>13</v>
       </c>
@@ -7617,14 +7627,14 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" s="48">
+      <c r="A96" s="58">
         <v>32</v>
       </c>
-      <c r="B96" s="46" cm="1">
+      <c r="B96" s="77" cm="1">
         <f t="array" aca="1" ref="B96" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B96))</f>
         <v>5.9405700000000001</v>
       </c>
-      <c r="C96" s="44" cm="1">
+      <c r="C96" s="70" cm="1">
         <f t="array" aca="1" ref="C96" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C96))</f>
         <v>-1.7744</v>
       </c>
@@ -7687,9 +7697,9 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="44"/>
+      <c r="A97" s="58"/>
+      <c r="B97" s="77"/>
+      <c r="C97" s="70"/>
       <c r="D97" s="36">
         <v>0.12</v>
       </c>
@@ -7749,9 +7759,9 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="44"/>
+      <c r="A98" s="58"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="70"/>
       <c r="D98" s="36" t="s">
         <v>13</v>
       </c>
@@ -7811,14 +7821,14 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A99" s="48">
+      <c r="A99" s="58">
         <v>33</v>
       </c>
-      <c r="B99" s="46" cm="1">
+      <c r="B99" s="77" cm="1">
         <f t="array" aca="1" ref="B99" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B99))</f>
         <v>-5.50007</v>
       </c>
-      <c r="C99" s="44" cm="1">
+      <c r="C99" s="70" cm="1">
         <f t="array" aca="1" ref="C99" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C99))</f>
         <v>7.2287299999999997</v>
       </c>
@@ -7881,9 +7891,9 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="44"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="70"/>
       <c r="D100" s="36">
         <v>0.12</v>
       </c>
@@ -7943,9 +7953,9 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="44"/>
+      <c r="A101" s="58"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="70"/>
       <c r="D101" s="36" t="s">
         <v>13</v>
       </c>
@@ -8005,14 +8015,14 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A102" s="48">
+      <c r="A102" s="58">
         <v>34</v>
       </c>
-      <c r="B102" s="46" cm="1">
+      <c r="B102" s="77" cm="1">
         <f t="array" aca="1" ref="B102" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B102))</f>
         <v>-6.3504199999999997</v>
       </c>
-      <c r="C102" s="44" cm="1">
+      <c r="C102" s="70" cm="1">
         <f t="array" aca="1" ref="C102" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C102))</f>
         <v>-9.8237400000000008</v>
       </c>
@@ -8075,9 +8085,9 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="44"/>
+      <c r="A103" s="58"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="70"/>
       <c r="D103" s="36">
         <v>0.12</v>
       </c>
@@ -8131,9 +8141,9 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="44"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="70"/>
       <c r="D104" s="36" t="s">
         <v>13</v>
       </c>
@@ -8187,14 +8197,14 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A105" s="48">
+      <c r="A105" s="58">
         <v>35</v>
       </c>
-      <c r="B105" s="46" cm="1">
+      <c r="B105" s="77" cm="1">
         <f t="array" aca="1" ref="B105" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B105))</f>
         <v>4.0704599999999997</v>
       </c>
-      <c r="C105" s="44" cm="1">
+      <c r="C105" s="70" cm="1">
         <f t="array" aca="1" ref="C105" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C105))</f>
         <v>3.7019899999999999</v>
       </c>
@@ -8251,9 +8261,9 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A106" s="48"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="44"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="70"/>
       <c r="D106" s="36">
         <v>0.12</v>
       </c>
@@ -8307,9 +8317,9 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="44"/>
+      <c r="A107" s="58"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="70"/>
       <c r="D107" s="36" t="s">
         <v>13</v>
       </c>
@@ -8363,14 +8373,14 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A108" s="48">
+      <c r="A108" s="58">
         <v>36</v>
       </c>
-      <c r="B108" s="46" cm="1">
+      <c r="B108" s="77" cm="1">
         <f t="array" aca="1" ref="B108" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B108))</f>
         <v>3.56222E-2</v>
       </c>
-      <c r="C108" s="44" cm="1">
+      <c r="C108" s="70" cm="1">
         <f t="array" aca="1" ref="C108" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C108))</f>
         <v>5.2677100000000001</v>
       </c>
@@ -8427,9 +8437,9 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="44"/>
+      <c r="A109" s="58"/>
+      <c r="B109" s="77"/>
+      <c r="C109" s="70"/>
       <c r="D109" s="36">
         <v>0.12</v>
       </c>
@@ -8483,9 +8493,9 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="44"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="77"/>
+      <c r="C110" s="70"/>
       <c r="D110" s="36" t="s">
         <v>13</v>
       </c>
@@ -8539,14 +8549,14 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A111" s="48">
+      <c r="A111" s="58">
         <v>37</v>
       </c>
-      <c r="B111" s="46" cm="1">
+      <c r="B111" s="77" cm="1">
         <f t="array" aca="1" ref="B111" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B111))</f>
         <v>-5.5664999999999996</v>
       </c>
-      <c r="C111" s="44" cm="1">
+      <c r="C111" s="70" cm="1">
         <f t="array" aca="1" ref="C111" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C111))</f>
         <v>8.7849199999999996</v>
       </c>
@@ -8603,9 +8613,9 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="44"/>
+      <c r="A112" s="58"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="70"/>
       <c r="D112" s="36">
         <v>0.12</v>
       </c>
@@ -8659,9 +8669,9 @@
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="44"/>
+      <c r="A113" s="58"/>
+      <c r="B113" s="77"/>
+      <c r="C113" s="70"/>
       <c r="D113" s="36" t="s">
         <v>13</v>
       </c>
@@ -8715,14 +8725,14 @@
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" s="48">
+      <c r="A114" s="58">
         <v>38</v>
       </c>
-      <c r="B114" s="46" cm="1">
+      <c r="B114" s="77" cm="1">
         <f t="array" aca="1" ref="B114" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B114))</f>
         <v>9.21401</v>
       </c>
-      <c r="C114" s="44" cm="1">
+      <c r="C114" s="70" cm="1">
         <f t="array" aca="1" ref="C114" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C114))</f>
         <v>7.56426</v>
       </c>
@@ -8779,9 +8789,9 @@
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="44"/>
+      <c r="A115" s="58"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="70"/>
       <c r="D115" s="36">
         <v>0.12</v>
       </c>
@@ -8835,9 +8845,9 @@
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="44"/>
+      <c r="A116" s="58"/>
+      <c r="B116" s="77"/>
+      <c r="C116" s="70"/>
       <c r="D116" s="36" t="s">
         <v>13</v>
       </c>
@@ -8891,14 +8901,14 @@
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="48">
+      <c r="A117" s="58">
         <v>39</v>
       </c>
-      <c r="B117" s="46" cm="1">
+      <c r="B117" s="77" cm="1">
         <f t="array" aca="1" ref="B117" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B117))</f>
         <v>-1.12876</v>
       </c>
-      <c r="C117" s="44" cm="1">
+      <c r="C117" s="70" cm="1">
         <f t="array" aca="1" ref="C117" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C117))</f>
         <v>3.8597100000000002</v>
       </c>
@@ -8955,9 +8965,9 @@
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="44"/>
+      <c r="A118" s="58"/>
+      <c r="B118" s="77"/>
+      <c r="C118" s="70"/>
       <c r="D118" s="36">
         <v>0.12</v>
       </c>
@@ -9011,9 +9021,9 @@
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
-      <c r="B119" s="46"/>
-      <c r="C119" s="44"/>
+      <c r="A119" s="58"/>
+      <c r="B119" s="77"/>
+      <c r="C119" s="70"/>
       <c r="D119" s="36" t="s">
         <v>13</v>
       </c>
@@ -9067,14 +9077,14 @@
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="48">
+      <c r="A120" s="58">
         <v>40</v>
       </c>
-      <c r="B120" s="46" cm="1">
+      <c r="B120" s="77" cm="1">
         <f t="array" aca="1" ref="B120" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B120))</f>
         <v>-8.6725600000000007</v>
       </c>
-      <c r="C120" s="44" cm="1">
+      <c r="C120" s="70" cm="1">
         <f t="array" aca="1" ref="C120" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C120))</f>
         <v>3.1806700000000001</v>
       </c>
@@ -9131,9 +9141,9 @@
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="44"/>
+      <c r="A121" s="58"/>
+      <c r="B121" s="77"/>
+      <c r="C121" s="70"/>
       <c r="D121" s="36">
         <v>0.12</v>
       </c>
@@ -9187,9 +9197,9 @@
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="44"/>
+      <c r="A122" s="58"/>
+      <c r="B122" s="77"/>
+      <c r="C122" s="70"/>
       <c r="D122" s="36" t="s">
         <v>13</v>
       </c>
@@ -9243,14 +9253,14 @@
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="48">
+      <c r="A123" s="58">
         <v>41</v>
       </c>
-      <c r="B123" s="46" cm="1">
+      <c r="B123" s="77" cm="1">
         <f t="array" aca="1" ref="B123" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B123))</f>
         <v>-7.6445499999999997</v>
       </c>
-      <c r="C123" s="44" cm="1">
+      <c r="C123" s="70" cm="1">
         <f t="array" aca="1" ref="C123" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C123))</f>
         <v>-1.8841699999999999</v>
       </c>
@@ -9307,9 +9317,9 @@
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
-      <c r="B124" s="46"/>
-      <c r="C124" s="44"/>
+      <c r="A124" s="58"/>
+      <c r="B124" s="77"/>
+      <c r="C124" s="70"/>
       <c r="D124" s="36">
         <v>0.12</v>
       </c>
@@ -9363,9 +9373,9 @@
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
-      <c r="B125" s="46"/>
-      <c r="C125" s="44"/>
+      <c r="A125" s="58"/>
+      <c r="B125" s="77"/>
+      <c r="C125" s="70"/>
       <c r="D125" s="36" t="s">
         <v>13</v>
       </c>
@@ -9419,14 +9429,14 @@
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="48">
+      <c r="A126" s="58">
         <v>42</v>
       </c>
-      <c r="B126" s="46" cm="1">
+      <c r="B126" s="77" cm="1">
         <f t="array" aca="1" ref="B126" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B126))</f>
         <v>-3.5710000000000002</v>
       </c>
-      <c r="C126" s="44" cm="1">
+      <c r="C126" s="70" cm="1">
         <f t="array" aca="1" ref="C126" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C126))</f>
         <v>0.32312299999999999</v>
       </c>
@@ -9483,9 +9493,9 @@
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
-      <c r="B127" s="46"/>
-      <c r="C127" s="44"/>
+      <c r="A127" s="58"/>
+      <c r="B127" s="77"/>
+      <c r="C127" s="70"/>
       <c r="D127" s="36">
         <v>0.12</v>
       </c>
@@ -9539,9 +9549,9 @@
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
-      <c r="B128" s="46"/>
-      <c r="C128" s="44"/>
+      <c r="A128" s="58"/>
+      <c r="B128" s="77"/>
+      <c r="C128" s="70"/>
       <c r="D128" s="36" t="s">
         <v>13</v>
       </c>
@@ -9595,14 +9605,14 @@
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129" s="48">
+      <c r="A129" s="58">
         <v>43</v>
       </c>
-      <c r="B129" s="46" cm="1">
+      <c r="B129" s="77" cm="1">
         <f t="array" aca="1" ref="B129" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B129))</f>
         <v>8.5293200000000002</v>
       </c>
-      <c r="C129" s="44" cm="1">
+      <c r="C129" s="70" cm="1">
         <f t="array" aca="1" ref="C129" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C129))</f>
         <v>4.3433299999999999</v>
       </c>
@@ -9659,9 +9669,9 @@
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A130" s="48"/>
-      <c r="B130" s="46"/>
-      <c r="C130" s="44"/>
+      <c r="A130" s="58"/>
+      <c r="B130" s="77"/>
+      <c r="C130" s="70"/>
       <c r="D130" s="36">
         <v>0.12</v>
       </c>
@@ -9715,9 +9725,9 @@
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131" s="48"/>
-      <c r="B131" s="46"/>
-      <c r="C131" s="44"/>
+      <c r="A131" s="58"/>
+      <c r="B131" s="77"/>
+      <c r="C131" s="70"/>
       <c r="D131" s="36" t="s">
         <v>13</v>
       </c>
@@ -9771,14 +9781,14 @@
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A132" s="48">
+      <c r="A132" s="58">
         <v>44</v>
       </c>
-      <c r="B132" s="46" cm="1">
+      <c r="B132" s="77" cm="1">
         <f t="array" aca="1" ref="B132" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B132))</f>
         <v>0.34622999999999998</v>
       </c>
-      <c r="C132" s="44" cm="1">
+      <c r="C132" s="70" cm="1">
         <f t="array" aca="1" ref="C132" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C132))</f>
         <v>-9.6672999999999991</v>
       </c>
@@ -9835,9 +9845,9 @@
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
-      <c r="B133" s="46"/>
-      <c r="C133" s="44"/>
+      <c r="A133" s="58"/>
+      <c r="B133" s="77"/>
+      <c r="C133" s="70"/>
       <c r="D133" s="36">
         <v>0.12</v>
       </c>
@@ -9891,9 +9901,9 @@
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A134" s="48"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="44"/>
+      <c r="A134" s="58"/>
+      <c r="B134" s="77"/>
+      <c r="C134" s="70"/>
       <c r="D134" s="36" t="s">
         <v>13</v>
       </c>
@@ -9947,14 +9957,14 @@
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A135" s="48">
+      <c r="A135" s="58">
         <v>45</v>
       </c>
-      <c r="B135" s="46" cm="1">
+      <c r="B135" s="77" cm="1">
         <f t="array" aca="1" ref="B135" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B135))</f>
         <v>-5.2642600000000002</v>
       </c>
-      <c r="C135" s="44" cm="1">
+      <c r="C135" s="70" cm="1">
         <f t="array" aca="1" ref="C135" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C135))</f>
         <v>-7.7381200000000003</v>
       </c>
@@ -10011,9 +10021,9 @@
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="44"/>
+      <c r="A136" s="58"/>
+      <c r="B136" s="77"/>
+      <c r="C136" s="70"/>
       <c r="D136" s="36">
         <v>0.12</v>
       </c>
@@ -10067,9 +10077,9 @@
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="44"/>
+      <c r="A137" s="58"/>
+      <c r="B137" s="77"/>
+      <c r="C137" s="70"/>
       <c r="D137" s="36" t="s">
         <v>13</v>
       </c>
@@ -10123,14 +10133,14 @@
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A138" s="48">
+      <c r="A138" s="58">
         <v>46</v>
       </c>
-      <c r="B138" s="46" cm="1">
+      <c r="B138" s="77" cm="1">
         <f t="array" aca="1" ref="B138" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B138))</f>
         <v>-0.27460600000000002</v>
       </c>
-      <c r="C138" s="44" cm="1">
+      <c r="C138" s="70" cm="1">
         <f t="array" aca="1" ref="C138" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C138))</f>
         <v>-1.7848299999999999</v>
       </c>
@@ -10187,9 +10197,9 @@
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
-      <c r="B139" s="46"/>
-      <c r="C139" s="44"/>
+      <c r="A139" s="58"/>
+      <c r="B139" s="77"/>
+      <c r="C139" s="70"/>
       <c r="D139" s="36">
         <v>0.12</v>
       </c>
@@ -10243,9 +10253,9 @@
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="44"/>
+      <c r="A140" s="58"/>
+      <c r="B140" s="77"/>
+      <c r="C140" s="70"/>
       <c r="D140" s="36" t="s">
         <v>13</v>
       </c>
@@ -10299,14 +10309,14 @@
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A141" s="48">
+      <c r="A141" s="58">
         <v>47</v>
       </c>
-      <c r="B141" s="46" cm="1">
+      <c r="B141" s="77" cm="1">
         <f t="array" aca="1" ref="B141" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B141))</f>
         <v>-4.71244</v>
       </c>
-      <c r="C141" s="44" cm="1">
+      <c r="C141" s="70" cm="1">
         <f t="array" aca="1" ref="C141" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C141))</f>
         <v>-9.3471899999999994</v>
       </c>
@@ -10363,9 +10373,9 @@
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" s="48"/>
-      <c r="B142" s="46"/>
-      <c r="C142" s="44"/>
+      <c r="A142" s="58"/>
+      <c r="B142" s="77"/>
+      <c r="C142" s="70"/>
       <c r="D142" s="36">
         <v>0.12</v>
       </c>
@@ -10419,9 +10429,9 @@
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A143" s="48"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="44"/>
+      <c r="A143" s="58"/>
+      <c r="B143" s="77"/>
+      <c r="C143" s="70"/>
       <c r="D143" s="36" t="s">
         <v>13</v>
       </c>
@@ -10475,14 +10485,14 @@
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A144" s="48">
+      <c r="A144" s="58">
         <v>48</v>
       </c>
-      <c r="B144" s="46" cm="1">
+      <c r="B144" s="77" cm="1">
         <f t="array" aca="1" ref="B144" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B144))</f>
         <v>-2.2586400000000002</v>
       </c>
-      <c r="C144" s="44" cm="1">
+      <c r="C144" s="70" cm="1">
         <f t="array" aca="1" ref="C144" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C144))</f>
         <v>6.4121100000000002</v>
       </c>
@@ -10539,9 +10549,9 @@
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A145" s="48"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="44"/>
+      <c r="A145" s="58"/>
+      <c r="B145" s="77"/>
+      <c r="C145" s="70"/>
       <c r="D145" s="36">
         <v>0.12</v>
       </c>
@@ -10595,9 +10605,9 @@
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A146" s="48"/>
-      <c r="B146" s="46"/>
-      <c r="C146" s="44"/>
+      <c r="A146" s="58"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="70"/>
       <c r="D146" s="36" t="s">
         <v>13</v>
       </c>
@@ -10651,14 +10661,14 @@
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A147" s="48">
+      <c r="A147" s="58">
         <v>49</v>
       </c>
-      <c r="B147" s="46" cm="1">
+      <c r="B147" s="77" cm="1">
         <f t="array" aca="1" ref="B147" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B147))</f>
         <v>4.0758999999999999</v>
       </c>
-      <c r="C147" s="44" cm="1">
+      <c r="C147" s="70" cm="1">
         <f t="array" aca="1" ref="C147" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C147))</f>
         <v>1.6413</v>
       </c>
@@ -10715,9 +10725,9 @@
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
-      <c r="B148" s="46"/>
-      <c r="C148" s="44"/>
+      <c r="A148" s="58"/>
+      <c r="B148" s="77"/>
+      <c r="C148" s="70"/>
       <c r="D148" s="36">
         <v>0.12</v>
       </c>
@@ -10771,9 +10781,9 @@
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
-      <c r="B149" s="46"/>
-      <c r="C149" s="44"/>
+      <c r="A149" s="58"/>
+      <c r="B149" s="77"/>
+      <c r="C149" s="70"/>
       <c r="D149" s="36" t="s">
         <v>13</v>
       </c>
@@ -10827,14 +10837,14 @@
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A150" s="48">
+      <c r="A150" s="58">
         <v>50</v>
       </c>
-      <c r="B150" s="46" cm="1">
+      <c r="B150" s="77" cm="1">
         <f t="array" aca="1" ref="B150" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B150))</f>
         <v>9.9187600000000007</v>
       </c>
-      <c r="C150" s="44" cm="1">
+      <c r="C150" s="70" cm="1">
         <f t="array" aca="1" ref="C150" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C150))</f>
         <v>1.42998</v>
       </c>
@@ -10891,9 +10901,9 @@
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
-      <c r="B151" s="46"/>
-      <c r="C151" s="44"/>
+      <c r="A151" s="58"/>
+      <c r="B151" s="77"/>
+      <c r="C151" s="70"/>
       <c r="D151" s="36">
         <v>0.12</v>
       </c>
@@ -10947,9 +10957,9 @@
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
-      <c r="B152" s="46"/>
-      <c r="C152" s="44"/>
+      <c r="A152" s="58"/>
+      <c r="B152" s="77"/>
+      <c r="C152" s="70"/>
       <c r="D152" s="36" t="s">
         <v>13</v>
       </c>
@@ -11003,14 +11013,14 @@
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A153" s="48">
+      <c r="A153" s="58">
         <v>51</v>
       </c>
-      <c r="B153" s="46" cm="1">
+      <c r="B153" s="77" cm="1">
         <f t="array" aca="1" ref="B153" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B153))</f>
         <v>2.3225699999999998</v>
       </c>
-      <c r="C153" s="44" cm="1">
+      <c r="C153" s="70" cm="1">
         <f t="array" aca="1" ref="C153" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C153))</f>
         <v>-3.2296</v>
       </c>
@@ -11067,9 +11077,9 @@
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
-      <c r="B154" s="46"/>
-      <c r="C154" s="44"/>
+      <c r="A154" s="58"/>
+      <c r="B154" s="77"/>
+      <c r="C154" s="70"/>
       <c r="D154" s="36">
         <v>0.12</v>
       </c>
@@ -11123,9 +11133,9 @@
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A155" s="48"/>
-      <c r="B155" s="46"/>
-      <c r="C155" s="44"/>
+      <c r="A155" s="58"/>
+      <c r="B155" s="77"/>
+      <c r="C155" s="70"/>
       <c r="D155" s="36" t="s">
         <v>13</v>
       </c>
@@ -11179,14 +11189,14 @@
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A156" s="48">
+      <c r="A156" s="58">
         <v>52</v>
       </c>
-      <c r="B156" s="46" cm="1">
+      <c r="B156" s="77" cm="1">
         <f t="array" aca="1" ref="B156" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B156))</f>
         <v>2.2532100000000002</v>
       </c>
-      <c r="C156" s="44" cm="1">
+      <c r="C156" s="70" cm="1">
         <f t="array" aca="1" ref="C156" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C156))</f>
         <v>3.5668799999999998</v>
       </c>
@@ -11243,9 +11253,9 @@
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A157" s="48"/>
-      <c r="B157" s="46"/>
-      <c r="C157" s="44"/>
+      <c r="A157" s="58"/>
+      <c r="B157" s="77"/>
+      <c r="C157" s="70"/>
       <c r="D157" s="36">
         <v>0.12</v>
       </c>
@@ -11299,9 +11309,9 @@
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A158" s="48"/>
-      <c r="B158" s="46"/>
-      <c r="C158" s="44"/>
+      <c r="A158" s="58"/>
+      <c r="B158" s="77"/>
+      <c r="C158" s="70"/>
       <c r="D158" s="36" t="s">
         <v>13</v>
       </c>
@@ -11355,14 +11365,14 @@
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A159" s="48">
+      <c r="A159" s="58">
         <v>53</v>
       </c>
-      <c r="B159" s="46" cm="1">
+      <c r="B159" s="77" cm="1">
         <f t="array" aca="1" ref="B159" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B159))</f>
         <v>-0.31965100000000002</v>
       </c>
-      <c r="C159" s="44" cm="1">
+      <c r="C159" s="70" cm="1">
         <f t="array" aca="1" ref="C159" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C159))</f>
         <v>5.6181999999999999</v>
       </c>
@@ -11419,9 +11429,9 @@
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
-      <c r="B160" s="46"/>
-      <c r="C160" s="44"/>
+      <c r="A160" s="58"/>
+      <c r="B160" s="77"/>
+      <c r="C160" s="70"/>
       <c r="D160" s="36">
         <v>0.12</v>
       </c>
@@ -11475,9 +11485,9 @@
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A161" s="48"/>
-      <c r="B161" s="46"/>
-      <c r="C161" s="44"/>
+      <c r="A161" s="58"/>
+      <c r="B161" s="77"/>
+      <c r="C161" s="70"/>
       <c r="D161" s="36" t="s">
         <v>13</v>
       </c>
@@ -11531,14 +11541,14 @@
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A162" s="48">
+      <c r="A162" s="58">
         <v>54</v>
       </c>
-      <c r="B162" s="46" cm="1">
+      <c r="B162" s="77" cm="1">
         <f t="array" aca="1" ref="B162" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B162))</f>
         <v>2.8197899999999998</v>
       </c>
-      <c r="C162" s="44" cm="1">
+      <c r="C162" s="70" cm="1">
         <f t="array" aca="1" ref="C162" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C162))</f>
         <v>0.69671700000000003</v>
       </c>
@@ -11595,9 +11605,9 @@
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A163" s="48"/>
-      <c r="B163" s="46"/>
-      <c r="C163" s="44"/>
+      <c r="A163" s="58"/>
+      <c r="B163" s="77"/>
+      <c r="C163" s="70"/>
       <c r="D163" s="36">
         <v>0.12</v>
       </c>
@@ -11651,9 +11661,9 @@
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A164" s="48"/>
-      <c r="B164" s="46"/>
-      <c r="C164" s="44"/>
+      <c r="A164" s="58"/>
+      <c r="B164" s="77"/>
+      <c r="C164" s="70"/>
       <c r="D164" s="36" t="s">
         <v>13</v>
       </c>
@@ -11707,14 +11717,14 @@
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" s="48">
+      <c r="A165" s="58">
         <v>55</v>
       </c>
-      <c r="B165" s="46" cm="1">
+      <c r="B165" s="77" cm="1">
         <f t="array" aca="1" ref="B165" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B165))</f>
         <v>8.9090600000000002</v>
       </c>
-      <c r="C165" s="44" cm="1">
+      <c r="C165" s="70" cm="1">
         <f t="array" aca="1" ref="C165" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C165))</f>
         <v>8.0468799999999998</v>
       </c>
@@ -11771,9 +11781,9 @@
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A166" s="48"/>
-      <c r="B166" s="46"/>
-      <c r="C166" s="44"/>
+      <c r="A166" s="58"/>
+      <c r="B166" s="77"/>
+      <c r="C166" s="70"/>
       <c r="D166" s="36">
         <v>0.12</v>
       </c>
@@ -11827,9 +11837,9 @@
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A167" s="48"/>
-      <c r="B167" s="46"/>
-      <c r="C167" s="44"/>
+      <c r="A167" s="58"/>
+      <c r="B167" s="77"/>
+      <c r="C167" s="70"/>
       <c r="D167" s="36" t="s">
         <v>13</v>
       </c>
@@ -11883,14 +11893,14 @@
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A168" s="48">
+      <c r="A168" s="58">
         <v>56</v>
       </c>
-      <c r="B168" s="46" cm="1">
+      <c r="B168" s="77" cm="1">
         <f t="array" aca="1" ref="B168" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B168))</f>
         <v>5.6729200000000004</v>
       </c>
-      <c r="C168" s="44" cm="1">
+      <c r="C168" s="70" cm="1">
         <f t="array" aca="1" ref="C168" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C168))</f>
         <v>-9.3886000000000003</v>
       </c>
@@ -11947,9 +11957,9 @@
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A169" s="48"/>
-      <c r="B169" s="46"/>
-      <c r="C169" s="44"/>
+      <c r="A169" s="58"/>
+      <c r="B169" s="77"/>
+      <c r="C169" s="70"/>
       <c r="D169" s="36">
         <v>0.12</v>
       </c>
@@ -12003,9 +12013,9 @@
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A170" s="48"/>
-      <c r="B170" s="46"/>
-      <c r="C170" s="44"/>
+      <c r="A170" s="58"/>
+      <c r="B170" s="77"/>
+      <c r="C170" s="70"/>
       <c r="D170" s="36" t="s">
         <v>13</v>
       </c>
@@ -12059,14 +12069,14 @@
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A171" s="48">
+      <c r="A171" s="58">
         <v>57</v>
       </c>
-      <c r="B171" s="46" cm="1">
+      <c r="B171" s="77" cm="1">
         <f t="array" aca="1" ref="B171" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B171))</f>
         <v>-8.2707899999999999</v>
       </c>
-      <c r="C171" s="44" cm="1">
+      <c r="C171" s="70" cm="1">
         <f t="array" aca="1" ref="C171" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C171))</f>
         <v>-7.3533299999999997</v>
       </c>
@@ -12123,9 +12133,9 @@
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A172" s="48"/>
-      <c r="B172" s="46"/>
-      <c r="C172" s="44"/>
+      <c r="A172" s="58"/>
+      <c r="B172" s="77"/>
+      <c r="C172" s="70"/>
       <c r="D172" s="36">
         <v>0.12</v>
       </c>
@@ -12179,9 +12189,9 @@
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A173" s="48"/>
-      <c r="B173" s="46"/>
-      <c r="C173" s="44"/>
+      <c r="A173" s="58"/>
+      <c r="B173" s="77"/>
+      <c r="C173" s="70"/>
       <c r="D173" s="36" t="s">
         <v>13</v>
       </c>
@@ -12235,14 +12245,14 @@
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A174" s="48">
+      <c r="A174" s="58">
         <v>58</v>
       </c>
-      <c r="B174" s="46" cm="1">
+      <c r="B174" s="77" cm="1">
         <f t="array" aca="1" ref="B174" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B174))</f>
         <v>2.1122999999999998</v>
       </c>
-      <c r="C174" s="44" cm="1">
+      <c r="C174" s="70" cm="1">
         <f t="array" aca="1" ref="C174" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C174))</f>
         <v>6.3234700000000004</v>
       </c>
@@ -12299,9 +12309,9 @@
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A175" s="48"/>
-      <c r="B175" s="46"/>
-      <c r="C175" s="44"/>
+      <c r="A175" s="58"/>
+      <c r="B175" s="77"/>
+      <c r="C175" s="70"/>
       <c r="D175" s="36">
         <v>0.12</v>
       </c>
@@ -12355,9 +12365,9 @@
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A176" s="48"/>
-      <c r="B176" s="46"/>
-      <c r="C176" s="44"/>
+      <c r="A176" s="58"/>
+      <c r="B176" s="77"/>
+      <c r="C176" s="70"/>
       <c r="D176" s="36" t="s">
         <v>13</v>
       </c>
@@ -12411,14 +12421,14 @@
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A177" s="48">
+      <c r="A177" s="58">
         <v>59</v>
       </c>
-      <c r="B177" s="46" cm="1">
+      <c r="B177" s="77" cm="1">
         <f t="array" aca="1" ref="B177" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B177))</f>
         <v>4.6690500000000004</v>
       </c>
-      <c r="C177" s="44" cm="1">
+      <c r="C177" s="70" cm="1">
         <f t="array" aca="1" ref="C177" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C177))</f>
         <v>4.1526899999999998</v>
       </c>
@@ -12475,9 +12485,9 @@
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A178" s="48"/>
-      <c r="B178" s="46"/>
-      <c r="C178" s="44"/>
+      <c r="A178" s="58"/>
+      <c r="B178" s="77"/>
+      <c r="C178" s="70"/>
       <c r="D178" s="36">
         <v>0.12</v>
       </c>
@@ -12531,9 +12541,9 @@
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A179" s="48"/>
-      <c r="B179" s="46"/>
-      <c r="C179" s="44"/>
+      <c r="A179" s="58"/>
+      <c r="B179" s="77"/>
+      <c r="C179" s="70"/>
       <c r="D179" s="36" t="s">
         <v>13</v>
       </c>
@@ -12587,14 +12597,14 @@
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A180" s="48">
+      <c r="A180" s="58">
         <v>60</v>
       </c>
-      <c r="B180" s="46" cm="1">
+      <c r="B180" s="77" cm="1">
         <f t="array" aca="1" ref="B180" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B180))</f>
         <v>6.7030000000000003</v>
       </c>
-      <c r="C180" s="44" cm="1">
+      <c r="C180" s="70" cm="1">
         <f t="array" aca="1" ref="C180" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C180))</f>
         <v>4.4219499999999998</v>
       </c>
@@ -12651,9 +12661,9 @@
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A181" s="48"/>
-      <c r="B181" s="46"/>
-      <c r="C181" s="44"/>
+      <c r="A181" s="58"/>
+      <c r="B181" s="77"/>
+      <c r="C181" s="70"/>
       <c r="D181" s="36">
         <v>0.12</v>
       </c>
@@ -12707,9 +12717,9 @@
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A182" s="48"/>
-      <c r="B182" s="46"/>
-      <c r="C182" s="44"/>
+      <c r="A182" s="58"/>
+      <c r="B182" s="77"/>
+      <c r="C182" s="70"/>
       <c r="D182" s="36" t="s">
         <v>13</v>
       </c>
@@ -12763,14 +12773,14 @@
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A183" s="48">
+      <c r="A183" s="58">
         <v>61</v>
       </c>
-      <c r="B183" s="46" cm="1">
+      <c r="B183" s="77" cm="1">
         <f t="array" aca="1" ref="B183" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B183))</f>
         <v>7.5266599999999997</v>
       </c>
-      <c r="C183" s="44" cm="1">
+      <c r="C183" s="70" cm="1">
         <f t="array" aca="1" ref="C183" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C183))</f>
         <v>5.2238499999999997</v>
       </c>
@@ -12827,9 +12837,9 @@
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A184" s="48"/>
-      <c r="B184" s="46"/>
-      <c r="C184" s="44"/>
+      <c r="A184" s="58"/>
+      <c r="B184" s="77"/>
+      <c r="C184" s="70"/>
       <c r="D184" s="36">
         <v>0.12</v>
       </c>
@@ -12883,9 +12893,9 @@
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A185" s="48"/>
-      <c r="B185" s="46"/>
-      <c r="C185" s="44"/>
+      <c r="A185" s="58"/>
+      <c r="B185" s="77"/>
+      <c r="C185" s="70"/>
       <c r="D185" s="36" t="s">
         <v>13</v>
       </c>
@@ -12939,14 +12949,14 @@
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A186" s="48">
+      <c r="A186" s="58">
         <v>62</v>
       </c>
-      <c r="B186" s="46" cm="1">
+      <c r="B186" s="77" cm="1">
         <f t="array" aca="1" ref="B186" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B186))</f>
         <v>-2.9377599999999999</v>
       </c>
-      <c r="C186" s="44" cm="1">
+      <c r="C186" s="70" cm="1">
         <f t="array" aca="1" ref="C186" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C186))</f>
         <v>2.8811599999999999</v>
       </c>
@@ -13003,9 +13013,9 @@
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A187" s="48"/>
-      <c r="B187" s="46"/>
-      <c r="C187" s="44"/>
+      <c r="A187" s="58"/>
+      <c r="B187" s="77"/>
+      <c r="C187" s="70"/>
       <c r="D187" s="36">
         <v>0.12</v>
       </c>
@@ -13059,9 +13069,9 @@
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A188" s="48"/>
-      <c r="B188" s="46"/>
-      <c r="C188" s="44"/>
+      <c r="A188" s="58"/>
+      <c r="B188" s="77"/>
+      <c r="C188" s="70"/>
       <c r="D188" s="36" t="s">
         <v>13</v>
       </c>
@@ -13115,14 +13125,14 @@
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A189" s="48">
+      <c r="A189" s="58">
         <v>63</v>
       </c>
-      <c r="B189" s="46" cm="1">
+      <c r="B189" s="77" cm="1">
         <f t="array" aca="1" ref="B189" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B189))</f>
         <v>-9.2903300000000009</v>
       </c>
-      <c r="C189" s="44" cm="1">
+      <c r="C189" s="70" cm="1">
         <f t="array" aca="1" ref="C189" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C189))</f>
         <v>9.30335</v>
       </c>
@@ -13179,9 +13189,9 @@
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A190" s="48"/>
-      <c r="B190" s="46"/>
-      <c r="C190" s="44"/>
+      <c r="A190" s="58"/>
+      <c r="B190" s="77"/>
+      <c r="C190" s="70"/>
       <c r="D190" s="36">
         <v>0.12</v>
       </c>
@@ -13235,9 +13245,9 @@
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A191" s="48"/>
-      <c r="B191" s="46"/>
-      <c r="C191" s="44"/>
+      <c r="A191" s="58"/>
+      <c r="B191" s="77"/>
+      <c r="C191" s="70"/>
       <c r="D191" s="36" t="s">
         <v>13</v>
       </c>
@@ -13291,14 +13301,14 @@
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A192" s="48">
+      <c r="A192" s="58">
         <v>64</v>
       </c>
-      <c r="B192" s="46" cm="1">
+      <c r="B192" s="77" cm="1">
         <f t="array" aca="1" ref="B192" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B192))</f>
         <v>-3.3769999999999998</v>
       </c>
-      <c r="C192" s="44" cm="1">
+      <c r="C192" s="70" cm="1">
         <f t="array" aca="1" ref="C192" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C192))</f>
         <v>-7.1238799999999998</v>
       </c>
@@ -13355,9 +13365,9 @@
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A193" s="48"/>
-      <c r="B193" s="46"/>
-      <c r="C193" s="44"/>
+      <c r="A193" s="58"/>
+      <c r="B193" s="77"/>
+      <c r="C193" s="70"/>
       <c r="D193" s="36">
         <v>0.12</v>
       </c>
@@ -13411,9 +13421,9 @@
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A194" s="48"/>
-      <c r="B194" s="46"/>
-      <c r="C194" s="44"/>
+      <c r="A194" s="58"/>
+      <c r="B194" s="77"/>
+      <c r="C194" s="70"/>
       <c r="D194" s="36" t="s">
         <v>13</v>
       </c>
@@ -13467,14 +13477,14 @@
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A195" s="48">
+      <c r="A195" s="58">
         <v>65</v>
       </c>
-      <c r="B195" s="46" cm="1">
+      <c r="B195" s="77" cm="1">
         <f t="array" aca="1" ref="B195" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B195))</f>
         <v>-4.63537</v>
       </c>
-      <c r="C195" s="44" cm="1">
+      <c r="C195" s="70" cm="1">
         <f t="array" aca="1" ref="C195" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C195))</f>
         <v>6.5340600000000002</v>
       </c>
@@ -13531,9 +13541,9 @@
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A196" s="48"/>
-      <c r="B196" s="46"/>
-      <c r="C196" s="44"/>
+      <c r="A196" s="58"/>
+      <c r="B196" s="77"/>
+      <c r="C196" s="70"/>
       <c r="D196" s="36">
         <v>0.12</v>
       </c>
@@ -13587,9 +13597,9 @@
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A197" s="48"/>
-      <c r="B197" s="46"/>
-      <c r="C197" s="44"/>
+      <c r="A197" s="58"/>
+      <c r="B197" s="77"/>
+      <c r="C197" s="70"/>
       <c r="D197" s="36" t="s">
         <v>13</v>
       </c>
@@ -13643,14 +13653,14 @@
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A198" s="48">
+      <c r="A198" s="58">
         <v>66</v>
       </c>
-      <c r="B198" s="46" cm="1">
+      <c r="B198" s="77" cm="1">
         <f t="array" aca="1" ref="B198" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B198))</f>
         <v>5.1065500000000004</v>
       </c>
-      <c r="C198" s="44" cm="1">
+      <c r="C198" s="70" cm="1">
         <f t="array" aca="1" ref="C198" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C198))</f>
         <v>-9.0420400000000001</v>
       </c>
@@ -13707,9 +13717,9 @@
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A199" s="48"/>
-      <c r="B199" s="46"/>
-      <c r="C199" s="44"/>
+      <c r="A199" s="58"/>
+      <c r="B199" s="77"/>
+      <c r="C199" s="70"/>
       <c r="D199" s="36">
         <v>0.12</v>
       </c>
@@ -13763,9 +13773,9 @@
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A200" s="48"/>
-      <c r="B200" s="46"/>
-      <c r="C200" s="44"/>
+      <c r="A200" s="58"/>
+      <c r="B200" s="77"/>
+      <c r="C200" s="70"/>
       <c r="D200" s="36" t="s">
         <v>13</v>
       </c>
@@ -13819,14 +13829,14 @@
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A201" s="48">
+      <c r="A201" s="58">
         <v>67</v>
       </c>
-      <c r="B201" s="46" cm="1">
+      <c r="B201" s="77" cm="1">
         <f t="array" aca="1" ref="B201" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B201))</f>
         <v>-8.5826499999999992</v>
       </c>
-      <c r="C201" s="44" cm="1">
+      <c r="C201" s="70" cm="1">
         <f t="array" aca="1" ref="C201" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C201))</f>
         <v>2.7327599999999999</v>
       </c>
@@ -13883,9 +13893,9 @@
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A202" s="48"/>
-      <c r="B202" s="46"/>
-      <c r="C202" s="44"/>
+      <c r="A202" s="58"/>
+      <c r="B202" s="77"/>
+      <c r="C202" s="70"/>
       <c r="D202" s="36">
         <v>0.12</v>
       </c>
@@ -13939,9 +13949,9 @@
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A203" s="48"/>
-      <c r="B203" s="46"/>
-      <c r="C203" s="44"/>
+      <c r="A203" s="58"/>
+      <c r="B203" s="77"/>
+      <c r="C203" s="70"/>
       <c r="D203" s="36" t="s">
         <v>13</v>
       </c>
@@ -13995,14 +14005,14 @@
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A204" s="48">
+      <c r="A204" s="58">
         <v>68</v>
       </c>
-      <c r="B204" s="46" cm="1">
+      <c r="B204" s="77" cm="1">
         <f t="array" aca="1" ref="B204" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B204))</f>
         <v>8.0481499999999997</v>
       </c>
-      <c r="C204" s="44" cm="1">
+      <c r="C204" s="70" cm="1">
         <f t="array" aca="1" ref="C204" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C204))</f>
         <v>8.7625100000000007</v>
       </c>
@@ -14059,9 +14069,9 @@
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A205" s="48"/>
-      <c r="B205" s="46"/>
-      <c r="C205" s="44"/>
+      <c r="A205" s="58"/>
+      <c r="B205" s="77"/>
+      <c r="C205" s="70"/>
       <c r="D205" s="36">
         <v>0.12</v>
       </c>
@@ -14115,9 +14125,9 @@
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A206" s="48"/>
-      <c r="B206" s="46"/>
-      <c r="C206" s="44"/>
+      <c r="A206" s="58"/>
+      <c r="B206" s="77"/>
+      <c r="C206" s="70"/>
       <c r="D206" s="36" t="s">
         <v>13</v>
       </c>
@@ -14171,14 +14181,14 @@
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A207" s="48">
+      <c r="A207" s="58">
         <v>69</v>
       </c>
-      <c r="B207" s="46" cm="1">
+      <c r="B207" s="77" cm="1">
         <f t="array" aca="1" ref="B207" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B207))</f>
         <v>-8.7939900000000009</v>
       </c>
-      <c r="C207" s="44" cm="1">
+      <c r="C207" s="70" cm="1">
         <f t="array" aca="1" ref="C207" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C207))</f>
         <v>-8.5525699999999993</v>
       </c>
@@ -14235,9 +14245,9 @@
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A208" s="48"/>
-      <c r="B208" s="46"/>
-      <c r="C208" s="44"/>
+      <c r="A208" s="58"/>
+      <c r="B208" s="77"/>
+      <c r="C208" s="70"/>
       <c r="D208" s="36">
         <v>0.12</v>
       </c>
@@ -14291,9 +14301,9 @@
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A209" s="48"/>
-      <c r="B209" s="46"/>
-      <c r="C209" s="44"/>
+      <c r="A209" s="58"/>
+      <c r="B209" s="77"/>
+      <c r="C209" s="70"/>
       <c r="D209" s="36" t="s">
         <v>13</v>
       </c>
@@ -14347,14 +14357,14 @@
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A210" s="48">
+      <c r="A210" s="58">
         <v>70</v>
       </c>
-      <c r="B210" s="46" cm="1">
+      <c r="B210" s="77" cm="1">
         <f t="array" aca="1" ref="B210" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B210))</f>
         <v>2.8092199999999998</v>
       </c>
-      <c r="C210" s="44" cm="1">
+      <c r="C210" s="70" cm="1">
         <f t="array" aca="1" ref="C210" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C210))</f>
         <v>-9.6197999999999997</v>
       </c>
@@ -14411,9 +14421,9 @@
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A211" s="48"/>
-      <c r="B211" s="46"/>
-      <c r="C211" s="44"/>
+      <c r="A211" s="58"/>
+      <c r="B211" s="77"/>
+      <c r="C211" s="70"/>
       <c r="D211" s="36">
         <v>0.12</v>
       </c>
@@ -14467,9 +14477,9 @@
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A212" s="48"/>
-      <c r="B212" s="46"/>
-      <c r="C212" s="44"/>
+      <c r="A212" s="58"/>
+      <c r="B212" s="77"/>
+      <c r="C212" s="70"/>
       <c r="D212" s="36" t="s">
         <v>13</v>
       </c>
@@ -14523,14 +14533,14 @@
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A213" s="48">
+      <c r="A213" s="58">
         <v>71</v>
       </c>
-      <c r="B213" s="46" cm="1">
+      <c r="B213" s="77" cm="1">
         <f t="array" aca="1" ref="B213" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B213))</f>
         <v>1.1829799999999999</v>
       </c>
-      <c r="C213" s="44" cm="1">
+      <c r="C213" s="70" cm="1">
         <f t="array" aca="1" ref="C213" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C213))</f>
         <v>-3.6842000000000001</v>
       </c>
@@ -14587,9 +14597,9 @@
       </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A214" s="48"/>
-      <c r="B214" s="46"/>
-      <c r="C214" s="44"/>
+      <c r="A214" s="58"/>
+      <c r="B214" s="77"/>
+      <c r="C214" s="70"/>
       <c r="D214" s="36">
         <v>0.12</v>
       </c>
@@ -14643,9 +14653,9 @@
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A215" s="48"/>
-      <c r="B215" s="46"/>
-      <c r="C215" s="44"/>
+      <c r="A215" s="58"/>
+      <c r="B215" s="77"/>
+      <c r="C215" s="70"/>
       <c r="D215" s="36" t="s">
         <v>13</v>
       </c>
@@ -14699,14 +14709,14 @@
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A216" s="48">
+      <c r="A216" s="58">
         <v>72</v>
       </c>
-      <c r="B216" s="46" cm="1">
+      <c r="B216" s="77" cm="1">
         <f t="array" aca="1" ref="B216" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B216))</f>
         <v>7.5110700000000001</v>
       </c>
-      <c r="C216" s="44" cm="1">
+      <c r="C216" s="70" cm="1">
         <f t="array" aca="1" ref="C216" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C216))</f>
         <v>-3.3776199999999998</v>
       </c>
@@ -14763,9 +14773,9 @@
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A217" s="48"/>
-      <c r="B217" s="46"/>
-      <c r="C217" s="44"/>
+      <c r="A217" s="58"/>
+      <c r="B217" s="77"/>
+      <c r="C217" s="70"/>
       <c r="D217" s="36">
         <v>0.12</v>
       </c>
@@ -14819,9 +14829,9 @@
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A218" s="48"/>
-      <c r="B218" s="46"/>
-      <c r="C218" s="44"/>
+      <c r="A218" s="58"/>
+      <c r="B218" s="77"/>
+      <c r="C218" s="70"/>
       <c r="D218" s="36" t="s">
         <v>13</v>
       </c>
@@ -14875,14 +14885,14 @@
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A219" s="48">
+      <c r="A219" s="58">
         <v>73</v>
       </c>
-      <c r="B219" s="46" cm="1">
+      <c r="B219" s="77" cm="1">
         <f t="array" aca="1" ref="B219" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B219))</f>
         <v>0.19847600000000001</v>
       </c>
-      <c r="C219" s="44" cm="1">
+      <c r="C219" s="70" cm="1">
         <f t="array" aca="1" ref="C219" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C219))</f>
         <v>3.2601199999999998E-4</v>
       </c>
@@ -14939,9 +14949,9 @@
       </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A220" s="48"/>
-      <c r="B220" s="46"/>
-      <c r="C220" s="44"/>
+      <c r="A220" s="58"/>
+      <c r="B220" s="77"/>
+      <c r="C220" s="70"/>
       <c r="D220" s="36">
         <v>0.12</v>
       </c>
@@ -14995,9 +15005,9 @@
       </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A221" s="48"/>
-      <c r="B221" s="46"/>
-      <c r="C221" s="44"/>
+      <c r="A221" s="58"/>
+      <c r="B221" s="77"/>
+      <c r="C221" s="70"/>
       <c r="D221" s="36" t="s">
         <v>13</v>
       </c>
@@ -15051,14 +15061,14 @@
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A222" s="48">
+      <c r="A222" s="58">
         <v>74</v>
       </c>
-      <c r="B222" s="46" cm="1">
+      <c r="B222" s="77" cm="1">
         <f t="array" aca="1" ref="B222" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B222))</f>
         <v>7.6719499999999998</v>
       </c>
-      <c r="C222" s="44" cm="1">
+      <c r="C222" s="70" cm="1">
         <f t="array" aca="1" ref="C222" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C222))</f>
         <v>-7.3863700000000003</v>
       </c>
@@ -15115,9 +15125,9 @@
       </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A223" s="48"/>
-      <c r="B223" s="46"/>
-      <c r="C223" s="44"/>
+      <c r="A223" s="58"/>
+      <c r="B223" s="77"/>
+      <c r="C223" s="70"/>
       <c r="D223" s="36">
         <v>0.12</v>
       </c>
@@ -15171,9 +15181,9 @@
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A224" s="48"/>
-      <c r="B224" s="46"/>
-      <c r="C224" s="44"/>
+      <c r="A224" s="58"/>
+      <c r="B224" s="77"/>
+      <c r="C224" s="70"/>
       <c r="D224" s="36" t="s">
         <v>13</v>
       </c>
@@ -15227,14 +15237,14 @@
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A225" s="48">
+      <c r="A225" s="58">
         <v>75</v>
       </c>
-      <c r="B225" s="46" cm="1">
+      <c r="B225" s="77" cm="1">
         <f t="array" aca="1" ref="B225" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B225))</f>
         <v>-0.16708700000000001</v>
       </c>
-      <c r="C225" s="44" cm="1">
+      <c r="C225" s="70" cm="1">
         <f t="array" aca="1" ref="C225" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C225))</f>
         <v>0.58370100000000003</v>
       </c>
@@ -15291,9 +15301,9 @@
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A226" s="48"/>
-      <c r="B226" s="46"/>
-      <c r="C226" s="44"/>
+      <c r="A226" s="58"/>
+      <c r="B226" s="77"/>
+      <c r="C226" s="70"/>
       <c r="D226" s="36">
         <v>0.12</v>
       </c>
@@ -15347,9 +15357,9 @@
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A227" s="48"/>
-      <c r="B227" s="46"/>
-      <c r="C227" s="44"/>
+      <c r="A227" s="58"/>
+      <c r="B227" s="77"/>
+      <c r="C227" s="70"/>
       <c r="D227" s="36" t="s">
         <v>13</v>
       </c>
@@ -15403,14 +15413,14 @@
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A228" s="48">
+      <c r="A228" s="58">
         <v>76</v>
       </c>
-      <c r="B228" s="46" cm="1">
+      <c r="B228" s="77" cm="1">
         <f t="array" aca="1" ref="B228" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B228))</f>
         <v>-8.0286800000000005E-2</v>
       </c>
-      <c r="C228" s="44" cm="1">
+      <c r="C228" s="70" cm="1">
         <f t="array" aca="1" ref="C228" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C228))</f>
         <v>-3.79644</v>
       </c>
@@ -15467,9 +15477,9 @@
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A229" s="48"/>
-      <c r="B229" s="46"/>
-      <c r="C229" s="44"/>
+      <c r="A229" s="58"/>
+      <c r="B229" s="77"/>
+      <c r="C229" s="70"/>
       <c r="D229" s="36">
         <v>0.12</v>
       </c>
@@ -15523,9 +15533,9 @@
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A230" s="48"/>
-      <c r="B230" s="46"/>
-      <c r="C230" s="44"/>
+      <c r="A230" s="58"/>
+      <c r="B230" s="77"/>
+      <c r="C230" s="70"/>
       <c r="D230" s="36" t="s">
         <v>13</v>
       </c>
@@ -15579,14 +15589,14 @@
       </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A231" s="48">
+      <c r="A231" s="58">
         <v>77</v>
       </c>
-      <c r="B231" s="46" cm="1">
+      <c r="B231" s="77" cm="1">
         <f t="array" aca="1" ref="B231" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B231))</f>
         <v>1.7151400000000001</v>
       </c>
-      <c r="C231" s="44" cm="1">
+      <c r="C231" s="70" cm="1">
         <f t="array" aca="1" ref="C231" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C231))</f>
         <v>-7.8318300000000001</v>
       </c>
@@ -15643,9 +15653,9 @@
       </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A232" s="48"/>
-      <c r="B232" s="46"/>
-      <c r="C232" s="44"/>
+      <c r="A232" s="58"/>
+      <c r="B232" s="77"/>
+      <c r="C232" s="70"/>
       <c r="D232" s="36">
         <v>0.12</v>
       </c>
@@ -15699,9 +15709,9 @@
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A233" s="48"/>
-      <c r="B233" s="46"/>
-      <c r="C233" s="44"/>
+      <c r="A233" s="58"/>
+      <c r="B233" s="77"/>
+      <c r="C233" s="70"/>
       <c r="D233" s="36" t="s">
         <v>13</v>
       </c>
@@ -15755,14 +15765,14 @@
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A234" s="48">
+      <c r="A234" s="58">
         <v>78</v>
       </c>
-      <c r="B234" s="46" cm="1">
+      <c r="B234" s="77" cm="1">
         <f t="array" aca="1" ref="B234" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B234))</f>
         <v>8.3907600000000002</v>
       </c>
-      <c r="C234" s="44" cm="1">
+      <c r="C234" s="70" cm="1">
         <f t="array" aca="1" ref="C234" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C234))</f>
         <v>4.4766700000000004</v>
       </c>
@@ -15819,9 +15829,9 @@
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A235" s="48"/>
-      <c r="B235" s="46"/>
-      <c r="C235" s="44"/>
+      <c r="A235" s="58"/>
+      <c r="B235" s="77"/>
+      <c r="C235" s="70"/>
       <c r="D235" s="36">
         <v>0.12</v>
       </c>
@@ -15875,9 +15885,9 @@
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A236" s="48"/>
-      <c r="B236" s="46"/>
-      <c r="C236" s="44"/>
+      <c r="A236" s="58"/>
+      <c r="B236" s="77"/>
+      <c r="C236" s="70"/>
       <c r="D236" s="36" t="s">
         <v>13</v>
       </c>
@@ -15931,14 +15941,14 @@
       </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A237" s="48">
+      <c r="A237" s="58">
         <v>79</v>
       </c>
-      <c r="B237" s="46" cm="1">
+      <c r="B237" s="77" cm="1">
         <f t="array" aca="1" ref="B237" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B237))</f>
         <v>9.2780199999999997</v>
       </c>
-      <c r="C237" s="44" cm="1">
+      <c r="C237" s="70" cm="1">
         <f t="array" aca="1" ref="C237" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C237))</f>
         <v>9.6300699999999999</v>
       </c>
@@ -15995,9 +16005,9 @@
       </c>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A238" s="48"/>
-      <c r="B238" s="46"/>
-      <c r="C238" s="44"/>
+      <c r="A238" s="58"/>
+      <c r="B238" s="77"/>
+      <c r="C238" s="70"/>
       <c r="D238" s="36">
         <v>0.12</v>
       </c>
@@ -16051,9 +16061,9 @@
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A239" s="48"/>
-      <c r="B239" s="46"/>
-      <c r="C239" s="44"/>
+      <c r="A239" s="58"/>
+      <c r="B239" s="77"/>
+      <c r="C239" s="70"/>
       <c r="D239" s="36" t="s">
         <v>13</v>
       </c>
@@ -16107,14 +16117,14 @@
       </c>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A240" s="48">
+      <c r="A240" s="58">
         <v>80</v>
       </c>
-      <c r="B240" s="46" cm="1">
+      <c r="B240" s="77" cm="1">
         <f t="array" aca="1" ref="B240" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B240))</f>
         <v>-4.2242600000000001</v>
       </c>
-      <c r="C240" s="44" cm="1">
+      <c r="C240" s="70" cm="1">
         <f t="array" aca="1" ref="C240" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C240))</f>
         <v>-5.2198700000000002</v>
       </c>
@@ -16171,9 +16181,9 @@
       </c>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A241" s="48"/>
-      <c r="B241" s="46"/>
-      <c r="C241" s="44"/>
+      <c r="A241" s="58"/>
+      <c r="B241" s="77"/>
+      <c r="C241" s="70"/>
       <c r="D241" s="36">
         <v>0.12</v>
       </c>
@@ -16227,9 +16237,9 @@
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A242" s="48"/>
-      <c r="B242" s="46"/>
-      <c r="C242" s="44"/>
+      <c r="A242" s="58"/>
+      <c r="B242" s="77"/>
+      <c r="C242" s="70"/>
       <c r="D242" s="36" t="s">
         <v>13</v>
       </c>
@@ -16283,14 +16293,14 @@
       </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A243" s="48">
+      <c r="A243" s="58">
         <v>81</v>
       </c>
-      <c r="B243" s="46" cm="1">
+      <c r="B243" s="77" cm="1">
         <f t="array" aca="1" ref="B243" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B243))</f>
         <v>-7.4295</v>
       </c>
-      <c r="C243" s="44" cm="1">
+      <c r="C243" s="70" cm="1">
         <f t="array" aca="1" ref="C243" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C243))</f>
         <v>-7.24329</v>
       </c>
@@ -16347,9 +16357,9 @@
       </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A244" s="48"/>
-      <c r="B244" s="46"/>
-      <c r="C244" s="44"/>
+      <c r="A244" s="58"/>
+      <c r="B244" s="77"/>
+      <c r="C244" s="70"/>
       <c r="D244" s="36">
         <v>0.12</v>
       </c>
@@ -16403,9 +16413,9 @@
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A245" s="48"/>
-      <c r="B245" s="46"/>
-      <c r="C245" s="44"/>
+      <c r="A245" s="58"/>
+      <c r="B245" s="77"/>
+      <c r="C245" s="70"/>
       <c r="D245" s="36" t="s">
         <v>13</v>
       </c>
@@ -16459,14 +16469,14 @@
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A246" s="48">
+      <c r="A246" s="58">
         <v>82</v>
       </c>
-      <c r="B246" s="46" cm="1">
+      <c r="B246" s="77" cm="1">
         <f t="array" aca="1" ref="B246" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B246))</f>
         <v>6.1015899999999998</v>
       </c>
-      <c r="C246" s="44" cm="1">
+      <c r="C246" s="70" cm="1">
         <f t="array" aca="1" ref="C246" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C246))</f>
         <v>-7.4825799999999996</v>
       </c>
@@ -16523,9 +16533,9 @@
       </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A247" s="48"/>
-      <c r="B247" s="46"/>
-      <c r="C247" s="44"/>
+      <c r="A247" s="58"/>
+      <c r="B247" s="77"/>
+      <c r="C247" s="70"/>
       <c r="D247" s="36">
         <v>0.12</v>
       </c>
@@ -16579,9 +16589,9 @@
       </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A248" s="48"/>
-      <c r="B248" s="46"/>
-      <c r="C248" s="44"/>
+      <c r="A248" s="58"/>
+      <c r="B248" s="77"/>
+      <c r="C248" s="70"/>
       <c r="D248" s="36" t="s">
         <v>13</v>
       </c>
@@ -16635,14 +16645,14 @@
       </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A249" s="48">
+      <c r="A249" s="58">
         <v>83</v>
       </c>
-      <c r="B249" s="46" cm="1">
+      <c r="B249" s="77" cm="1">
         <f t="array" aca="1" ref="B249" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B249))</f>
         <v>8.4517199999999999</v>
       </c>
-      <c r="C249" s="44" cm="1">
+      <c r="C249" s="70" cm="1">
         <f t="array" aca="1" ref="C249" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C249))</f>
         <v>3.5679099999999998E-2</v>
       </c>
@@ -16699,9 +16709,9 @@
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A250" s="48"/>
-      <c r="B250" s="46"/>
-      <c r="C250" s="44"/>
+      <c r="A250" s="58"/>
+      <c r="B250" s="77"/>
+      <c r="C250" s="70"/>
       <c r="D250" s="36">
         <v>0.12</v>
       </c>
@@ -16755,9 +16765,9 @@
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A251" s="48"/>
-      <c r="B251" s="46"/>
-      <c r="C251" s="44"/>
+      <c r="A251" s="58"/>
+      <c r="B251" s="77"/>
+      <c r="C251" s="70"/>
       <c r="D251" s="36" t="s">
         <v>13</v>
       </c>
@@ -16811,14 +16821,14 @@
       </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A252" s="48">
+      <c r="A252" s="58">
         <v>84</v>
       </c>
-      <c r="B252" s="46" cm="1">
+      <c r="B252" s="77" cm="1">
         <f t="array" aca="1" ref="B252" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B252))</f>
         <v>9.8290199999999999</v>
       </c>
-      <c r="C252" s="44" cm="1">
+      <c r="C252" s="70" cm="1">
         <f t="array" aca="1" ref="C252" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C252))</f>
         <v>-4.4340999999999999</v>
       </c>
@@ -16875,9 +16885,9 @@
       </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A253" s="48"/>
-      <c r="B253" s="46"/>
-      <c r="C253" s="44"/>
+      <c r="A253" s="58"/>
+      <c r="B253" s="77"/>
+      <c r="C253" s="70"/>
       <c r="D253" s="36">
         <v>0.12</v>
       </c>
@@ -16931,9 +16941,9 @@
       </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A254" s="48"/>
-      <c r="B254" s="46"/>
-      <c r="C254" s="44"/>
+      <c r="A254" s="58"/>
+      <c r="B254" s="77"/>
+      <c r="C254" s="70"/>
       <c r="D254" s="36" t="s">
         <v>13</v>
       </c>
@@ -16987,14 +16997,14 @@
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A255" s="48">
+      <c r="A255" s="58">
         <v>85</v>
       </c>
-      <c r="B255" s="46" cm="1">
+      <c r="B255" s="77" cm="1">
         <f t="array" aca="1" ref="B255" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B255))</f>
         <v>-4.2953900000000003</v>
       </c>
-      <c r="C255" s="44" cm="1">
+      <c r="C255" s="70" cm="1">
         <f t="array" aca="1" ref="C255" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C255))</f>
         <v>-4.1341900000000003</v>
       </c>
@@ -17051,9 +17061,9 @@
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A256" s="48"/>
-      <c r="B256" s="46"/>
-      <c r="C256" s="44"/>
+      <c r="A256" s="58"/>
+      <c r="B256" s="77"/>
+      <c r="C256" s="70"/>
       <c r="D256" s="36">
         <v>0.12</v>
       </c>
@@ -17107,9 +17117,9 @@
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A257" s="48"/>
-      <c r="B257" s="46"/>
-      <c r="C257" s="44"/>
+      <c r="A257" s="58"/>
+      <c r="B257" s="77"/>
+      <c r="C257" s="70"/>
       <c r="D257" s="36" t="s">
         <v>13</v>
       </c>
@@ -17163,14 +17173,14 @@
       </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A258" s="48">
+      <c r="A258" s="58">
         <v>86</v>
       </c>
-      <c r="B258" s="46" cm="1">
+      <c r="B258" s="77" cm="1">
         <f t="array" aca="1" ref="B258" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B258))</f>
         <v>-1.0302800000000001</v>
       </c>
-      <c r="C258" s="44" cm="1">
+      <c r="C258" s="70" cm="1">
         <f t="array" aca="1" ref="C258" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C258))</f>
         <v>9.4236799999999992</v>
       </c>
@@ -17227,9 +17237,9 @@
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A259" s="48"/>
-      <c r="B259" s="46"/>
-      <c r="C259" s="44"/>
+      <c r="A259" s="58"/>
+      <c r="B259" s="77"/>
+      <c r="C259" s="70"/>
       <c r="D259" s="36">
         <v>0.12</v>
       </c>
@@ -17283,9 +17293,9 @@
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A260" s="48"/>
-      <c r="B260" s="46"/>
-      <c r="C260" s="44"/>
+      <c r="A260" s="58"/>
+      <c r="B260" s="77"/>
+      <c r="C260" s="70"/>
       <c r="D260" s="36" t="s">
         <v>13</v>
       </c>
@@ -17339,14 +17349,14 @@
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A261" s="48">
+      <c r="A261" s="58">
         <v>87</v>
       </c>
-      <c r="B261" s="46" cm="1">
+      <c r="B261" s="77" cm="1">
         <f t="array" aca="1" ref="B261" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B261))</f>
         <v>4.2557499999999999</v>
       </c>
-      <c r="C261" s="44" cm="1">
+      <c r="C261" s="70" cm="1">
         <f t="array" aca="1" ref="C261" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C261))</f>
         <v>3.8308900000000001</v>
       </c>
@@ -17403,9 +17413,9 @@
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A262" s="48"/>
-      <c r="B262" s="46"/>
-      <c r="C262" s="44"/>
+      <c r="A262" s="58"/>
+      <c r="B262" s="77"/>
+      <c r="C262" s="70"/>
       <c r="D262" s="36">
         <v>0.12</v>
       </c>
@@ -17459,9 +17469,9 @@
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A263" s="48"/>
-      <c r="B263" s="46"/>
-      <c r="C263" s="44"/>
+      <c r="A263" s="58"/>
+      <c r="B263" s="77"/>
+      <c r="C263" s="70"/>
       <c r="D263" s="36" t="s">
         <v>13</v>
       </c>
@@ -17515,14 +17525,14 @@
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A264" s="48">
+      <c r="A264" s="58">
         <v>88</v>
       </c>
-      <c r="B264" s="46" cm="1">
+      <c r="B264" s="77" cm="1">
         <f t="array" aca="1" ref="B264" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B264))</f>
         <v>5.4039799999999998</v>
       </c>
-      <c r="C264" s="44" cm="1">
+      <c r="C264" s="70" cm="1">
         <f t="array" aca="1" ref="C264" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C264))</f>
         <v>-8.7711600000000001</v>
       </c>
@@ -17579,9 +17589,9 @@
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A265" s="48"/>
-      <c r="B265" s="46"/>
-      <c r="C265" s="44"/>
+      <c r="A265" s="58"/>
+      <c r="B265" s="77"/>
+      <c r="C265" s="70"/>
       <c r="D265" s="36">
         <v>0.12</v>
       </c>
@@ -17635,9 +17645,9 @@
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A266" s="48"/>
-      <c r="B266" s="46"/>
-      <c r="C266" s="44"/>
+      <c r="A266" s="58"/>
+      <c r="B266" s="77"/>
+      <c r="C266" s="70"/>
       <c r="D266" s="36" t="s">
         <v>13</v>
       </c>
@@ -17691,14 +17701,14 @@
       </c>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A267" s="48">
+      <c r="A267" s="58">
         <v>89</v>
       </c>
-      <c r="B267" s="46" cm="1">
+      <c r="B267" s="77" cm="1">
         <f t="array" aca="1" ref="B267" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B267))</f>
         <v>7.7087700000000003</v>
       </c>
-      <c r="C267" s="44" cm="1">
+      <c r="C267" s="70" cm="1">
         <f t="array" aca="1" ref="C267" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C267))</f>
         <v>-5.7052899999999998</v>
       </c>
@@ -17755,9 +17765,9 @@
       </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A268" s="48"/>
-      <c r="B268" s="46"/>
-      <c r="C268" s="44"/>
+      <c r="A268" s="58"/>
+      <c r="B268" s="77"/>
+      <c r="C268" s="70"/>
       <c r="D268" s="36">
         <v>0.12</v>
       </c>
@@ -17811,9 +17821,9 @@
       </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A269" s="48"/>
-      <c r="B269" s="46"/>
-      <c r="C269" s="44"/>
+      <c r="A269" s="58"/>
+      <c r="B269" s="77"/>
+      <c r="C269" s="70"/>
       <c r="D269" s="36" t="s">
         <v>13</v>
       </c>
@@ -17867,14 +17877,14 @@
       </c>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A270" s="48">
+      <c r="A270" s="58">
         <v>90</v>
       </c>
-      <c r="B270" s="46" cm="1">
+      <c r="B270" s="77" cm="1">
         <f t="array" aca="1" ref="B270" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B270))</f>
         <v>-2.6102300000000001</v>
       </c>
-      <c r="C270" s="44" cm="1">
+      <c r="C270" s="70" cm="1">
         <f t="array" aca="1" ref="C270" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C270))</f>
         <v>-4.8666600000000004</v>
       </c>
@@ -17931,9 +17941,9 @@
       </c>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A271" s="48"/>
-      <c r="B271" s="46"/>
-      <c r="C271" s="44"/>
+      <c r="A271" s="58"/>
+      <c r="B271" s="77"/>
+      <c r="C271" s="70"/>
       <c r="D271" s="36">
         <v>0.12</v>
       </c>
@@ -17987,9 +17997,9 @@
       </c>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A272" s="48"/>
-      <c r="B272" s="46"/>
-      <c r="C272" s="44"/>
+      <c r="A272" s="58"/>
+      <c r="B272" s="77"/>
+      <c r="C272" s="70"/>
       <c r="D272" s="36" t="s">
         <v>13</v>
       </c>
@@ -18043,14 +18053,14 @@
       </c>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A273" s="48">
+      <c r="A273" s="58">
         <v>91</v>
       </c>
-      <c r="B273" s="46" cm="1">
+      <c r="B273" s="77" cm="1">
         <f t="array" aca="1" ref="B273" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B273))</f>
         <v>8.7226900000000001</v>
       </c>
-      <c r="C273" s="44" cm="1">
+      <c r="C273" s="70" cm="1">
         <f t="array" aca="1" ref="C273" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C273))</f>
         <v>-9.2558699999999998</v>
       </c>
@@ -18107,9 +18117,9 @@
       </c>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A274" s="48"/>
-      <c r="B274" s="46"/>
-      <c r="C274" s="44"/>
+      <c r="A274" s="58"/>
+      <c r="B274" s="77"/>
+      <c r="C274" s="70"/>
       <c r="D274" s="36">
         <v>0.12</v>
       </c>
@@ -18163,9 +18173,9 @@
       </c>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A275" s="48"/>
-      <c r="B275" s="46"/>
-      <c r="C275" s="44"/>
+      <c r="A275" s="58"/>
+      <c r="B275" s="77"/>
+      <c r="C275" s="70"/>
       <c r="D275" s="36" t="s">
         <v>13</v>
       </c>
@@ -18219,14 +18229,14 @@
       </c>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A276" s="48">
+      <c r="A276" s="58">
         <v>92</v>
       </c>
-      <c r="B276" s="46" cm="1">
+      <c r="B276" s="77" cm="1">
         <f t="array" aca="1" ref="B276" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B276))</f>
         <v>7.6467799999999997</v>
       </c>
-      <c r="C276" s="44" cm="1">
+      <c r="C276" s="70" cm="1">
         <f t="array" aca="1" ref="C276" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C276))</f>
         <v>9.8841099999999997</v>
       </c>
@@ -18283,9 +18293,9 @@
       </c>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A277" s="48"/>
-      <c r="B277" s="46"/>
-      <c r="C277" s="44"/>
+      <c r="A277" s="58"/>
+      <c r="B277" s="77"/>
+      <c r="C277" s="70"/>
       <c r="D277" s="36">
         <v>0.12</v>
       </c>
@@ -18339,9 +18349,9 @@
       </c>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A278" s="48"/>
-      <c r="B278" s="46"/>
-      <c r="C278" s="44"/>
+      <c r="A278" s="58"/>
+      <c r="B278" s="77"/>
+      <c r="C278" s="70"/>
       <c r="D278" s="36" t="s">
         <v>13</v>
       </c>
@@ -18395,14 +18405,14 @@
       </c>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A279" s="48">
+      <c r="A279" s="58">
         <v>93</v>
       </c>
-      <c r="B279" s="46" cm="1">
+      <c r="B279" s="77" cm="1">
         <f t="array" aca="1" ref="B279" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B279))</f>
         <v>7.8663600000000002</v>
       </c>
-      <c r="C279" s="44" cm="1">
+      <c r="C279" s="70" cm="1">
         <f t="array" aca="1" ref="C279" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C279))</f>
         <v>-5.7925700000000004</v>
       </c>
@@ -18459,9 +18469,9 @@
       </c>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A280" s="48"/>
-      <c r="B280" s="46"/>
-      <c r="C280" s="44"/>
+      <c r="A280" s="58"/>
+      <c r="B280" s="77"/>
+      <c r="C280" s="70"/>
       <c r="D280" s="36">
         <v>0.12</v>
       </c>
@@ -18515,9 +18525,9 @@
       </c>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A281" s="48"/>
-      <c r="B281" s="46"/>
-      <c r="C281" s="44"/>
+      <c r="A281" s="58"/>
+      <c r="B281" s="77"/>
+      <c r="C281" s="70"/>
       <c r="D281" s="36" t="s">
         <v>13</v>
       </c>
@@ -18571,14 +18581,14 @@
       </c>
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A282" s="48">
+      <c r="A282" s="58">
         <v>94</v>
       </c>
-      <c r="B282" s="46" cm="1">
+      <c r="B282" s="77" cm="1">
         <f t="array" aca="1" ref="B282" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B282))</f>
         <v>6.0819799999999997</v>
       </c>
-      <c r="C282" s="44" cm="1">
+      <c r="C282" s="70" cm="1">
         <f t="array" aca="1" ref="C282" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C282))</f>
         <v>7.0935600000000001</v>
       </c>
@@ -18635,9 +18645,9 @@
       </c>
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A283" s="48"/>
-      <c r="B283" s="46"/>
-      <c r="C283" s="44"/>
+      <c r="A283" s="58"/>
+      <c r="B283" s="77"/>
+      <c r="C283" s="70"/>
       <c r="D283" s="36">
         <v>0.12</v>
       </c>
@@ -18691,9 +18701,9 @@
       </c>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A284" s="48"/>
-      <c r="B284" s="46"/>
-      <c r="C284" s="44"/>
+      <c r="A284" s="58"/>
+      <c r="B284" s="77"/>
+      <c r="C284" s="70"/>
       <c r="D284" s="36" t="s">
         <v>13</v>
       </c>
@@ -18747,14 +18757,14 @@
       </c>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A285" s="48">
+      <c r="A285" s="58">
         <v>95</v>
       </c>
-      <c r="B285" s="46" cm="1">
+      <c r="B285" s="77" cm="1">
         <f t="array" aca="1" ref="B285" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B285))</f>
         <v>-9.3989399999999996</v>
       </c>
-      <c r="C285" s="44" cm="1">
+      <c r="C285" s="70" cm="1">
         <f t="array" aca="1" ref="C285" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C285))</f>
         <v>9.3007500000000007</v>
       </c>
@@ -18811,9 +18821,9 @@
       </c>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A286" s="48"/>
-      <c r="B286" s="46"/>
-      <c r="C286" s="44"/>
+      <c r="A286" s="58"/>
+      <c r="B286" s="77"/>
+      <c r="C286" s="70"/>
       <c r="D286" s="36">
         <v>0.12</v>
       </c>
@@ -18867,9 +18877,9 @@
       </c>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A287" s="48"/>
-      <c r="B287" s="46"/>
-      <c r="C287" s="44"/>
+      <c r="A287" s="58"/>
+      <c r="B287" s="77"/>
+      <c r="C287" s="70"/>
       <c r="D287" s="36" t="s">
         <v>13</v>
       </c>
@@ -18923,14 +18933,14 @@
       </c>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A288" s="48">
+      <c r="A288" s="58">
         <v>96</v>
       </c>
-      <c r="B288" s="46" cm="1">
+      <c r="B288" s="77" cm="1">
         <f t="array" aca="1" ref="B288" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B288))</f>
         <v>-6.0871500000000003</v>
       </c>
-      <c r="C288" s="44" cm="1">
+      <c r="C288" s="70" cm="1">
         <f t="array" aca="1" ref="C288" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C288))</f>
         <v>8.3048999999999999</v>
       </c>
@@ -18987,9 +18997,9 @@
       </c>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A289" s="48"/>
-      <c r="B289" s="46"/>
-      <c r="C289" s="44"/>
+      <c r="A289" s="58"/>
+      <c r="B289" s="77"/>
+      <c r="C289" s="70"/>
       <c r="D289" s="36">
         <v>0.12</v>
       </c>
@@ -19043,9 +19053,9 @@
       </c>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A290" s="48"/>
-      <c r="B290" s="46"/>
-      <c r="C290" s="44"/>
+      <c r="A290" s="58"/>
+      <c r="B290" s="77"/>
+      <c r="C290" s="70"/>
       <c r="D290" s="36" t="s">
         <v>13</v>
       </c>
@@ -19099,14 +19109,14 @@
       </c>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A291" s="48">
+      <c r="A291" s="58">
         <v>97</v>
       </c>
-      <c r="B291" s="46" cm="1">
+      <c r="B291" s="77" cm="1">
         <f t="array" aca="1" ref="B291" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B291))</f>
         <v>4.1048400000000003</v>
       </c>
-      <c r="C291" s="44" cm="1">
+      <c r="C291" s="70" cm="1">
         <f t="array" aca="1" ref="C291" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C291))</f>
         <v>6.8528500000000001</v>
       </c>
@@ -19163,9 +19173,9 @@
       </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A292" s="48"/>
-      <c r="B292" s="46"/>
-      <c r="C292" s="44"/>
+      <c r="A292" s="58"/>
+      <c r="B292" s="77"/>
+      <c r="C292" s="70"/>
       <c r="D292" s="36">
         <v>0.12</v>
       </c>
@@ -19219,9 +19229,9 @@
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A293" s="48"/>
-      <c r="B293" s="46"/>
-      <c r="C293" s="44"/>
+      <c r="A293" s="58"/>
+      <c r="B293" s="77"/>
+      <c r="C293" s="70"/>
       <c r="D293" s="36" t="s">
         <v>13</v>
       </c>
@@ -19275,14 +19285,14 @@
       </c>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A294" s="48">
+      <c r="A294" s="58">
         <v>98</v>
       </c>
-      <c r="B294" s="46" cm="1">
+      <c r="B294" s="77" cm="1">
         <f t="array" aca="1" ref="B294" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B294))</f>
         <v>-6.2805099999999996</v>
       </c>
-      <c r="C294" s="44" cm="1">
+      <c r="C294" s="70" cm="1">
         <f t="array" aca="1" ref="C294" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C294))</f>
         <v>9.3329199999999997</v>
       </c>
@@ -19339,9 +19349,9 @@
       </c>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A295" s="48"/>
-      <c r="B295" s="46"/>
-      <c r="C295" s="44"/>
+      <c r="A295" s="58"/>
+      <c r="B295" s="77"/>
+      <c r="C295" s="70"/>
       <c r="D295" s="36">
         <v>0.12</v>
       </c>
@@ -19395,9 +19405,9 @@
       </c>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A296" s="48"/>
-      <c r="B296" s="46"/>
-      <c r="C296" s="44"/>
+      <c r="A296" s="58"/>
+      <c r="B296" s="77"/>
+      <c r="C296" s="70"/>
       <c r="D296" s="36" t="s">
         <v>13</v>
       </c>
@@ -19451,14 +19461,14 @@
       </c>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A297" s="48">
+      <c r="A297" s="58">
         <v>99</v>
       </c>
-      <c r="B297" s="46" cm="1">
+      <c r="B297" s="77" cm="1">
         <f t="array" aca="1" ref="B297" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B297))</f>
         <v>-3.5979800000000002</v>
       </c>
-      <c r="C297" s="44" cm="1">
+      <c r="C297" s="70" cm="1">
         <f t="array" aca="1" ref="C297" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C297))</f>
         <v>-1.02477</v>
       </c>
@@ -19515,9 +19525,9 @@
       </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A298" s="48"/>
-      <c r="B298" s="46"/>
-      <c r="C298" s="44"/>
+      <c r="A298" s="58"/>
+      <c r="B298" s="77"/>
+      <c r="C298" s="70"/>
       <c r="D298" s="36">
         <v>0.12</v>
       </c>
@@ -19571,9 +19581,9 @@
       </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A299" s="48"/>
-      <c r="B299" s="46"/>
-      <c r="C299" s="44"/>
+      <c r="A299" s="58"/>
+      <c r="B299" s="77"/>
+      <c r="C299" s="70"/>
       <c r="D299" s="36" t="s">
         <v>13</v>
       </c>
@@ -19627,14 +19637,14 @@
       </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A300" s="48">
+      <c r="A300" s="58">
         <v>100</v>
       </c>
-      <c r="B300" s="46" cm="1">
+      <c r="B300" s="77" cm="1">
         <f t="array" aca="1" ref="B300" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B300))</f>
         <v>3.9505499999999998</v>
       </c>
-      <c r="C300" s="44" cm="1">
+      <c r="C300" s="70" cm="1">
         <f t="array" aca="1" ref="C300" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C300))</f>
         <v>-3.30328</v>
       </c>
@@ -19691,9 +19701,9 @@
       </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A301" s="48"/>
-      <c r="B301" s="46"/>
-      <c r="C301" s="44"/>
+      <c r="A301" s="58"/>
+      <c r="B301" s="77"/>
+      <c r="C301" s="70"/>
       <c r="D301" s="36">
         <v>0.12</v>
       </c>
@@ -19747,9 +19757,9 @@
       </c>
     </row>
     <row r="302" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="49"/>
-      <c r="B302" s="47"/>
-      <c r="C302" s="45"/>
+      <c r="A302" s="71"/>
+      <c r="B302" s="78"/>
+      <c r="C302" s="79"/>
       <c r="D302" s="37" t="s">
         <v>13</v>
       </c>
@@ -19813,107 +19823,188 @@
     </row>
   </sheetData>
   <mergeCells count="307">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="C294:C296"/>
+    <mergeCell ref="C297:C299"/>
+    <mergeCell ref="C300:C302"/>
+    <mergeCell ref="C279:C281"/>
+    <mergeCell ref="C282:C284"/>
+    <mergeCell ref="C285:C287"/>
+    <mergeCell ref="C288:C290"/>
+    <mergeCell ref="C291:C293"/>
+    <mergeCell ref="C264:C266"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="C270:C272"/>
+    <mergeCell ref="C273:C275"/>
+    <mergeCell ref="C276:C278"/>
+    <mergeCell ref="C249:C251"/>
+    <mergeCell ref="C252:C254"/>
+    <mergeCell ref="C255:C257"/>
+    <mergeCell ref="C258:C260"/>
+    <mergeCell ref="C261:C263"/>
+    <mergeCell ref="C234:C236"/>
+    <mergeCell ref="C237:C239"/>
+    <mergeCell ref="C240:C242"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="C246:C248"/>
+    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="C222:C224"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="C228:C230"/>
+    <mergeCell ref="C231:C233"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="C216:C218"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="B297:B299"/>
+    <mergeCell ref="B300:B302"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B291:B293"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B276:B278"/>
+    <mergeCell ref="B279:B281"/>
+    <mergeCell ref="B282:B284"/>
+    <mergeCell ref="B285:B287"/>
+    <mergeCell ref="B288:B290"/>
+    <mergeCell ref="B261:B263"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="B270:B272"/>
+    <mergeCell ref="B273:B275"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="B234:B236"/>
+    <mergeCell ref="B237:B239"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="A294:A296"/>
     <mergeCell ref="A297:A299"/>
     <mergeCell ref="A300:A302"/>
@@ -19938,188 +20029,107 @@
     <mergeCell ref="A264:A266"/>
     <mergeCell ref="A267:A269"/>
     <mergeCell ref="A270:A272"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B276:B278"/>
-    <mergeCell ref="B279:B281"/>
-    <mergeCell ref="B282:B284"/>
-    <mergeCell ref="B285:B287"/>
-    <mergeCell ref="B288:B290"/>
-    <mergeCell ref="B261:B263"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="B267:B269"/>
-    <mergeCell ref="B270:B272"/>
-    <mergeCell ref="B273:B275"/>
-    <mergeCell ref="B246:B248"/>
-    <mergeCell ref="B249:B251"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="B234:B236"/>
-    <mergeCell ref="B237:B239"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B291:B293"/>
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="B297:B299"/>
-    <mergeCell ref="B300:B302"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B204:B206"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="C219:C221"/>
-    <mergeCell ref="C222:C224"/>
-    <mergeCell ref="C225:C227"/>
-    <mergeCell ref="C228:C230"/>
-    <mergeCell ref="C231:C233"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="C216:C218"/>
-    <mergeCell ref="C249:C251"/>
-    <mergeCell ref="C252:C254"/>
-    <mergeCell ref="C255:C257"/>
-    <mergeCell ref="C258:C260"/>
-    <mergeCell ref="C261:C263"/>
-    <mergeCell ref="C234:C236"/>
-    <mergeCell ref="C237:C239"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="C246:C248"/>
-    <mergeCell ref="C294:C296"/>
-    <mergeCell ref="C297:C299"/>
-    <mergeCell ref="C300:C302"/>
-    <mergeCell ref="C279:C281"/>
-    <mergeCell ref="C282:C284"/>
-    <mergeCell ref="C285:C287"/>
-    <mergeCell ref="C288:C290"/>
-    <mergeCell ref="C291:C293"/>
-    <mergeCell ref="C264:C266"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="C270:C272"/>
-    <mergeCell ref="C273:C275"/>
-    <mergeCell ref="C276:C278"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20131,7 +20141,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20146,85 +20156,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="56" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="52" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="77" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="77" t="s">
+      <c r="G2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="78" t="s">
+      <c r="L2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="78" t="s">
+      <c r="P2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="54" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="73">
+      <c r="A3" s="45">
         <v>0.05</v>
       </c>
       <c r="B3" s="22">
@@ -20293,7 +20303,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="74">
+      <c r="A4" s="46">
         <v>0.12</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -20359,7 +20369,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="17">
@@ -20452,8 +20462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I192" sqref="I192"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20462,132 +20472,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="69" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="55" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="65"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="46">
+      <c r="A2" s="80"/>
+      <c r="B2" s="77">
         <v>0.05</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82">
         <v>0.12</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68" t="s">
+      <c r="E2" s="82"/>
+      <c r="F2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="71">
+      <c r="G2" s="70"/>
+      <c r="H2" s="85">
         <v>0.05</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68">
+      <c r="I2" s="82"/>
+      <c r="J2" s="82">
         <v>0.12</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68" t="s">
+      <c r="K2" s="82"/>
+      <c r="L2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="46">
+      <c r="M2" s="86"/>
+      <c r="N2" s="77">
         <v>0.05</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82">
         <v>0.12</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68" t="s">
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="44"/>
+      <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="78" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="50" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="54" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="50" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="50" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="78" t="s">
+      <c r="N3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="50" t="s">
         <v>4</v>
       </c>
       <c r="P3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="78" t="s">
+      <c r="Q3" s="50" t="s">
         <v>4</v>
       </c>
       <c r="R3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="82" t="s">
+      <c r="S3" s="54" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="84">
+      <c r="A4" s="56">
         <v>1</v>
       </c>
       <c r="B4" s="22">
@@ -27194,7 +27204,7 @@
       <c r="S196" s="2"/>
     </row>
     <row r="197" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="85">
+      <c r="A197" s="57">
         <v>194</v>
       </c>
       <c r="B197" s="17"/>
@@ -27246,7 +27256,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27257,20 +27267,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
@@ -27294,34 +27304,70 @@
       <c r="A3" s="32">
         <v>0.01</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="B3" s="20">
+        <v>-193459</v>
+      </c>
+      <c r="C3" s="87">
+        <v>3106750</v>
+      </c>
+      <c r="D3" s="87">
+        <v>-3207820</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="88">
+        <v>10001</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>1E-3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="10">
+        <v>-24.8765</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.20361499999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.19941999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.20602599999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10001</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>1E-4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="11">
+        <v>-19.1997</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.15831899999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.153451</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.21242800000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10001</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
@@ -27346,8 +27392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OptimalizationLabs1/proj4_Izworski_Jarek_Klimczyk.xlsx
+++ b/OptimalizationLabs1/proj4_Izworski_Jarek_Klimczyk.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41D4F27-E729-4891-8EF7-3D85A45CFC73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A4DFFE-CBD2-4BBF-A891-CFBB72EF901A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1068,13 +1068,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1104,36 +1138,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,10 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1499,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B223" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,46 +1517,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="59" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="74" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="75"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="70"/>
     </row>
     <row r="2" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
@@ -1613,14 +1613,14 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="68">
-        <v>1</v>
-      </c>
-      <c r="B3" s="76" cm="1">
+      <c r="A3" s="80">
+        <v>1</v>
+      </c>
+      <c r="B3" s="71" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B3))</f>
         <v>2.5598700000000001</v>
       </c>
-      <c r="C3" s="69" cm="1">
+      <c r="C3" s="81" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C3))</f>
         <v>6.2868700000000004</v>
       </c>
@@ -1683,9 +1683,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="36">
         <v>0.12</v>
       </c>
@@ -1745,9 +1745,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="70"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="36" t="s">
         <v>13</v>
       </c>
@@ -1807,14 +1807,14 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
+      <c r="A6" s="64">
         <v>2</v>
       </c>
-      <c r="B6" s="77" cm="1">
+      <c r="B6" s="62" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B6))</f>
         <v>-7.6412000000000004</v>
       </c>
-      <c r="C6" s="70" cm="1">
+      <c r="C6" s="60" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C6))</f>
         <v>-4.6449999999999996</v>
       </c>
@@ -1877,9 +1877,9 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="70"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="36">
         <v>0.12</v>
       </c>
@@ -1939,9 +1939,9 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="70"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="36" t="s">
         <v>13</v>
       </c>
@@ -2001,14 +2001,14 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="58">
-        <v>3</v>
-      </c>
-      <c r="B9" s="77" cm="1">
+      <c r="A9" s="64">
+        <v>3</v>
+      </c>
+      <c r="B9" s="62" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B9))</f>
         <v>-9.4310399999999994</v>
       </c>
-      <c r="C9" s="70" cm="1">
+      <c r="C9" s="60" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C9))</f>
         <v>-1.8706100000000001</v>
       </c>
@@ -2071,9 +2071,9 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="70"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="36">
         <v>0.12</v>
       </c>
@@ -2133,9 +2133,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="70"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="36" t="s">
         <v>13</v>
       </c>
@@ -2195,14 +2195,14 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
+      <c r="A12" s="64">
         <v>4</v>
       </c>
-      <c r="B12" s="77" cm="1">
+      <c r="B12" s="62" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B12))</f>
         <v>9.5726499999999994</v>
       </c>
-      <c r="C12" s="70" cm="1">
+      <c r="C12" s="60" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C12))</f>
         <v>-2.1742900000000001</v>
       </c>
@@ -2265,9 +2265,9 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="70"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="36">
         <v>0.12</v>
       </c>
@@ -2327,9 +2327,9 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="70"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="36" t="s">
         <v>13</v>
       </c>
@@ -2389,14 +2389,14 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
+      <c r="A15" s="64">
         <v>5</v>
       </c>
-      <c r="B15" s="77" cm="1">
+      <c r="B15" s="62" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B15))</f>
         <v>1.00668</v>
       </c>
-      <c r="C15" s="70" cm="1">
+      <c r="C15" s="60" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C15))</f>
         <v>-8.6196000000000002</v>
       </c>
@@ -2459,9 +2459,9 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="70"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="36">
         <v>0.12</v>
       </c>
@@ -2521,9 +2521,9 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="70"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="36" t="s">
         <v>13</v>
       </c>
@@ -2583,14 +2583,14 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
+      <c r="A18" s="64">
         <v>6</v>
       </c>
-      <c r="B18" s="77" cm="1">
+      <c r="B18" s="62" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B18))</f>
         <v>-3.27806E-2</v>
       </c>
-      <c r="C18" s="70" cm="1">
+      <c r="C18" s="60" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C18))</f>
         <v>1.6834899999999999</v>
       </c>
@@ -2653,9 +2653,9 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="70"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="36">
         <v>0.12</v>
       </c>
@@ -2715,9 +2715,9 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="70"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="36" t="s">
         <v>13</v>
       </c>
@@ -2777,14 +2777,14 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
+      <c r="A21" s="64">
         <v>7</v>
       </c>
-      <c r="B21" s="77" cm="1">
+      <c r="B21" s="62" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B21))</f>
         <v>3.4472999999999998</v>
       </c>
-      <c r="C21" s="70" cm="1">
+      <c r="C21" s="60" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C21))</f>
         <v>-6.07524</v>
       </c>
@@ -2847,9 +2847,9 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="70"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="36">
         <v>0.12</v>
       </c>
@@ -2909,9 +2909,9 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="70"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="36" t="s">
         <v>13</v>
       </c>
@@ -2971,14 +2971,14 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
+      <c r="A24" s="64">
         <v>8</v>
       </c>
-      <c r="B24" s="77" cm="1">
+      <c r="B24" s="62" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B24))</f>
         <v>-8.0791000000000004</v>
       </c>
-      <c r="C24" s="70" cm="1">
+      <c r="C24" s="60" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C24))</f>
         <v>0.58078700000000005</v>
       </c>
@@ -3041,9 +3041,9 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="70"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="36">
         <v>0.12</v>
       </c>
@@ -3103,9 +3103,9 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="70"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="36" t="s">
         <v>13</v>
       </c>
@@ -3165,14 +3165,14 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
+      <c r="A27" s="64">
         <v>9</v>
       </c>
-      <c r="B27" s="77" cm="1">
+      <c r="B27" s="62" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B27))</f>
         <v>4.8041700000000001</v>
       </c>
-      <c r="C27" s="70" cm="1">
+      <c r="C27" s="60" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C27))</f>
         <v>7.9092000000000002</v>
       </c>
@@ -3235,9 +3235,9 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="70"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="36">
         <v>0.12</v>
       </c>
@@ -3297,9 +3297,9 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="70"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="36" t="s">
         <v>13</v>
       </c>
@@ -3359,14 +3359,14 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="58">
+      <c r="A30" s="64">
         <v>10</v>
       </c>
-      <c r="B30" s="77" cm="1">
+      <c r="B30" s="62" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B30))</f>
         <v>-4.68431</v>
       </c>
-      <c r="C30" s="70" cm="1">
+      <c r="C30" s="60" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C30))</f>
         <v>7.7426899999999996</v>
       </c>
@@ -3429,9 +3429,9 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="70"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="36">
         <v>0.12</v>
       </c>
@@ -3491,9 +3491,9 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="70"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="36" t="s">
         <v>13</v>
       </c>
@@ -3553,14 +3553,14 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="58">
+      <c r="A33" s="64">
         <v>11</v>
       </c>
-      <c r="B33" s="77" cm="1">
+      <c r="B33" s="62" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B33))</f>
         <v>8.3499800000000004</v>
       </c>
-      <c r="C33" s="70" cm="1">
+      <c r="C33" s="60" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C33))</f>
         <v>5.8054699999999997</v>
       </c>
@@ -3623,9 +3623,9 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="70"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="36">
         <v>0.12</v>
       </c>
@@ -3685,9 +3685,9 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="70"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="36" t="s">
         <v>13</v>
       </c>
@@ -3747,14 +3747,14 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="58">
+      <c r="A36" s="64">
         <v>12</v>
       </c>
-      <c r="B36" s="77" cm="1">
+      <c r="B36" s="62" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B36))</f>
         <v>-3.9275799999999998</v>
       </c>
-      <c r="C36" s="70" cm="1">
+      <c r="C36" s="60" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C36))</f>
         <v>-3.37175</v>
       </c>
@@ -3817,9 +3817,9 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="70"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="36">
         <v>0.12</v>
       </c>
@@ -3879,9 +3879,9 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="70"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="36" t="s">
         <v>13</v>
       </c>
@@ -3941,14 +3941,14 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="58">
+      <c r="A39" s="64">
         <v>13</v>
       </c>
-      <c r="B39" s="77" cm="1">
+      <c r="B39" s="62" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B39))</f>
         <v>6.42645</v>
       </c>
-      <c r="C39" s="70" cm="1">
+      <c r="C39" s="60" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C39))</f>
         <v>-4.86287</v>
       </c>
@@ -4011,9 +4011,9 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="70"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="36">
         <v>0.12</v>
       </c>
@@ -4073,9 +4073,9 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="70"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="36" t="s">
         <v>13</v>
       </c>
@@ -4135,14 +4135,14 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="58">
+      <c r="A42" s="64">
         <v>14</v>
       </c>
-      <c r="B42" s="77" cm="1">
+      <c r="B42" s="62" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B42))</f>
         <v>-1.5804100000000001</v>
       </c>
-      <c r="C42" s="70" cm="1">
+      <c r="C42" s="60" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C42))</f>
         <v>9.7219999999999995</v>
       </c>
@@ -4205,9 +4205,9 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="70"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="36">
         <v>0.12</v>
       </c>
@@ -4267,9 +4267,9 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="70"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="36" t="s">
         <v>13</v>
       </c>
@@ -4329,14 +4329,14 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="58">
+      <c r="A45" s="64">
         <v>15</v>
       </c>
-      <c r="B45" s="77" cm="1">
+      <c r="B45" s="62" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B45))</f>
         <v>-2.3795600000000001</v>
       </c>
-      <c r="C45" s="70" cm="1">
+      <c r="C45" s="60" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C45))</f>
         <v>8.7926199999999994</v>
       </c>
@@ -4399,9 +4399,9 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="70"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="36">
         <v>0.12</v>
       </c>
@@ -4461,9 +4461,9 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="70"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="36" t="s">
         <v>13</v>
       </c>
@@ -4523,14 +4523,14 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="58">
+      <c r="A48" s="64">
         <v>16</v>
       </c>
-      <c r="B48" s="77" cm="1">
+      <c r="B48" s="62" cm="1">
         <f t="array" aca="1" ref="B48" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B48))</f>
         <v>-3.8668999999999998</v>
       </c>
-      <c r="C48" s="70" cm="1">
+      <c r="C48" s="60" cm="1">
         <f t="array" aca="1" ref="C48" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C48))</f>
         <v>9.8111800000000002</v>
       </c>
@@ -4593,9 +4593,9 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="70"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="36">
         <v>0.12</v>
       </c>
@@ -4655,9 +4655,9 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="70"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="36" t="s">
         <v>13</v>
       </c>
@@ -4717,14 +4717,14 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="58">
+      <c r="A51" s="64">
         <v>17</v>
       </c>
-      <c r="B51" s="77" cm="1">
+      <c r="B51" s="62" cm="1">
         <f t="array" aca="1" ref="B51" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B51))</f>
         <v>2.1819299999999999</v>
       </c>
-      <c r="C51" s="70" cm="1">
+      <c r="C51" s="60" cm="1">
         <f t="array" aca="1" ref="C51" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C51))</f>
         <v>4.4275200000000003</v>
       </c>
@@ -4787,9 +4787,9 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="70"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="60"/>
       <c r="D52" s="36">
         <v>0.12</v>
       </c>
@@ -4849,9 +4849,9 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="70"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="36" t="s">
         <v>13</v>
       </c>
@@ -4911,14 +4911,14 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="58">
+      <c r="A54" s="64">
         <v>18</v>
       </c>
-      <c r="B54" s="77" cm="1">
+      <c r="B54" s="62" cm="1">
         <f t="array" aca="1" ref="B54" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B54))</f>
         <v>-2.90991</v>
       </c>
-      <c r="C54" s="70" cm="1">
+      <c r="C54" s="60" cm="1">
         <f t="array" aca="1" ref="C54" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C54))</f>
         <v>8.7422000000000004</v>
       </c>
@@ -4981,9 +4981,9 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="70"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="36">
         <v>0.12</v>
       </c>
@@ -5043,9 +5043,9 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="70"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="36" t="s">
         <v>13</v>
       </c>
@@ -5105,14 +5105,14 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="58">
+      <c r="A57" s="64">
         <v>19</v>
       </c>
-      <c r="B57" s="77" cm="1">
+      <c r="B57" s="62" cm="1">
         <f t="array" aca="1" ref="B57" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B57))</f>
         <v>9.2419100000000007</v>
       </c>
-      <c r="C57" s="70" cm="1">
+      <c r="C57" s="60" cm="1">
         <f t="array" aca="1" ref="C57" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C57))</f>
         <v>1.22451</v>
       </c>
@@ -5175,9 +5175,9 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="70"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="60"/>
       <c r="D58" s="36">
         <v>0.12</v>
       </c>
@@ -5237,9 +5237,9 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="70"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="36" t="s">
         <v>13</v>
       </c>
@@ -5299,14 +5299,14 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="58">
+      <c r="A60" s="64">
         <v>20</v>
       </c>
-      <c r="B60" s="77" cm="1">
+      <c r="B60" s="62" cm="1">
         <f t="array" aca="1" ref="B60" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B60))</f>
         <v>-8.6705900000000007</v>
       </c>
-      <c r="C60" s="70" cm="1">
+      <c r="C60" s="60" cm="1">
         <f t="array" aca="1" ref="C60" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C60))</f>
         <v>3.4120300000000001</v>
       </c>
@@ -5369,9 +5369,9 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="70"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="60"/>
       <c r="D61" s="36">
         <v>0.12</v>
       </c>
@@ -5431,9 +5431,9 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="70"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="60"/>
       <c r="D62" s="36" t="s">
         <v>13</v>
       </c>
@@ -5493,14 +5493,14 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="58">
+      <c r="A63" s="64">
         <v>21</v>
       </c>
-      <c r="B63" s="77" cm="1">
+      <c r="B63" s="62" cm="1">
         <f t="array" aca="1" ref="B63" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B63))</f>
         <v>-8.7731200000000005</v>
       </c>
-      <c r="C63" s="70" cm="1">
+      <c r="C63" s="60" cm="1">
         <f t="array" aca="1" ref="C63" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C63))</f>
         <v>-3.04786</v>
       </c>
@@ -5563,9 +5563,9 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="70"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="36">
         <v>0.12</v>
       </c>
@@ -5625,9 +5625,9 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="70"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="60"/>
       <c r="D65" s="36" t="s">
         <v>13</v>
       </c>
@@ -5687,14 +5687,14 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="58">
+      <c r="A66" s="64">
         <v>22</v>
       </c>
-      <c r="B66" s="77" cm="1">
+      <c r="B66" s="62" cm="1">
         <f t="array" aca="1" ref="B66" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B66))</f>
         <v>5.1472499999999997</v>
       </c>
-      <c r="C66" s="70" cm="1">
+      <c r="C66" s="60" cm="1">
         <f t="array" aca="1" ref="C66" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C66))</f>
         <v>-9.2269900000000007</v>
       </c>
@@ -5757,9 +5757,9 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="70"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="36">
         <v>0.12</v>
       </c>
@@ -5819,9 +5819,9 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="70"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="60"/>
       <c r="D68" s="36" t="s">
         <v>13</v>
       </c>
@@ -5881,14 +5881,14 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="58">
-        <v>23</v>
-      </c>
-      <c r="B69" s="77" cm="1">
+      <c r="A69" s="64">
+        <v>23</v>
+      </c>
+      <c r="B69" s="62" cm="1">
         <f t="array" aca="1" ref="B69" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B69))</f>
         <v>9.4546799999999998</v>
       </c>
-      <c r="C69" s="70" cm="1">
+      <c r="C69" s="60" cm="1">
         <f t="array" aca="1" ref="C69" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C69))</f>
         <v>-0.31943700000000003</v>
       </c>
@@ -5951,9 +5951,9 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="70"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="60"/>
       <c r="D70" s="36">
         <v>0.12</v>
       </c>
@@ -6013,9 +6013,9 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="70"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="36" t="s">
         <v>13</v>
       </c>
@@ -6075,14 +6075,14 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="58">
+      <c r="A72" s="64">
         <v>24</v>
       </c>
-      <c r="B72" s="77" cm="1">
+      <c r="B72" s="62" cm="1">
         <f t="array" aca="1" ref="B72" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B72))</f>
         <v>-4.4474099999999996</v>
       </c>
-      <c r="C72" s="70" cm="1">
+      <c r="C72" s="60" cm="1">
         <f t="array" aca="1" ref="C72" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C72))</f>
         <v>3.8868100000000001</v>
       </c>
@@ -6145,9 +6145,9 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="70"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="60"/>
       <c r="D73" s="36">
         <v>0.12</v>
       </c>
@@ -6207,9 +6207,9 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="70"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="60"/>
       <c r="D74" s="36" t="s">
         <v>13</v>
       </c>
@@ -6269,14 +6269,14 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="58">
+      <c r="A75" s="64">
         <v>25</v>
       </c>
-      <c r="B75" s="77" cm="1">
+      <c r="B75" s="62" cm="1">
         <f t="array" aca="1" ref="B75" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B75))</f>
         <v>8.0113299999999992</v>
       </c>
-      <c r="C75" s="70" cm="1">
+      <c r="C75" s="60" cm="1">
         <f t="array" aca="1" ref="C75" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C75))</f>
         <v>3.6339399999999999</v>
       </c>
@@ -6339,9 +6339,9 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="70"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="36">
         <v>0.12</v>
       </c>
@@ -6401,9 +6401,9 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
-      <c r="B77" s="77"/>
-      <c r="C77" s="70"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="36" t="s">
         <v>13</v>
       </c>
@@ -6463,14 +6463,14 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="58">
+      <c r="A78" s="64">
         <v>26</v>
       </c>
-      <c r="B78" s="77" cm="1">
+      <c r="B78" s="62" cm="1">
         <f t="array" aca="1" ref="B78" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B78))</f>
         <v>-6.0860099999999999</v>
       </c>
-      <c r="C78" s="70" cm="1">
+      <c r="C78" s="60" cm="1">
         <f t="array" aca="1" ref="C78" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C78))</f>
         <v>-6.6094499999999998</v>
       </c>
@@ -6533,9 +6533,9 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
-      <c r="B79" s="77"/>
-      <c r="C79" s="70"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="60"/>
       <c r="D79" s="36">
         <v>0.12</v>
       </c>
@@ -6595,9 +6595,9 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="58"/>
-      <c r="B80" s="77"/>
-      <c r="C80" s="70"/>
+      <c r="A80" s="64"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="60"/>
       <c r="D80" s="36" t="s">
         <v>13</v>
       </c>
@@ -6657,14 +6657,14 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="58">
+      <c r="A81" s="64">
         <v>27</v>
       </c>
-      <c r="B81" s="77" cm="1">
+      <c r="B81" s="62" cm="1">
         <f t="array" aca="1" ref="B81" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B81))</f>
         <v>-4.9218500000000001</v>
       </c>
-      <c r="C81" s="70" cm="1">
+      <c r="C81" s="60" cm="1">
         <f t="array" aca="1" ref="C81" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C81))</f>
         <v>-4.1971499999999997</v>
       </c>
@@ -6727,9 +6727,9 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="70"/>
+      <c r="A82" s="64"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="60"/>
       <c r="D82" s="36">
         <v>0.12</v>
       </c>
@@ -6789,9 +6789,9 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="58"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="70"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="60"/>
       <c r="D83" s="36" t="s">
         <v>13</v>
       </c>
@@ -6851,14 +6851,14 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="58">
+      <c r="A84" s="64">
         <v>28</v>
       </c>
-      <c r="B84" s="77" cm="1">
+      <c r="B84" s="62" cm="1">
         <f t="array" aca="1" ref="B84" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B84))</f>
         <v>5.69841</v>
       </c>
-      <c r="C84" s="70" cm="1">
+      <c r="C84" s="60" cm="1">
         <f t="array" aca="1" ref="C84" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C84))</f>
         <v>-7.2034200000000004</v>
       </c>
@@ -6921,9 +6921,9 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="70"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="60"/>
       <c r="D85" s="36">
         <v>0.12</v>
       </c>
@@ -6983,9 +6983,9 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="70"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="60"/>
       <c r="D86" s="36" t="s">
         <v>13</v>
       </c>
@@ -7045,14 +7045,14 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="58">
+      <c r="A87" s="64">
         <v>29</v>
       </c>
-      <c r="B87" s="77" cm="1">
+      <c r="B87" s="62" cm="1">
         <f t="array" aca="1" ref="B87" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B87))</f>
         <v>-7.5792300000000007E-2</v>
       </c>
-      <c r="C87" s="70" cm="1">
+      <c r="C87" s="60" cm="1">
         <f t="array" aca="1" ref="C87" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C87))</f>
         <v>-7.7102599999999999</v>
       </c>
@@ -7115,9 +7115,9 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="58"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="70"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="60"/>
       <c r="D88" s="36">
         <v>0.12</v>
       </c>
@@ -7177,9 +7177,9 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
-      <c r="B89" s="77"/>
-      <c r="C89" s="70"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="60"/>
       <c r="D89" s="36" t="s">
         <v>13</v>
       </c>
@@ -7239,14 +7239,14 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="58">
+      <c r="A90" s="64">
         <v>30</v>
       </c>
-      <c r="B90" s="77" cm="1">
+      <c r="B90" s="62" cm="1">
         <f t="array" aca="1" ref="B90" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B90))</f>
         <v>-0.43646000000000001</v>
       </c>
-      <c r="C90" s="70" cm="1">
+      <c r="C90" s="60" cm="1">
         <f t="array" aca="1" ref="C90" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C90))</f>
         <v>4.4763599999999997</v>
       </c>
@@ -7309,9 +7309,9 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="58"/>
-      <c r="B91" s="77"/>
-      <c r="C91" s="70"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="60"/>
       <c r="D91" s="36">
         <v>0.12</v>
       </c>
@@ -7371,9 +7371,9 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="58"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="70"/>
+      <c r="A92" s="64"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="60"/>
       <c r="D92" s="36" t="s">
         <v>13</v>
       </c>
@@ -7433,14 +7433,14 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="58">
+      <c r="A93" s="64">
         <v>31</v>
       </c>
-      <c r="B93" s="77" cm="1">
+      <c r="B93" s="62" cm="1">
         <f t="array" aca="1" ref="B93" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B93))</f>
         <v>0.58140199999999997</v>
       </c>
-      <c r="C93" s="70" cm="1">
+      <c r="C93" s="60" cm="1">
         <f t="array" aca="1" ref="C93" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C93))</f>
         <v>-0.64212599999999997</v>
       </c>
@@ -7503,9 +7503,9 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
-      <c r="B94" s="77"/>
-      <c r="C94" s="70"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="60"/>
       <c r="D94" s="36">
         <v>0.12</v>
       </c>
@@ -7565,9 +7565,9 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
-      <c r="B95" s="77"/>
-      <c r="C95" s="70"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="60"/>
       <c r="D95" s="36" t="s">
         <v>13</v>
       </c>
@@ -7627,14 +7627,14 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" s="58">
+      <c r="A96" s="64">
         <v>32</v>
       </c>
-      <c r="B96" s="77" cm="1">
+      <c r="B96" s="62" cm="1">
         <f t="array" aca="1" ref="B96" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B96))</f>
         <v>5.9405700000000001</v>
       </c>
-      <c r="C96" s="70" cm="1">
+      <c r="C96" s="60" cm="1">
         <f t="array" aca="1" ref="C96" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C96))</f>
         <v>-1.7744</v>
       </c>
@@ -7697,9 +7697,9 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
-      <c r="B97" s="77"/>
-      <c r="C97" s="70"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="62"/>
+      <c r="C97" s="60"/>
       <c r="D97" s="36">
         <v>0.12</v>
       </c>
@@ -7759,9 +7759,9 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A98" s="58"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="70"/>
+      <c r="A98" s="64"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="60"/>
       <c r="D98" s="36" t="s">
         <v>13</v>
       </c>
@@ -7821,14 +7821,14 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A99" s="58">
+      <c r="A99" s="64">
         <v>33</v>
       </c>
-      <c r="B99" s="77" cm="1">
+      <c r="B99" s="62" cm="1">
         <f t="array" aca="1" ref="B99" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B99))</f>
         <v>-5.50007</v>
       </c>
-      <c r="C99" s="70" cm="1">
+      <c r="C99" s="60" cm="1">
         <f t="array" aca="1" ref="C99" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C99))</f>
         <v>7.2287299999999997</v>
       </c>
@@ -7891,9 +7891,9 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A100" s="58"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="70"/>
+      <c r="A100" s="64"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="60"/>
       <c r="D100" s="36">
         <v>0.12</v>
       </c>
@@ -7953,9 +7953,9 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A101" s="58"/>
-      <c r="B101" s="77"/>
-      <c r="C101" s="70"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="60"/>
       <c r="D101" s="36" t="s">
         <v>13</v>
       </c>
@@ -8015,14 +8015,14 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A102" s="58">
+      <c r="A102" s="64">
         <v>34</v>
       </c>
-      <c r="B102" s="77" cm="1">
+      <c r="B102" s="62" cm="1">
         <f t="array" aca="1" ref="B102" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B102))</f>
         <v>-6.3504199999999997</v>
       </c>
-      <c r="C102" s="70" cm="1">
+      <c r="C102" s="60" cm="1">
         <f t="array" aca="1" ref="C102" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C102))</f>
         <v>-9.8237400000000008</v>
       </c>
@@ -8085,9 +8085,9 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A103" s="58"/>
-      <c r="B103" s="77"/>
-      <c r="C103" s="70"/>
+      <c r="A103" s="64"/>
+      <c r="B103" s="62"/>
+      <c r="C103" s="60"/>
       <c r="D103" s="36">
         <v>0.12</v>
       </c>
@@ -8141,9 +8141,9 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A104" s="58"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="70"/>
+      <c r="A104" s="64"/>
+      <c r="B104" s="62"/>
+      <c r="C104" s="60"/>
       <c r="D104" s="36" t="s">
         <v>13</v>
       </c>
@@ -8197,14 +8197,14 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A105" s="58">
+      <c r="A105" s="64">
         <v>35</v>
       </c>
-      <c r="B105" s="77" cm="1">
+      <c r="B105" s="62" cm="1">
         <f t="array" aca="1" ref="B105" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B105))</f>
         <v>4.0704599999999997</v>
       </c>
-      <c r="C105" s="70" cm="1">
+      <c r="C105" s="60" cm="1">
         <f t="array" aca="1" ref="C105" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C105))</f>
         <v>3.7019899999999999</v>
       </c>
@@ -8261,9 +8261,9 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A106" s="58"/>
-      <c r="B106" s="77"/>
-      <c r="C106" s="70"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="60"/>
       <c r="D106" s="36">
         <v>0.12</v>
       </c>
@@ -8317,9 +8317,9 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A107" s="58"/>
-      <c r="B107" s="77"/>
-      <c r="C107" s="70"/>
+      <c r="A107" s="64"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="60"/>
       <c r="D107" s="36" t="s">
         <v>13</v>
       </c>
@@ -8373,14 +8373,14 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A108" s="58">
+      <c r="A108" s="64">
         <v>36</v>
       </c>
-      <c r="B108" s="77" cm="1">
+      <c r="B108" s="62" cm="1">
         <f t="array" aca="1" ref="B108" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B108))</f>
         <v>3.56222E-2</v>
       </c>
-      <c r="C108" s="70" cm="1">
+      <c r="C108" s="60" cm="1">
         <f t="array" aca="1" ref="C108" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C108))</f>
         <v>5.2677100000000001</v>
       </c>
@@ -8437,9 +8437,9 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A109" s="58"/>
-      <c r="B109" s="77"/>
-      <c r="C109" s="70"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="62"/>
+      <c r="C109" s="60"/>
       <c r="D109" s="36">
         <v>0.12</v>
       </c>
@@ -8493,9 +8493,9 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A110" s="58"/>
-      <c r="B110" s="77"/>
-      <c r="C110" s="70"/>
+      <c r="A110" s="64"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="60"/>
       <c r="D110" s="36" t="s">
         <v>13</v>
       </c>
@@ -8549,14 +8549,14 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A111" s="58">
+      <c r="A111" s="64">
         <v>37</v>
       </c>
-      <c r="B111" s="77" cm="1">
+      <c r="B111" s="62" cm="1">
         <f t="array" aca="1" ref="B111" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B111))</f>
         <v>-5.5664999999999996</v>
       </c>
-      <c r="C111" s="70" cm="1">
+      <c r="C111" s="60" cm="1">
         <f t="array" aca="1" ref="C111" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C111))</f>
         <v>8.7849199999999996</v>
       </c>
@@ -8613,9 +8613,9 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
-      <c r="B112" s="77"/>
-      <c r="C112" s="70"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="62"/>
+      <c r="C112" s="60"/>
       <c r="D112" s="36">
         <v>0.12</v>
       </c>
@@ -8669,9 +8669,9 @@
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113" s="58"/>
-      <c r="B113" s="77"/>
-      <c r="C113" s="70"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="60"/>
       <c r="D113" s="36" t="s">
         <v>13</v>
       </c>
@@ -8725,14 +8725,14 @@
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" s="58">
+      <c r="A114" s="64">
         <v>38</v>
       </c>
-      <c r="B114" s="77" cm="1">
+      <c r="B114" s="62" cm="1">
         <f t="array" aca="1" ref="B114" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B114))</f>
         <v>9.21401</v>
       </c>
-      <c r="C114" s="70" cm="1">
+      <c r="C114" s="60" cm="1">
         <f t="array" aca="1" ref="C114" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C114))</f>
         <v>7.56426</v>
       </c>
@@ -8789,9 +8789,9 @@
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" s="58"/>
-      <c r="B115" s="77"/>
-      <c r="C115" s="70"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="62"/>
+      <c r="C115" s="60"/>
       <c r="D115" s="36">
         <v>0.12</v>
       </c>
@@ -8845,9 +8845,9 @@
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
-      <c r="B116" s="77"/>
-      <c r="C116" s="70"/>
+      <c r="A116" s="64"/>
+      <c r="B116" s="62"/>
+      <c r="C116" s="60"/>
       <c r="D116" s="36" t="s">
         <v>13</v>
       </c>
@@ -8901,14 +8901,14 @@
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="58">
+      <c r="A117" s="64">
         <v>39</v>
       </c>
-      <c r="B117" s="77" cm="1">
+      <c r="B117" s="62" cm="1">
         <f t="array" aca="1" ref="B117" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B117))</f>
         <v>-1.12876</v>
       </c>
-      <c r="C117" s="70" cm="1">
+      <c r="C117" s="60" cm="1">
         <f t="array" aca="1" ref="C117" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C117))</f>
         <v>3.8597100000000002</v>
       </c>
@@ -8965,9 +8965,9 @@
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118" s="58"/>
-      <c r="B118" s="77"/>
-      <c r="C118" s="70"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="62"/>
+      <c r="C118" s="60"/>
       <c r="D118" s="36">
         <v>0.12</v>
       </c>
@@ -9021,9 +9021,9 @@
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" s="58"/>
-      <c r="B119" s="77"/>
-      <c r="C119" s="70"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="62"/>
+      <c r="C119" s="60"/>
       <c r="D119" s="36" t="s">
         <v>13</v>
       </c>
@@ -9077,14 +9077,14 @@
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="58">
+      <c r="A120" s="64">
         <v>40</v>
       </c>
-      <c r="B120" s="77" cm="1">
+      <c r="B120" s="62" cm="1">
         <f t="array" aca="1" ref="B120" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B120))</f>
         <v>-8.6725600000000007</v>
       </c>
-      <c r="C120" s="70" cm="1">
+      <c r="C120" s="60" cm="1">
         <f t="array" aca="1" ref="C120" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C120))</f>
         <v>3.1806700000000001</v>
       </c>
@@ -9141,9 +9141,9 @@
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="58"/>
-      <c r="B121" s="77"/>
-      <c r="C121" s="70"/>
+      <c r="A121" s="64"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="60"/>
       <c r="D121" s="36">
         <v>0.12</v>
       </c>
@@ -9197,9 +9197,9 @@
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="58"/>
-      <c r="B122" s="77"/>
-      <c r="C122" s="70"/>
+      <c r="A122" s="64"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="60"/>
       <c r="D122" s="36" t="s">
         <v>13</v>
       </c>
@@ -9253,14 +9253,14 @@
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="58">
+      <c r="A123" s="64">
         <v>41</v>
       </c>
-      <c r="B123" s="77" cm="1">
+      <c r="B123" s="62" cm="1">
         <f t="array" aca="1" ref="B123" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B123))</f>
         <v>-7.6445499999999997</v>
       </c>
-      <c r="C123" s="70" cm="1">
+      <c r="C123" s="60" cm="1">
         <f t="array" aca="1" ref="C123" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C123))</f>
         <v>-1.8841699999999999</v>
       </c>
@@ -9317,9 +9317,9 @@
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="58"/>
-      <c r="B124" s="77"/>
-      <c r="C124" s="70"/>
+      <c r="A124" s="64"/>
+      <c r="B124" s="62"/>
+      <c r="C124" s="60"/>
       <c r="D124" s="36">
         <v>0.12</v>
       </c>
@@ -9373,9 +9373,9 @@
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" s="58"/>
-      <c r="B125" s="77"/>
-      <c r="C125" s="70"/>
+      <c r="A125" s="64"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="60"/>
       <c r="D125" s="36" t="s">
         <v>13</v>
       </c>
@@ -9429,14 +9429,14 @@
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="58">
+      <c r="A126" s="64">
         <v>42</v>
       </c>
-      <c r="B126" s="77" cm="1">
+      <c r="B126" s="62" cm="1">
         <f t="array" aca="1" ref="B126" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B126))</f>
         <v>-3.5710000000000002</v>
       </c>
-      <c r="C126" s="70" cm="1">
+      <c r="C126" s="60" cm="1">
         <f t="array" aca="1" ref="C126" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C126))</f>
         <v>0.32312299999999999</v>
       </c>
@@ -9493,9 +9493,9 @@
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="58"/>
-      <c r="B127" s="77"/>
-      <c r="C127" s="70"/>
+      <c r="A127" s="64"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="60"/>
       <c r="D127" s="36">
         <v>0.12</v>
       </c>
@@ -9549,9 +9549,9 @@
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="58"/>
-      <c r="B128" s="77"/>
-      <c r="C128" s="70"/>
+      <c r="A128" s="64"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="60"/>
       <c r="D128" s="36" t="s">
         <v>13</v>
       </c>
@@ -9605,14 +9605,14 @@
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129" s="58">
+      <c r="A129" s="64">
         <v>43</v>
       </c>
-      <c r="B129" s="77" cm="1">
+      <c r="B129" s="62" cm="1">
         <f t="array" aca="1" ref="B129" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B129))</f>
         <v>8.5293200000000002</v>
       </c>
-      <c r="C129" s="70" cm="1">
+      <c r="C129" s="60" cm="1">
         <f t="array" aca="1" ref="C129" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C129))</f>
         <v>4.3433299999999999</v>
       </c>
@@ -9669,9 +9669,9 @@
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A130" s="58"/>
-      <c r="B130" s="77"/>
-      <c r="C130" s="70"/>
+      <c r="A130" s="64"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="60"/>
       <c r="D130" s="36">
         <v>0.12</v>
       </c>
@@ -9725,9 +9725,9 @@
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131" s="58"/>
-      <c r="B131" s="77"/>
-      <c r="C131" s="70"/>
+      <c r="A131" s="64"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="60"/>
       <c r="D131" s="36" t="s">
         <v>13</v>
       </c>
@@ -9781,14 +9781,14 @@
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A132" s="58">
+      <c r="A132" s="64">
         <v>44</v>
       </c>
-      <c r="B132" s="77" cm="1">
+      <c r="B132" s="62" cm="1">
         <f t="array" aca="1" ref="B132" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B132))</f>
         <v>0.34622999999999998</v>
       </c>
-      <c r="C132" s="70" cm="1">
+      <c r="C132" s="60" cm="1">
         <f t="array" aca="1" ref="C132" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C132))</f>
         <v>-9.6672999999999991</v>
       </c>
@@ -9845,9 +9845,9 @@
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A133" s="58"/>
-      <c r="B133" s="77"/>
-      <c r="C133" s="70"/>
+      <c r="A133" s="64"/>
+      <c r="B133" s="62"/>
+      <c r="C133" s="60"/>
       <c r="D133" s="36">
         <v>0.12</v>
       </c>
@@ -9901,9 +9901,9 @@
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A134" s="58"/>
-      <c r="B134" s="77"/>
-      <c r="C134" s="70"/>
+      <c r="A134" s="64"/>
+      <c r="B134" s="62"/>
+      <c r="C134" s="60"/>
       <c r="D134" s="36" t="s">
         <v>13</v>
       </c>
@@ -9957,14 +9957,14 @@
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A135" s="58">
+      <c r="A135" s="64">
         <v>45</v>
       </c>
-      <c r="B135" s="77" cm="1">
+      <c r="B135" s="62" cm="1">
         <f t="array" aca="1" ref="B135" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B135))</f>
         <v>-5.2642600000000002</v>
       </c>
-      <c r="C135" s="70" cm="1">
+      <c r="C135" s="60" cm="1">
         <f t="array" aca="1" ref="C135" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C135))</f>
         <v>-7.7381200000000003</v>
       </c>
@@ -10021,9 +10021,9 @@
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A136" s="58"/>
-      <c r="B136" s="77"/>
-      <c r="C136" s="70"/>
+      <c r="A136" s="64"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="60"/>
       <c r="D136" s="36">
         <v>0.12</v>
       </c>
@@ -10077,9 +10077,9 @@
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A137" s="58"/>
-      <c r="B137" s="77"/>
-      <c r="C137" s="70"/>
+      <c r="A137" s="64"/>
+      <c r="B137" s="62"/>
+      <c r="C137" s="60"/>
       <c r="D137" s="36" t="s">
         <v>13</v>
       </c>
@@ -10133,14 +10133,14 @@
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A138" s="58">
+      <c r="A138" s="64">
         <v>46</v>
       </c>
-      <c r="B138" s="77" cm="1">
+      <c r="B138" s="62" cm="1">
         <f t="array" aca="1" ref="B138" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B138))</f>
         <v>-0.27460600000000002</v>
       </c>
-      <c r="C138" s="70" cm="1">
+      <c r="C138" s="60" cm="1">
         <f t="array" aca="1" ref="C138" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C138))</f>
         <v>-1.7848299999999999</v>
       </c>
@@ -10197,9 +10197,9 @@
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A139" s="58"/>
-      <c r="B139" s="77"/>
-      <c r="C139" s="70"/>
+      <c r="A139" s="64"/>
+      <c r="B139" s="62"/>
+      <c r="C139" s="60"/>
       <c r="D139" s="36">
         <v>0.12</v>
       </c>
@@ -10253,9 +10253,9 @@
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A140" s="58"/>
-      <c r="B140" s="77"/>
-      <c r="C140" s="70"/>
+      <c r="A140" s="64"/>
+      <c r="B140" s="62"/>
+      <c r="C140" s="60"/>
       <c r="D140" s="36" t="s">
         <v>13</v>
       </c>
@@ -10309,14 +10309,14 @@
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A141" s="58">
+      <c r="A141" s="64">
         <v>47</v>
       </c>
-      <c r="B141" s="77" cm="1">
+      <c r="B141" s="62" cm="1">
         <f t="array" aca="1" ref="B141" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B141))</f>
         <v>-4.71244</v>
       </c>
-      <c r="C141" s="70" cm="1">
+      <c r="C141" s="60" cm="1">
         <f t="array" aca="1" ref="C141" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C141))</f>
         <v>-9.3471899999999994</v>
       </c>
@@ -10373,9 +10373,9 @@
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" s="58"/>
-      <c r="B142" s="77"/>
-      <c r="C142" s="70"/>
+      <c r="A142" s="64"/>
+      <c r="B142" s="62"/>
+      <c r="C142" s="60"/>
       <c r="D142" s="36">
         <v>0.12</v>
       </c>
@@ -10429,9 +10429,9 @@
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A143" s="58"/>
-      <c r="B143" s="77"/>
-      <c r="C143" s="70"/>
+      <c r="A143" s="64"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="60"/>
       <c r="D143" s="36" t="s">
         <v>13</v>
       </c>
@@ -10485,14 +10485,14 @@
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A144" s="58">
+      <c r="A144" s="64">
         <v>48</v>
       </c>
-      <c r="B144" s="77" cm="1">
+      <c r="B144" s="62" cm="1">
         <f t="array" aca="1" ref="B144" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B144))</f>
         <v>-2.2586400000000002</v>
       </c>
-      <c r="C144" s="70" cm="1">
+      <c r="C144" s="60" cm="1">
         <f t="array" aca="1" ref="C144" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C144))</f>
         <v>6.4121100000000002</v>
       </c>
@@ -10549,9 +10549,9 @@
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A145" s="58"/>
-      <c r="B145" s="77"/>
-      <c r="C145" s="70"/>
+      <c r="A145" s="64"/>
+      <c r="B145" s="62"/>
+      <c r="C145" s="60"/>
       <c r="D145" s="36">
         <v>0.12</v>
       </c>
@@ -10605,9 +10605,9 @@
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A146" s="58"/>
-      <c r="B146" s="77"/>
-      <c r="C146" s="70"/>
+      <c r="A146" s="64"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="60"/>
       <c r="D146" s="36" t="s">
         <v>13</v>
       </c>
@@ -10661,14 +10661,14 @@
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A147" s="58">
+      <c r="A147" s="64">
         <v>49</v>
       </c>
-      <c r="B147" s="77" cm="1">
+      <c r="B147" s="62" cm="1">
         <f t="array" aca="1" ref="B147" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B147))</f>
         <v>4.0758999999999999</v>
       </c>
-      <c r="C147" s="70" cm="1">
+      <c r="C147" s="60" cm="1">
         <f t="array" aca="1" ref="C147" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C147))</f>
         <v>1.6413</v>
       </c>
@@ -10725,9 +10725,9 @@
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A148" s="58"/>
-      <c r="B148" s="77"/>
-      <c r="C148" s="70"/>
+      <c r="A148" s="64"/>
+      <c r="B148" s="62"/>
+      <c r="C148" s="60"/>
       <c r="D148" s="36">
         <v>0.12</v>
       </c>
@@ -10781,9 +10781,9 @@
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A149" s="58"/>
-      <c r="B149" s="77"/>
-      <c r="C149" s="70"/>
+      <c r="A149" s="64"/>
+      <c r="B149" s="62"/>
+      <c r="C149" s="60"/>
       <c r="D149" s="36" t="s">
         <v>13</v>
       </c>
@@ -10837,14 +10837,14 @@
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A150" s="58">
+      <c r="A150" s="64">
         <v>50</v>
       </c>
-      <c r="B150" s="77" cm="1">
+      <c r="B150" s="62" cm="1">
         <f t="array" aca="1" ref="B150" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B150))</f>
         <v>9.9187600000000007</v>
       </c>
-      <c r="C150" s="70" cm="1">
+      <c r="C150" s="60" cm="1">
         <f t="array" aca="1" ref="C150" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C150))</f>
         <v>1.42998</v>
       </c>
@@ -10901,9 +10901,9 @@
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A151" s="58"/>
-      <c r="B151" s="77"/>
-      <c r="C151" s="70"/>
+      <c r="A151" s="64"/>
+      <c r="B151" s="62"/>
+      <c r="C151" s="60"/>
       <c r="D151" s="36">
         <v>0.12</v>
       </c>
@@ -10957,9 +10957,9 @@
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A152" s="58"/>
-      <c r="B152" s="77"/>
-      <c r="C152" s="70"/>
+      <c r="A152" s="64"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="60"/>
       <c r="D152" s="36" t="s">
         <v>13</v>
       </c>
@@ -11013,14 +11013,14 @@
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A153" s="58">
+      <c r="A153" s="64">
         <v>51</v>
       </c>
-      <c r="B153" s="77" cm="1">
+      <c r="B153" s="62" cm="1">
         <f t="array" aca="1" ref="B153" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B153))</f>
         <v>2.3225699999999998</v>
       </c>
-      <c r="C153" s="70" cm="1">
+      <c r="C153" s="60" cm="1">
         <f t="array" aca="1" ref="C153" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C153))</f>
         <v>-3.2296</v>
       </c>
@@ -11077,9 +11077,9 @@
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A154" s="58"/>
-      <c r="B154" s="77"/>
-      <c r="C154" s="70"/>
+      <c r="A154" s="64"/>
+      <c r="B154" s="62"/>
+      <c r="C154" s="60"/>
       <c r="D154" s="36">
         <v>0.12</v>
       </c>
@@ -11133,9 +11133,9 @@
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A155" s="58"/>
-      <c r="B155" s="77"/>
-      <c r="C155" s="70"/>
+      <c r="A155" s="64"/>
+      <c r="B155" s="62"/>
+      <c r="C155" s="60"/>
       <c r="D155" s="36" t="s">
         <v>13</v>
       </c>
@@ -11189,14 +11189,14 @@
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A156" s="58">
+      <c r="A156" s="64">
         <v>52</v>
       </c>
-      <c r="B156" s="77" cm="1">
+      <c r="B156" s="62" cm="1">
         <f t="array" aca="1" ref="B156" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B156))</f>
         <v>2.2532100000000002</v>
       </c>
-      <c r="C156" s="70" cm="1">
+      <c r="C156" s="60" cm="1">
         <f t="array" aca="1" ref="C156" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C156))</f>
         <v>3.5668799999999998</v>
       </c>
@@ -11253,9 +11253,9 @@
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A157" s="58"/>
-      <c r="B157" s="77"/>
-      <c r="C157" s="70"/>
+      <c r="A157" s="64"/>
+      <c r="B157" s="62"/>
+      <c r="C157" s="60"/>
       <c r="D157" s="36">
         <v>0.12</v>
       </c>
@@ -11309,9 +11309,9 @@
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A158" s="58"/>
-      <c r="B158" s="77"/>
-      <c r="C158" s="70"/>
+      <c r="A158" s="64"/>
+      <c r="B158" s="62"/>
+      <c r="C158" s="60"/>
       <c r="D158" s="36" t="s">
         <v>13</v>
       </c>
@@ -11365,14 +11365,14 @@
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A159" s="58">
+      <c r="A159" s="64">
         <v>53</v>
       </c>
-      <c r="B159" s="77" cm="1">
+      <c r="B159" s="62" cm="1">
         <f t="array" aca="1" ref="B159" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B159))</f>
         <v>-0.31965100000000002</v>
       </c>
-      <c r="C159" s="70" cm="1">
+      <c r="C159" s="60" cm="1">
         <f t="array" aca="1" ref="C159" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C159))</f>
         <v>5.6181999999999999</v>
       </c>
@@ -11429,9 +11429,9 @@
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A160" s="58"/>
-      <c r="B160" s="77"/>
-      <c r="C160" s="70"/>
+      <c r="A160" s="64"/>
+      <c r="B160" s="62"/>
+      <c r="C160" s="60"/>
       <c r="D160" s="36">
         <v>0.12</v>
       </c>
@@ -11485,9 +11485,9 @@
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A161" s="58"/>
-      <c r="B161" s="77"/>
-      <c r="C161" s="70"/>
+      <c r="A161" s="64"/>
+      <c r="B161" s="62"/>
+      <c r="C161" s="60"/>
       <c r="D161" s="36" t="s">
         <v>13</v>
       </c>
@@ -11541,14 +11541,14 @@
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A162" s="58">
+      <c r="A162" s="64">
         <v>54</v>
       </c>
-      <c r="B162" s="77" cm="1">
+      <c r="B162" s="62" cm="1">
         <f t="array" aca="1" ref="B162" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B162))</f>
         <v>2.8197899999999998</v>
       </c>
-      <c r="C162" s="70" cm="1">
+      <c r="C162" s="60" cm="1">
         <f t="array" aca="1" ref="C162" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C162))</f>
         <v>0.69671700000000003</v>
       </c>
@@ -11605,9 +11605,9 @@
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A163" s="58"/>
-      <c r="B163" s="77"/>
-      <c r="C163" s="70"/>
+      <c r="A163" s="64"/>
+      <c r="B163" s="62"/>
+      <c r="C163" s="60"/>
       <c r="D163" s="36">
         <v>0.12</v>
       </c>
@@ -11661,9 +11661,9 @@
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A164" s="58"/>
-      <c r="B164" s="77"/>
-      <c r="C164" s="70"/>
+      <c r="A164" s="64"/>
+      <c r="B164" s="62"/>
+      <c r="C164" s="60"/>
       <c r="D164" s="36" t="s">
         <v>13</v>
       </c>
@@ -11717,14 +11717,14 @@
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" s="58">
+      <c r="A165" s="64">
         <v>55</v>
       </c>
-      <c r="B165" s="77" cm="1">
+      <c r="B165" s="62" cm="1">
         <f t="array" aca="1" ref="B165" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B165))</f>
         <v>8.9090600000000002</v>
       </c>
-      <c r="C165" s="70" cm="1">
+      <c r="C165" s="60" cm="1">
         <f t="array" aca="1" ref="C165" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C165))</f>
         <v>8.0468799999999998</v>
       </c>
@@ -11781,9 +11781,9 @@
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A166" s="58"/>
-      <c r="B166" s="77"/>
-      <c r="C166" s="70"/>
+      <c r="A166" s="64"/>
+      <c r="B166" s="62"/>
+      <c r="C166" s="60"/>
       <c r="D166" s="36">
         <v>0.12</v>
       </c>
@@ -11837,9 +11837,9 @@
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A167" s="58"/>
-      <c r="B167" s="77"/>
-      <c r="C167" s="70"/>
+      <c r="A167" s="64"/>
+      <c r="B167" s="62"/>
+      <c r="C167" s="60"/>
       <c r="D167" s="36" t="s">
         <v>13</v>
       </c>
@@ -11893,14 +11893,14 @@
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A168" s="58">
+      <c r="A168" s="64">
         <v>56</v>
       </c>
-      <c r="B168" s="77" cm="1">
+      <c r="B168" s="62" cm="1">
         <f t="array" aca="1" ref="B168" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B168))</f>
         <v>5.6729200000000004</v>
       </c>
-      <c r="C168" s="70" cm="1">
+      <c r="C168" s="60" cm="1">
         <f t="array" aca="1" ref="C168" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C168))</f>
         <v>-9.3886000000000003</v>
       </c>
@@ -11957,9 +11957,9 @@
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A169" s="58"/>
-      <c r="B169" s="77"/>
-      <c r="C169" s="70"/>
+      <c r="A169" s="64"/>
+      <c r="B169" s="62"/>
+      <c r="C169" s="60"/>
       <c r="D169" s="36">
         <v>0.12</v>
       </c>
@@ -12013,9 +12013,9 @@
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A170" s="58"/>
-      <c r="B170" s="77"/>
-      <c r="C170" s="70"/>
+      <c r="A170" s="64"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="60"/>
       <c r="D170" s="36" t="s">
         <v>13</v>
       </c>
@@ -12069,14 +12069,14 @@
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A171" s="58">
+      <c r="A171" s="64">
         <v>57</v>
       </c>
-      <c r="B171" s="77" cm="1">
+      <c r="B171" s="62" cm="1">
         <f t="array" aca="1" ref="B171" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B171))</f>
         <v>-8.2707899999999999</v>
       </c>
-      <c r="C171" s="70" cm="1">
+      <c r="C171" s="60" cm="1">
         <f t="array" aca="1" ref="C171" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C171))</f>
         <v>-7.3533299999999997</v>
       </c>
@@ -12133,9 +12133,9 @@
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A172" s="58"/>
-      <c r="B172" s="77"/>
-      <c r="C172" s="70"/>
+      <c r="A172" s="64"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="60"/>
       <c r="D172" s="36">
         <v>0.12</v>
       </c>
@@ -12189,9 +12189,9 @@
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A173" s="58"/>
-      <c r="B173" s="77"/>
-      <c r="C173" s="70"/>
+      <c r="A173" s="64"/>
+      <c r="B173" s="62"/>
+      <c r="C173" s="60"/>
       <c r="D173" s="36" t="s">
         <v>13</v>
       </c>
@@ -12245,14 +12245,14 @@
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A174" s="58">
+      <c r="A174" s="64">
         <v>58</v>
       </c>
-      <c r="B174" s="77" cm="1">
+      <c r="B174" s="62" cm="1">
         <f t="array" aca="1" ref="B174" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B174))</f>
         <v>2.1122999999999998</v>
       </c>
-      <c r="C174" s="70" cm="1">
+      <c r="C174" s="60" cm="1">
         <f t="array" aca="1" ref="C174" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C174))</f>
         <v>6.3234700000000004</v>
       </c>
@@ -12309,9 +12309,9 @@
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A175" s="58"/>
-      <c r="B175" s="77"/>
-      <c r="C175" s="70"/>
+      <c r="A175" s="64"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="60"/>
       <c r="D175" s="36">
         <v>0.12</v>
       </c>
@@ -12365,9 +12365,9 @@
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A176" s="58"/>
-      <c r="B176" s="77"/>
-      <c r="C176" s="70"/>
+      <c r="A176" s="64"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="60"/>
       <c r="D176" s="36" t="s">
         <v>13</v>
       </c>
@@ -12421,14 +12421,14 @@
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A177" s="58">
+      <c r="A177" s="64">
         <v>59</v>
       </c>
-      <c r="B177" s="77" cm="1">
+      <c r="B177" s="62" cm="1">
         <f t="array" aca="1" ref="B177" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B177))</f>
         <v>4.6690500000000004</v>
       </c>
-      <c r="C177" s="70" cm="1">
+      <c r="C177" s="60" cm="1">
         <f t="array" aca="1" ref="C177" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C177))</f>
         <v>4.1526899999999998</v>
       </c>
@@ -12485,9 +12485,9 @@
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A178" s="58"/>
-      <c r="B178" s="77"/>
-      <c r="C178" s="70"/>
+      <c r="A178" s="64"/>
+      <c r="B178" s="62"/>
+      <c r="C178" s="60"/>
       <c r="D178" s="36">
         <v>0.12</v>
       </c>
@@ -12541,9 +12541,9 @@
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A179" s="58"/>
-      <c r="B179" s="77"/>
-      <c r="C179" s="70"/>
+      <c r="A179" s="64"/>
+      <c r="B179" s="62"/>
+      <c r="C179" s="60"/>
       <c r="D179" s="36" t="s">
         <v>13</v>
       </c>
@@ -12597,14 +12597,14 @@
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A180" s="58">
+      <c r="A180" s="64">
         <v>60</v>
       </c>
-      <c r="B180" s="77" cm="1">
+      <c r="B180" s="62" cm="1">
         <f t="array" aca="1" ref="B180" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B180))</f>
         <v>6.7030000000000003</v>
       </c>
-      <c r="C180" s="70" cm="1">
+      <c r="C180" s="60" cm="1">
         <f t="array" aca="1" ref="C180" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C180))</f>
         <v>4.4219499999999998</v>
       </c>
@@ -12661,9 +12661,9 @@
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A181" s="58"/>
-      <c r="B181" s="77"/>
-      <c r="C181" s="70"/>
+      <c r="A181" s="64"/>
+      <c r="B181" s="62"/>
+      <c r="C181" s="60"/>
       <c r="D181" s="36">
         <v>0.12</v>
       </c>
@@ -12717,9 +12717,9 @@
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A182" s="58"/>
-      <c r="B182" s="77"/>
-      <c r="C182" s="70"/>
+      <c r="A182" s="64"/>
+      <c r="B182" s="62"/>
+      <c r="C182" s="60"/>
       <c r="D182" s="36" t="s">
         <v>13</v>
       </c>
@@ -12773,14 +12773,14 @@
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A183" s="58">
+      <c r="A183" s="64">
         <v>61</v>
       </c>
-      <c r="B183" s="77" cm="1">
+      <c r="B183" s="62" cm="1">
         <f t="array" aca="1" ref="B183" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B183))</f>
         <v>7.5266599999999997</v>
       </c>
-      <c r="C183" s="70" cm="1">
+      <c r="C183" s="60" cm="1">
         <f t="array" aca="1" ref="C183" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C183))</f>
         <v>5.2238499999999997</v>
       </c>
@@ -12837,9 +12837,9 @@
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A184" s="58"/>
-      <c r="B184" s="77"/>
-      <c r="C184" s="70"/>
+      <c r="A184" s="64"/>
+      <c r="B184" s="62"/>
+      <c r="C184" s="60"/>
       <c r="D184" s="36">
         <v>0.12</v>
       </c>
@@ -12893,9 +12893,9 @@
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A185" s="58"/>
-      <c r="B185" s="77"/>
-      <c r="C185" s="70"/>
+      <c r="A185" s="64"/>
+      <c r="B185" s="62"/>
+      <c r="C185" s="60"/>
       <c r="D185" s="36" t="s">
         <v>13</v>
       </c>
@@ -12949,14 +12949,14 @@
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A186" s="58">
+      <c r="A186" s="64">
         <v>62</v>
       </c>
-      <c r="B186" s="77" cm="1">
+      <c r="B186" s="62" cm="1">
         <f t="array" aca="1" ref="B186" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B186))</f>
         <v>-2.9377599999999999</v>
       </c>
-      <c r="C186" s="70" cm="1">
+      <c r="C186" s="60" cm="1">
         <f t="array" aca="1" ref="C186" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C186))</f>
         <v>2.8811599999999999</v>
       </c>
@@ -13013,9 +13013,9 @@
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A187" s="58"/>
-      <c r="B187" s="77"/>
-      <c r="C187" s="70"/>
+      <c r="A187" s="64"/>
+      <c r="B187" s="62"/>
+      <c r="C187" s="60"/>
       <c r="D187" s="36">
         <v>0.12</v>
       </c>
@@ -13069,9 +13069,9 @@
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A188" s="58"/>
-      <c r="B188" s="77"/>
-      <c r="C188" s="70"/>
+      <c r="A188" s="64"/>
+      <c r="B188" s="62"/>
+      <c r="C188" s="60"/>
       <c r="D188" s="36" t="s">
         <v>13</v>
       </c>
@@ -13125,14 +13125,14 @@
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A189" s="58">
+      <c r="A189" s="64">
         <v>63</v>
       </c>
-      <c r="B189" s="77" cm="1">
+      <c r="B189" s="62" cm="1">
         <f t="array" aca="1" ref="B189" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B189))</f>
         <v>-9.2903300000000009</v>
       </c>
-      <c r="C189" s="70" cm="1">
+      <c r="C189" s="60" cm="1">
         <f t="array" aca="1" ref="C189" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C189))</f>
         <v>9.30335</v>
       </c>
@@ -13189,9 +13189,9 @@
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A190" s="58"/>
-      <c r="B190" s="77"/>
-      <c r="C190" s="70"/>
+      <c r="A190" s="64"/>
+      <c r="B190" s="62"/>
+      <c r="C190" s="60"/>
       <c r="D190" s="36">
         <v>0.12</v>
       </c>
@@ -13245,9 +13245,9 @@
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A191" s="58"/>
-      <c r="B191" s="77"/>
-      <c r="C191" s="70"/>
+      <c r="A191" s="64"/>
+      <c r="B191" s="62"/>
+      <c r="C191" s="60"/>
       <c r="D191" s="36" t="s">
         <v>13</v>
       </c>
@@ -13301,14 +13301,14 @@
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A192" s="58">
+      <c r="A192" s="64">
         <v>64</v>
       </c>
-      <c r="B192" s="77" cm="1">
+      <c r="B192" s="62" cm="1">
         <f t="array" aca="1" ref="B192" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B192))</f>
         <v>-3.3769999999999998</v>
       </c>
-      <c r="C192" s="70" cm="1">
+      <c r="C192" s="60" cm="1">
         <f t="array" aca="1" ref="C192" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C192))</f>
         <v>-7.1238799999999998</v>
       </c>
@@ -13365,9 +13365,9 @@
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A193" s="58"/>
-      <c r="B193" s="77"/>
-      <c r="C193" s="70"/>
+      <c r="A193" s="64"/>
+      <c r="B193" s="62"/>
+      <c r="C193" s="60"/>
       <c r="D193" s="36">
         <v>0.12</v>
       </c>
@@ -13421,9 +13421,9 @@
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A194" s="58"/>
-      <c r="B194" s="77"/>
-      <c r="C194" s="70"/>
+      <c r="A194" s="64"/>
+      <c r="B194" s="62"/>
+      <c r="C194" s="60"/>
       <c r="D194" s="36" t="s">
         <v>13</v>
       </c>
@@ -13477,14 +13477,14 @@
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A195" s="58">
+      <c r="A195" s="64">
         <v>65</v>
       </c>
-      <c r="B195" s="77" cm="1">
+      <c r="B195" s="62" cm="1">
         <f t="array" aca="1" ref="B195" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B195))</f>
         <v>-4.63537</v>
       </c>
-      <c r="C195" s="70" cm="1">
+      <c r="C195" s="60" cm="1">
         <f t="array" aca="1" ref="C195" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C195))</f>
         <v>6.5340600000000002</v>
       </c>
@@ -13541,9 +13541,9 @@
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A196" s="58"/>
-      <c r="B196" s="77"/>
-      <c r="C196" s="70"/>
+      <c r="A196" s="64"/>
+      <c r="B196" s="62"/>
+      <c r="C196" s="60"/>
       <c r="D196" s="36">
         <v>0.12</v>
       </c>
@@ -13597,9 +13597,9 @@
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A197" s="58"/>
-      <c r="B197" s="77"/>
-      <c r="C197" s="70"/>
+      <c r="A197" s="64"/>
+      <c r="B197" s="62"/>
+      <c r="C197" s="60"/>
       <c r="D197" s="36" t="s">
         <v>13</v>
       </c>
@@ -13653,14 +13653,14 @@
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A198" s="58">
+      <c r="A198" s="64">
         <v>66</v>
       </c>
-      <c r="B198" s="77" cm="1">
+      <c r="B198" s="62" cm="1">
         <f t="array" aca="1" ref="B198" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B198))</f>
         <v>5.1065500000000004</v>
       </c>
-      <c r="C198" s="70" cm="1">
+      <c r="C198" s="60" cm="1">
         <f t="array" aca="1" ref="C198" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C198))</f>
         <v>-9.0420400000000001</v>
       </c>
@@ -13717,9 +13717,9 @@
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A199" s="58"/>
-      <c r="B199" s="77"/>
-      <c r="C199" s="70"/>
+      <c r="A199" s="64"/>
+      <c r="B199" s="62"/>
+      <c r="C199" s="60"/>
       <c r="D199" s="36">
         <v>0.12</v>
       </c>
@@ -13773,9 +13773,9 @@
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A200" s="58"/>
-      <c r="B200" s="77"/>
-      <c r="C200" s="70"/>
+      <c r="A200" s="64"/>
+      <c r="B200" s="62"/>
+      <c r="C200" s="60"/>
       <c r="D200" s="36" t="s">
         <v>13</v>
       </c>
@@ -13829,14 +13829,14 @@
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A201" s="58">
+      <c r="A201" s="64">
         <v>67</v>
       </c>
-      <c r="B201" s="77" cm="1">
+      <c r="B201" s="62" cm="1">
         <f t="array" aca="1" ref="B201" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B201))</f>
         <v>-8.5826499999999992</v>
       </c>
-      <c r="C201" s="70" cm="1">
+      <c r="C201" s="60" cm="1">
         <f t="array" aca="1" ref="C201" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C201))</f>
         <v>2.7327599999999999</v>
       </c>
@@ -13893,9 +13893,9 @@
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A202" s="58"/>
-      <c r="B202" s="77"/>
-      <c r="C202" s="70"/>
+      <c r="A202" s="64"/>
+      <c r="B202" s="62"/>
+      <c r="C202" s="60"/>
       <c r="D202" s="36">
         <v>0.12</v>
       </c>
@@ -13949,9 +13949,9 @@
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A203" s="58"/>
-      <c r="B203" s="77"/>
-      <c r="C203" s="70"/>
+      <c r="A203" s="64"/>
+      <c r="B203" s="62"/>
+      <c r="C203" s="60"/>
       <c r="D203" s="36" t="s">
         <v>13</v>
       </c>
@@ -14005,14 +14005,14 @@
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A204" s="58">
+      <c r="A204" s="64">
         <v>68</v>
       </c>
-      <c r="B204" s="77" cm="1">
+      <c r="B204" s="62" cm="1">
         <f t="array" aca="1" ref="B204" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B204))</f>
         <v>8.0481499999999997</v>
       </c>
-      <c r="C204" s="70" cm="1">
+      <c r="C204" s="60" cm="1">
         <f t="array" aca="1" ref="C204" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C204))</f>
         <v>8.7625100000000007</v>
       </c>
@@ -14069,9 +14069,9 @@
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A205" s="58"/>
-      <c r="B205" s="77"/>
-      <c r="C205" s="70"/>
+      <c r="A205" s="64"/>
+      <c r="B205" s="62"/>
+      <c r="C205" s="60"/>
       <c r="D205" s="36">
         <v>0.12</v>
       </c>
@@ -14125,9 +14125,9 @@
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A206" s="58"/>
-      <c r="B206" s="77"/>
-      <c r="C206" s="70"/>
+      <c r="A206" s="64"/>
+      <c r="B206" s="62"/>
+      <c r="C206" s="60"/>
       <c r="D206" s="36" t="s">
         <v>13</v>
       </c>
@@ -14181,14 +14181,14 @@
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A207" s="58">
+      <c r="A207" s="64">
         <v>69</v>
       </c>
-      <c r="B207" s="77" cm="1">
+      <c r="B207" s="62" cm="1">
         <f t="array" aca="1" ref="B207" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B207))</f>
         <v>-8.7939900000000009</v>
       </c>
-      <c r="C207" s="70" cm="1">
+      <c r="C207" s="60" cm="1">
         <f t="array" aca="1" ref="C207" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C207))</f>
         <v>-8.5525699999999993</v>
       </c>
@@ -14245,9 +14245,9 @@
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A208" s="58"/>
-      <c r="B208" s="77"/>
-      <c r="C208" s="70"/>
+      <c r="A208" s="64"/>
+      <c r="B208" s="62"/>
+      <c r="C208" s="60"/>
       <c r="D208" s="36">
         <v>0.12</v>
       </c>
@@ -14301,9 +14301,9 @@
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A209" s="58"/>
-      <c r="B209" s="77"/>
-      <c r="C209" s="70"/>
+      <c r="A209" s="64"/>
+      <c r="B209" s="62"/>
+      <c r="C209" s="60"/>
       <c r="D209" s="36" t="s">
         <v>13</v>
       </c>
@@ -14357,14 +14357,14 @@
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A210" s="58">
+      <c r="A210" s="64">
         <v>70</v>
       </c>
-      <c r="B210" s="77" cm="1">
+      <c r="B210" s="62" cm="1">
         <f t="array" aca="1" ref="B210" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B210))</f>
         <v>2.8092199999999998</v>
       </c>
-      <c r="C210" s="70" cm="1">
+      <c r="C210" s="60" cm="1">
         <f t="array" aca="1" ref="C210" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C210))</f>
         <v>-9.6197999999999997</v>
       </c>
@@ -14421,9 +14421,9 @@
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A211" s="58"/>
-      <c r="B211" s="77"/>
-      <c r="C211" s="70"/>
+      <c r="A211" s="64"/>
+      <c r="B211" s="62"/>
+      <c r="C211" s="60"/>
       <c r="D211" s="36">
         <v>0.12</v>
       </c>
@@ -14477,9 +14477,9 @@
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A212" s="58"/>
-      <c r="B212" s="77"/>
-      <c r="C212" s="70"/>
+      <c r="A212" s="64"/>
+      <c r="B212" s="62"/>
+      <c r="C212" s="60"/>
       <c r="D212" s="36" t="s">
         <v>13</v>
       </c>
@@ -14533,14 +14533,14 @@
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A213" s="58">
+      <c r="A213" s="64">
         <v>71</v>
       </c>
-      <c r="B213" s="77" cm="1">
+      <c r="B213" s="62" cm="1">
         <f t="array" aca="1" ref="B213" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B213))</f>
         <v>1.1829799999999999</v>
       </c>
-      <c r="C213" s="70" cm="1">
+      <c r="C213" s="60" cm="1">
         <f t="array" aca="1" ref="C213" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C213))</f>
         <v>-3.6842000000000001</v>
       </c>
@@ -14597,9 +14597,9 @@
       </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A214" s="58"/>
-      <c r="B214" s="77"/>
-      <c r="C214" s="70"/>
+      <c r="A214" s="64"/>
+      <c r="B214" s="62"/>
+      <c r="C214" s="60"/>
       <c r="D214" s="36">
         <v>0.12</v>
       </c>
@@ -14653,9 +14653,9 @@
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A215" s="58"/>
-      <c r="B215" s="77"/>
-      <c r="C215" s="70"/>
+      <c r="A215" s="64"/>
+      <c r="B215" s="62"/>
+      <c r="C215" s="60"/>
       <c r="D215" s="36" t="s">
         <v>13</v>
       </c>
@@ -14709,14 +14709,14 @@
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A216" s="58">
+      <c r="A216" s="64">
         <v>72</v>
       </c>
-      <c r="B216" s="77" cm="1">
+      <c r="B216" s="62" cm="1">
         <f t="array" aca="1" ref="B216" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B216))</f>
         <v>7.5110700000000001</v>
       </c>
-      <c r="C216" s="70" cm="1">
+      <c r="C216" s="60" cm="1">
         <f t="array" aca="1" ref="C216" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C216))</f>
         <v>-3.3776199999999998</v>
       </c>
@@ -14773,9 +14773,9 @@
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A217" s="58"/>
-      <c r="B217" s="77"/>
-      <c r="C217" s="70"/>
+      <c r="A217" s="64"/>
+      <c r="B217" s="62"/>
+      <c r="C217" s="60"/>
       <c r="D217" s="36">
         <v>0.12</v>
       </c>
@@ -14829,9 +14829,9 @@
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A218" s="58"/>
-      <c r="B218" s="77"/>
-      <c r="C218" s="70"/>
+      <c r="A218" s="64"/>
+      <c r="B218" s="62"/>
+      <c r="C218" s="60"/>
       <c r="D218" s="36" t="s">
         <v>13</v>
       </c>
@@ -14885,14 +14885,14 @@
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A219" s="58">
+      <c r="A219" s="64">
         <v>73</v>
       </c>
-      <c r="B219" s="77" cm="1">
+      <c r="B219" s="62" cm="1">
         <f t="array" aca="1" ref="B219" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B219))</f>
         <v>0.19847600000000001</v>
       </c>
-      <c r="C219" s="70" cm="1">
+      <c r="C219" s="60" cm="1">
         <f t="array" aca="1" ref="C219" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C219))</f>
         <v>3.2601199999999998E-4</v>
       </c>
@@ -14949,9 +14949,9 @@
       </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A220" s="58"/>
-      <c r="B220" s="77"/>
-      <c r="C220" s="70"/>
+      <c r="A220" s="64"/>
+      <c r="B220" s="62"/>
+      <c r="C220" s="60"/>
       <c r="D220" s="36">
         <v>0.12</v>
       </c>
@@ -15005,9 +15005,9 @@
       </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A221" s="58"/>
-      <c r="B221" s="77"/>
-      <c r="C221" s="70"/>
+      <c r="A221" s="64"/>
+      <c r="B221" s="62"/>
+      <c r="C221" s="60"/>
       <c r="D221" s="36" t="s">
         <v>13</v>
       </c>
@@ -15061,14 +15061,14 @@
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A222" s="58">
+      <c r="A222" s="64">
         <v>74</v>
       </c>
-      <c r="B222" s="77" cm="1">
+      <c r="B222" s="62" cm="1">
         <f t="array" aca="1" ref="B222" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B222))</f>
         <v>7.6719499999999998</v>
       </c>
-      <c r="C222" s="70" cm="1">
+      <c r="C222" s="60" cm="1">
         <f t="array" aca="1" ref="C222" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C222))</f>
         <v>-7.3863700000000003</v>
       </c>
@@ -15125,9 +15125,9 @@
       </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A223" s="58"/>
-      <c r="B223" s="77"/>
-      <c r="C223" s="70"/>
+      <c r="A223" s="64"/>
+      <c r="B223" s="62"/>
+      <c r="C223" s="60"/>
       <c r="D223" s="36">
         <v>0.12</v>
       </c>
@@ -15181,9 +15181,9 @@
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A224" s="58"/>
-      <c r="B224" s="77"/>
-      <c r="C224" s="70"/>
+      <c r="A224" s="64"/>
+      <c r="B224" s="62"/>
+      <c r="C224" s="60"/>
       <c r="D224" s="36" t="s">
         <v>13</v>
       </c>
@@ -15237,14 +15237,14 @@
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A225" s="58">
+      <c r="A225" s="64">
         <v>75</v>
       </c>
-      <c r="B225" s="77" cm="1">
+      <c r="B225" s="62" cm="1">
         <f t="array" aca="1" ref="B225" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B225))</f>
         <v>-0.16708700000000001</v>
       </c>
-      <c r="C225" s="70" cm="1">
+      <c r="C225" s="60" cm="1">
         <f t="array" aca="1" ref="C225" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C225))</f>
         <v>0.58370100000000003</v>
       </c>
@@ -15301,9 +15301,9 @@
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A226" s="58"/>
-      <c r="B226" s="77"/>
-      <c r="C226" s="70"/>
+      <c r="A226" s="64"/>
+      <c r="B226" s="62"/>
+      <c r="C226" s="60"/>
       <c r="D226" s="36">
         <v>0.12</v>
       </c>
@@ -15357,9 +15357,9 @@
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A227" s="58"/>
-      <c r="B227" s="77"/>
-      <c r="C227" s="70"/>
+      <c r="A227" s="64"/>
+      <c r="B227" s="62"/>
+      <c r="C227" s="60"/>
       <c r="D227" s="36" t="s">
         <v>13</v>
       </c>
@@ -15413,14 +15413,14 @@
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A228" s="58">
+      <c r="A228" s="64">
         <v>76</v>
       </c>
-      <c r="B228" s="77" cm="1">
+      <c r="B228" s="62" cm="1">
         <f t="array" aca="1" ref="B228" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B228))</f>
         <v>-8.0286800000000005E-2</v>
       </c>
-      <c r="C228" s="70" cm="1">
+      <c r="C228" s="60" cm="1">
         <f t="array" aca="1" ref="C228" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C228))</f>
         <v>-3.79644</v>
       </c>
@@ -15477,9 +15477,9 @@
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A229" s="58"/>
-      <c r="B229" s="77"/>
-      <c r="C229" s="70"/>
+      <c r="A229" s="64"/>
+      <c r="B229" s="62"/>
+      <c r="C229" s="60"/>
       <c r="D229" s="36">
         <v>0.12</v>
       </c>
@@ -15533,9 +15533,9 @@
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A230" s="58"/>
-      <c r="B230" s="77"/>
-      <c r="C230" s="70"/>
+      <c r="A230" s="64"/>
+      <c r="B230" s="62"/>
+      <c r="C230" s="60"/>
       <c r="D230" s="36" t="s">
         <v>13</v>
       </c>
@@ -15589,14 +15589,14 @@
       </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A231" s="58">
+      <c r="A231" s="64">
         <v>77</v>
       </c>
-      <c r="B231" s="77" cm="1">
+      <c r="B231" s="62" cm="1">
         <f t="array" aca="1" ref="B231" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B231))</f>
         <v>1.7151400000000001</v>
       </c>
-      <c r="C231" s="70" cm="1">
+      <c r="C231" s="60" cm="1">
         <f t="array" aca="1" ref="C231" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C231))</f>
         <v>-7.8318300000000001</v>
       </c>
@@ -15653,9 +15653,9 @@
       </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A232" s="58"/>
-      <c r="B232" s="77"/>
-      <c r="C232" s="70"/>
+      <c r="A232" s="64"/>
+      <c r="B232" s="62"/>
+      <c r="C232" s="60"/>
       <c r="D232" s="36">
         <v>0.12</v>
       </c>
@@ -15709,9 +15709,9 @@
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A233" s="58"/>
-      <c r="B233" s="77"/>
-      <c r="C233" s="70"/>
+      <c r="A233" s="64"/>
+      <c r="B233" s="62"/>
+      <c r="C233" s="60"/>
       <c r="D233" s="36" t="s">
         <v>13</v>
       </c>
@@ -15765,14 +15765,14 @@
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A234" s="58">
+      <c r="A234" s="64">
         <v>78</v>
       </c>
-      <c r="B234" s="77" cm="1">
+      <c r="B234" s="62" cm="1">
         <f t="array" aca="1" ref="B234" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B234))</f>
         <v>8.3907600000000002</v>
       </c>
-      <c r="C234" s="70" cm="1">
+      <c r="C234" s="60" cm="1">
         <f t="array" aca="1" ref="C234" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C234))</f>
         <v>4.4766700000000004</v>
       </c>
@@ -15829,9 +15829,9 @@
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A235" s="58"/>
-      <c r="B235" s="77"/>
-      <c r="C235" s="70"/>
+      <c r="A235" s="64"/>
+      <c r="B235" s="62"/>
+      <c r="C235" s="60"/>
       <c r="D235" s="36">
         <v>0.12</v>
       </c>
@@ -15885,9 +15885,9 @@
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A236" s="58"/>
-      <c r="B236" s="77"/>
-      <c r="C236" s="70"/>
+      <c r="A236" s="64"/>
+      <c r="B236" s="62"/>
+      <c r="C236" s="60"/>
       <c r="D236" s="36" t="s">
         <v>13</v>
       </c>
@@ -15941,14 +15941,14 @@
       </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A237" s="58">
+      <c r="A237" s="64">
         <v>79</v>
       </c>
-      <c r="B237" s="77" cm="1">
+      <c r="B237" s="62" cm="1">
         <f t="array" aca="1" ref="B237" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B237))</f>
         <v>9.2780199999999997</v>
       </c>
-      <c r="C237" s="70" cm="1">
+      <c r="C237" s="60" cm="1">
         <f t="array" aca="1" ref="C237" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C237))</f>
         <v>9.6300699999999999</v>
       </c>
@@ -16005,9 +16005,9 @@
       </c>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A238" s="58"/>
-      <c r="B238" s="77"/>
-      <c r="C238" s="70"/>
+      <c r="A238" s="64"/>
+      <c r="B238" s="62"/>
+      <c r="C238" s="60"/>
       <c r="D238" s="36">
         <v>0.12</v>
       </c>
@@ -16061,9 +16061,9 @@
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A239" s="58"/>
-      <c r="B239" s="77"/>
-      <c r="C239" s="70"/>
+      <c r="A239" s="64"/>
+      <c r="B239" s="62"/>
+      <c r="C239" s="60"/>
       <c r="D239" s="36" t="s">
         <v>13</v>
       </c>
@@ -16117,14 +16117,14 @@
       </c>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A240" s="58">
+      <c r="A240" s="64">
         <v>80</v>
       </c>
-      <c r="B240" s="77" cm="1">
+      <c r="B240" s="62" cm="1">
         <f t="array" aca="1" ref="B240" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B240))</f>
         <v>-4.2242600000000001</v>
       </c>
-      <c r="C240" s="70" cm="1">
+      <c r="C240" s="60" cm="1">
         <f t="array" aca="1" ref="C240" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C240))</f>
         <v>-5.2198700000000002</v>
       </c>
@@ -16181,9 +16181,9 @@
       </c>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A241" s="58"/>
-      <c r="B241" s="77"/>
-      <c r="C241" s="70"/>
+      <c r="A241" s="64"/>
+      <c r="B241" s="62"/>
+      <c r="C241" s="60"/>
       <c r="D241" s="36">
         <v>0.12</v>
       </c>
@@ -16237,9 +16237,9 @@
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A242" s="58"/>
-      <c r="B242" s="77"/>
-      <c r="C242" s="70"/>
+      <c r="A242" s="64"/>
+      <c r="B242" s="62"/>
+      <c r="C242" s="60"/>
       <c r="D242" s="36" t="s">
         <v>13</v>
       </c>
@@ -16293,14 +16293,14 @@
       </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A243" s="58">
+      <c r="A243" s="64">
         <v>81</v>
       </c>
-      <c r="B243" s="77" cm="1">
+      <c r="B243" s="62" cm="1">
         <f t="array" aca="1" ref="B243" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B243))</f>
         <v>-7.4295</v>
       </c>
-      <c r="C243" s="70" cm="1">
+      <c r="C243" s="60" cm="1">
         <f t="array" aca="1" ref="C243" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C243))</f>
         <v>-7.24329</v>
       </c>
@@ -16357,9 +16357,9 @@
       </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A244" s="58"/>
-      <c r="B244" s="77"/>
-      <c r="C244" s="70"/>
+      <c r="A244" s="64"/>
+      <c r="B244" s="62"/>
+      <c r="C244" s="60"/>
       <c r="D244" s="36">
         <v>0.12</v>
       </c>
@@ -16413,9 +16413,9 @@
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A245" s="58"/>
-      <c r="B245" s="77"/>
-      <c r="C245" s="70"/>
+      <c r="A245" s="64"/>
+      <c r="B245" s="62"/>
+      <c r="C245" s="60"/>
       <c r="D245" s="36" t="s">
         <v>13</v>
       </c>
@@ -16469,14 +16469,14 @@
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A246" s="58">
+      <c r="A246" s="64">
         <v>82</v>
       </c>
-      <c r="B246" s="77" cm="1">
+      <c r="B246" s="62" cm="1">
         <f t="array" aca="1" ref="B246" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B246))</f>
         <v>6.1015899999999998</v>
       </c>
-      <c r="C246" s="70" cm="1">
+      <c r="C246" s="60" cm="1">
         <f t="array" aca="1" ref="C246" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C246))</f>
         <v>-7.4825799999999996</v>
       </c>
@@ -16533,9 +16533,9 @@
       </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A247" s="58"/>
-      <c r="B247" s="77"/>
-      <c r="C247" s="70"/>
+      <c r="A247" s="64"/>
+      <c r="B247" s="62"/>
+      <c r="C247" s="60"/>
       <c r="D247" s="36">
         <v>0.12</v>
       </c>
@@ -16589,9 +16589,9 @@
       </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A248" s="58"/>
-      <c r="B248" s="77"/>
-      <c r="C248" s="70"/>
+      <c r="A248" s="64"/>
+      <c r="B248" s="62"/>
+      <c r="C248" s="60"/>
       <c r="D248" s="36" t="s">
         <v>13</v>
       </c>
@@ -16645,14 +16645,14 @@
       </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A249" s="58">
+      <c r="A249" s="64">
         <v>83</v>
       </c>
-      <c r="B249" s="77" cm="1">
+      <c r="B249" s="62" cm="1">
         <f t="array" aca="1" ref="B249" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B249))</f>
         <v>8.4517199999999999</v>
       </c>
-      <c r="C249" s="70" cm="1">
+      <c r="C249" s="60" cm="1">
         <f t="array" aca="1" ref="C249" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C249))</f>
         <v>3.5679099999999998E-2</v>
       </c>
@@ -16709,9 +16709,9 @@
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A250" s="58"/>
-      <c r="B250" s="77"/>
-      <c r="C250" s="70"/>
+      <c r="A250" s="64"/>
+      <c r="B250" s="62"/>
+      <c r="C250" s="60"/>
       <c r="D250" s="36">
         <v>0.12</v>
       </c>
@@ -16765,9 +16765,9 @@
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A251" s="58"/>
-      <c r="B251" s="77"/>
-      <c r="C251" s="70"/>
+      <c r="A251" s="64"/>
+      <c r="B251" s="62"/>
+      <c r="C251" s="60"/>
       <c r="D251" s="36" t="s">
         <v>13</v>
       </c>
@@ -16821,14 +16821,14 @@
       </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A252" s="58">
+      <c r="A252" s="64">
         <v>84</v>
       </c>
-      <c r="B252" s="77" cm="1">
+      <c r="B252" s="62" cm="1">
         <f t="array" aca="1" ref="B252" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B252))</f>
         <v>9.8290199999999999</v>
       </c>
-      <c r="C252" s="70" cm="1">
+      <c r="C252" s="60" cm="1">
         <f t="array" aca="1" ref="C252" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C252))</f>
         <v>-4.4340999999999999</v>
       </c>
@@ -16885,9 +16885,9 @@
       </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A253" s="58"/>
-      <c r="B253" s="77"/>
-      <c r="C253" s="70"/>
+      <c r="A253" s="64"/>
+      <c r="B253" s="62"/>
+      <c r="C253" s="60"/>
       <c r="D253" s="36">
         <v>0.12</v>
       </c>
@@ -16941,9 +16941,9 @@
       </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A254" s="58"/>
-      <c r="B254" s="77"/>
-      <c r="C254" s="70"/>
+      <c r="A254" s="64"/>
+      <c r="B254" s="62"/>
+      <c r="C254" s="60"/>
       <c r="D254" s="36" t="s">
         <v>13</v>
       </c>
@@ -16997,14 +16997,14 @@
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A255" s="58">
+      <c r="A255" s="64">
         <v>85</v>
       </c>
-      <c r="B255" s="77" cm="1">
+      <c r="B255" s="62" cm="1">
         <f t="array" aca="1" ref="B255" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B255))</f>
         <v>-4.2953900000000003</v>
       </c>
-      <c r="C255" s="70" cm="1">
+      <c r="C255" s="60" cm="1">
         <f t="array" aca="1" ref="C255" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C255))</f>
         <v>-4.1341900000000003</v>
       </c>
@@ -17061,9 +17061,9 @@
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A256" s="58"/>
-      <c r="B256" s="77"/>
-      <c r="C256" s="70"/>
+      <c r="A256" s="64"/>
+      <c r="B256" s="62"/>
+      <c r="C256" s="60"/>
       <c r="D256" s="36">
         <v>0.12</v>
       </c>
@@ -17117,9 +17117,9 @@
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A257" s="58"/>
-      <c r="B257" s="77"/>
-      <c r="C257" s="70"/>
+      <c r="A257" s="64"/>
+      <c r="B257" s="62"/>
+      <c r="C257" s="60"/>
       <c r="D257" s="36" t="s">
         <v>13</v>
       </c>
@@ -17173,14 +17173,14 @@
       </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A258" s="58">
+      <c r="A258" s="64">
         <v>86</v>
       </c>
-      <c r="B258" s="77" cm="1">
+      <c r="B258" s="62" cm="1">
         <f t="array" aca="1" ref="B258" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B258))</f>
         <v>-1.0302800000000001</v>
       </c>
-      <c r="C258" s="70" cm="1">
+      <c r="C258" s="60" cm="1">
         <f t="array" aca="1" ref="C258" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C258))</f>
         <v>9.4236799999999992</v>
       </c>
@@ -17237,9 +17237,9 @@
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A259" s="58"/>
-      <c r="B259" s="77"/>
-      <c r="C259" s="70"/>
+      <c r="A259" s="64"/>
+      <c r="B259" s="62"/>
+      <c r="C259" s="60"/>
       <c r="D259" s="36">
         <v>0.12</v>
       </c>
@@ -17293,9 +17293,9 @@
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A260" s="58"/>
-      <c r="B260" s="77"/>
-      <c r="C260" s="70"/>
+      <c r="A260" s="64"/>
+      <c r="B260" s="62"/>
+      <c r="C260" s="60"/>
       <c r="D260" s="36" t="s">
         <v>13</v>
       </c>
@@ -17349,14 +17349,14 @@
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A261" s="58">
+      <c r="A261" s="64">
         <v>87</v>
       </c>
-      <c r="B261" s="77" cm="1">
+      <c r="B261" s="62" cm="1">
         <f t="array" aca="1" ref="B261" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B261))</f>
         <v>4.2557499999999999</v>
       </c>
-      <c r="C261" s="70" cm="1">
+      <c r="C261" s="60" cm="1">
         <f t="array" aca="1" ref="C261" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C261))</f>
         <v>3.8308900000000001</v>
       </c>
@@ -17413,9 +17413,9 @@
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A262" s="58"/>
-      <c r="B262" s="77"/>
-      <c r="C262" s="70"/>
+      <c r="A262" s="64"/>
+      <c r="B262" s="62"/>
+      <c r="C262" s="60"/>
       <c r="D262" s="36">
         <v>0.12</v>
       </c>
@@ -17469,9 +17469,9 @@
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A263" s="58"/>
-      <c r="B263" s="77"/>
-      <c r="C263" s="70"/>
+      <c r="A263" s="64"/>
+      <c r="B263" s="62"/>
+      <c r="C263" s="60"/>
       <c r="D263" s="36" t="s">
         <v>13</v>
       </c>
@@ -17525,14 +17525,14 @@
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A264" s="58">
+      <c r="A264" s="64">
         <v>88</v>
       </c>
-      <c r="B264" s="77" cm="1">
+      <c r="B264" s="62" cm="1">
         <f t="array" aca="1" ref="B264" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B264))</f>
         <v>5.4039799999999998</v>
       </c>
-      <c r="C264" s="70" cm="1">
+      <c r="C264" s="60" cm="1">
         <f t="array" aca="1" ref="C264" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C264))</f>
         <v>-8.7711600000000001</v>
       </c>
@@ -17589,9 +17589,9 @@
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A265" s="58"/>
-      <c r="B265" s="77"/>
-      <c r="C265" s="70"/>
+      <c r="A265" s="64"/>
+      <c r="B265" s="62"/>
+      <c r="C265" s="60"/>
       <c r="D265" s="36">
         <v>0.12</v>
       </c>
@@ -17645,9 +17645,9 @@
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A266" s="58"/>
-      <c r="B266" s="77"/>
-      <c r="C266" s="70"/>
+      <c r="A266" s="64"/>
+      <c r="B266" s="62"/>
+      <c r="C266" s="60"/>
       <c r="D266" s="36" t="s">
         <v>13</v>
       </c>
@@ -17701,14 +17701,14 @@
       </c>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A267" s="58">
+      <c r="A267" s="64">
         <v>89</v>
       </c>
-      <c r="B267" s="77" cm="1">
+      <c r="B267" s="62" cm="1">
         <f t="array" aca="1" ref="B267" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B267))</f>
         <v>7.7087700000000003</v>
       </c>
-      <c r="C267" s="70" cm="1">
+      <c r="C267" s="60" cm="1">
         <f t="array" aca="1" ref="C267" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C267))</f>
         <v>-5.7052899999999998</v>
       </c>
@@ -17765,9 +17765,9 @@
       </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A268" s="58"/>
-      <c r="B268" s="77"/>
-      <c r="C268" s="70"/>
+      <c r="A268" s="64"/>
+      <c r="B268" s="62"/>
+      <c r="C268" s="60"/>
       <c r="D268" s="36">
         <v>0.12</v>
       </c>
@@ -17821,9 +17821,9 @@
       </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A269" s="58"/>
-      <c r="B269" s="77"/>
-      <c r="C269" s="70"/>
+      <c r="A269" s="64"/>
+      <c r="B269" s="62"/>
+      <c r="C269" s="60"/>
       <c r="D269" s="36" t="s">
         <v>13</v>
       </c>
@@ -17877,14 +17877,14 @@
       </c>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A270" s="58">
+      <c r="A270" s="64">
         <v>90</v>
       </c>
-      <c r="B270" s="77" cm="1">
+      <c r="B270" s="62" cm="1">
         <f t="array" aca="1" ref="B270" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B270))</f>
         <v>-2.6102300000000001</v>
       </c>
-      <c r="C270" s="70" cm="1">
+      <c r="C270" s="60" cm="1">
         <f t="array" aca="1" ref="C270" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C270))</f>
         <v>-4.8666600000000004</v>
       </c>
@@ -17941,9 +17941,9 @@
       </c>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A271" s="58"/>
-      <c r="B271" s="77"/>
-      <c r="C271" s="70"/>
+      <c r="A271" s="64"/>
+      <c r="B271" s="62"/>
+      <c r="C271" s="60"/>
       <c r="D271" s="36">
         <v>0.12</v>
       </c>
@@ -17997,9 +17997,9 @@
       </c>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A272" s="58"/>
-      <c r="B272" s="77"/>
-      <c r="C272" s="70"/>
+      <c r="A272" s="64"/>
+      <c r="B272" s="62"/>
+      <c r="C272" s="60"/>
       <c r="D272" s="36" t="s">
         <v>13</v>
       </c>
@@ -18053,14 +18053,14 @@
       </c>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A273" s="58">
+      <c r="A273" s="64">
         <v>91</v>
       </c>
-      <c r="B273" s="77" cm="1">
+      <c r="B273" s="62" cm="1">
         <f t="array" aca="1" ref="B273" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B273))</f>
         <v>8.7226900000000001</v>
       </c>
-      <c r="C273" s="70" cm="1">
+      <c r="C273" s="60" cm="1">
         <f t="array" aca="1" ref="C273" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C273))</f>
         <v>-9.2558699999999998</v>
       </c>
@@ -18117,9 +18117,9 @@
       </c>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A274" s="58"/>
-      <c r="B274" s="77"/>
-      <c r="C274" s="70"/>
+      <c r="A274" s="64"/>
+      <c r="B274" s="62"/>
+      <c r="C274" s="60"/>
       <c r="D274" s="36">
         <v>0.12</v>
       </c>
@@ -18173,9 +18173,9 @@
       </c>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A275" s="58"/>
-      <c r="B275" s="77"/>
-      <c r="C275" s="70"/>
+      <c r="A275" s="64"/>
+      <c r="B275" s="62"/>
+      <c r="C275" s="60"/>
       <c r="D275" s="36" t="s">
         <v>13</v>
       </c>
@@ -18229,14 +18229,14 @@
       </c>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A276" s="58">
+      <c r="A276" s="64">
         <v>92</v>
       </c>
-      <c r="B276" s="77" cm="1">
+      <c r="B276" s="62" cm="1">
         <f t="array" aca="1" ref="B276" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B276))</f>
         <v>7.6467799999999997</v>
       </c>
-      <c r="C276" s="70" cm="1">
+      <c r="C276" s="60" cm="1">
         <f t="array" aca="1" ref="C276" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C276))</f>
         <v>9.8841099999999997</v>
       </c>
@@ -18293,9 +18293,9 @@
       </c>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A277" s="58"/>
-      <c r="B277" s="77"/>
-      <c r="C277" s="70"/>
+      <c r="A277" s="64"/>
+      <c r="B277" s="62"/>
+      <c r="C277" s="60"/>
       <c r="D277" s="36">
         <v>0.12</v>
       </c>
@@ -18349,9 +18349,9 @@
       </c>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A278" s="58"/>
-      <c r="B278" s="77"/>
-      <c r="C278" s="70"/>
+      <c r="A278" s="64"/>
+      <c r="B278" s="62"/>
+      <c r="C278" s="60"/>
       <c r="D278" s="36" t="s">
         <v>13</v>
       </c>
@@ -18405,14 +18405,14 @@
       </c>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A279" s="58">
+      <c r="A279" s="64">
         <v>93</v>
       </c>
-      <c r="B279" s="77" cm="1">
+      <c r="B279" s="62" cm="1">
         <f t="array" aca="1" ref="B279" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B279))</f>
         <v>7.8663600000000002</v>
       </c>
-      <c r="C279" s="70" cm="1">
+      <c r="C279" s="60" cm="1">
         <f t="array" aca="1" ref="C279" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C279))</f>
         <v>-5.7925700000000004</v>
       </c>
@@ -18469,9 +18469,9 @@
       </c>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A280" s="58"/>
-      <c r="B280" s="77"/>
-      <c r="C280" s="70"/>
+      <c r="A280" s="64"/>
+      <c r="B280" s="62"/>
+      <c r="C280" s="60"/>
       <c r="D280" s="36">
         <v>0.12</v>
       </c>
@@ -18525,9 +18525,9 @@
       </c>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A281" s="58"/>
-      <c r="B281" s="77"/>
-      <c r="C281" s="70"/>
+      <c r="A281" s="64"/>
+      <c r="B281" s="62"/>
+      <c r="C281" s="60"/>
       <c r="D281" s="36" t="s">
         <v>13</v>
       </c>
@@ -18581,14 +18581,14 @@
       </c>
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A282" s="58">
+      <c r="A282" s="64">
         <v>94</v>
       </c>
-      <c r="B282" s="77" cm="1">
+      <c r="B282" s="62" cm="1">
         <f t="array" aca="1" ref="B282" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B282))</f>
         <v>6.0819799999999997</v>
       </c>
-      <c r="C282" s="70" cm="1">
+      <c r="C282" s="60" cm="1">
         <f t="array" aca="1" ref="C282" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C282))</f>
         <v>7.0935600000000001</v>
       </c>
@@ -18645,9 +18645,9 @@
       </c>
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A283" s="58"/>
-      <c r="B283" s="77"/>
-      <c r="C283" s="70"/>
+      <c r="A283" s="64"/>
+      <c r="B283" s="62"/>
+      <c r="C283" s="60"/>
       <c r="D283" s="36">
         <v>0.12</v>
       </c>
@@ -18701,9 +18701,9 @@
       </c>
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A284" s="58"/>
-      <c r="B284" s="77"/>
-      <c r="C284" s="70"/>
+      <c r="A284" s="64"/>
+      <c r="B284" s="62"/>
+      <c r="C284" s="60"/>
       <c r="D284" s="36" t="s">
         <v>13</v>
       </c>
@@ -18757,14 +18757,14 @@
       </c>
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A285" s="58">
+      <c r="A285" s="64">
         <v>95</v>
       </c>
-      <c r="B285" s="77" cm="1">
+      <c r="B285" s="62" cm="1">
         <f t="array" aca="1" ref="B285" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B285))</f>
         <v>-9.3989399999999996</v>
       </c>
-      <c r="C285" s="70" cm="1">
+      <c r="C285" s="60" cm="1">
         <f t="array" aca="1" ref="C285" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C285))</f>
         <v>9.3007500000000007</v>
       </c>
@@ -18821,9 +18821,9 @@
       </c>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A286" s="58"/>
-      <c r="B286" s="77"/>
-      <c r="C286" s="70"/>
+      <c r="A286" s="64"/>
+      <c r="B286" s="62"/>
+      <c r="C286" s="60"/>
       <c r="D286" s="36">
         <v>0.12</v>
       </c>
@@ -18877,9 +18877,9 @@
       </c>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A287" s="58"/>
-      <c r="B287" s="77"/>
-      <c r="C287" s="70"/>
+      <c r="A287" s="64"/>
+      <c r="B287" s="62"/>
+      <c r="C287" s="60"/>
       <c r="D287" s="36" t="s">
         <v>13</v>
       </c>
@@ -18933,14 +18933,14 @@
       </c>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A288" s="58">
+      <c r="A288" s="64">
         <v>96</v>
       </c>
-      <c r="B288" s="77" cm="1">
+      <c r="B288" s="62" cm="1">
         <f t="array" aca="1" ref="B288" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B288))</f>
         <v>-6.0871500000000003</v>
       </c>
-      <c r="C288" s="70" cm="1">
+      <c r="C288" s="60" cm="1">
         <f t="array" aca="1" ref="C288" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C288))</f>
         <v>8.3048999999999999</v>
       </c>
@@ -18997,9 +18997,9 @@
       </c>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A289" s="58"/>
-      <c r="B289" s="77"/>
-      <c r="C289" s="70"/>
+      <c r="A289" s="64"/>
+      <c r="B289" s="62"/>
+      <c r="C289" s="60"/>
       <c r="D289" s="36">
         <v>0.12</v>
       </c>
@@ -19053,9 +19053,9 @@
       </c>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A290" s="58"/>
-      <c r="B290" s="77"/>
-      <c r="C290" s="70"/>
+      <c r="A290" s="64"/>
+      <c r="B290" s="62"/>
+      <c r="C290" s="60"/>
       <c r="D290" s="36" t="s">
         <v>13</v>
       </c>
@@ -19109,14 +19109,14 @@
       </c>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A291" s="58">
+      <c r="A291" s="64">
         <v>97</v>
       </c>
-      <c r="B291" s="77" cm="1">
+      <c r="B291" s="62" cm="1">
         <f t="array" aca="1" ref="B291" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B291))</f>
         <v>4.1048400000000003</v>
       </c>
-      <c r="C291" s="70" cm="1">
+      <c r="C291" s="60" cm="1">
         <f t="array" aca="1" ref="C291" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C291))</f>
         <v>6.8528500000000001</v>
       </c>
@@ -19173,9 +19173,9 @@
       </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A292" s="58"/>
-      <c r="B292" s="77"/>
-      <c r="C292" s="70"/>
+      <c r="A292" s="64"/>
+      <c r="B292" s="62"/>
+      <c r="C292" s="60"/>
       <c r="D292" s="36">
         <v>0.12</v>
       </c>
@@ -19229,9 +19229,9 @@
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A293" s="58"/>
-      <c r="B293" s="77"/>
-      <c r="C293" s="70"/>
+      <c r="A293" s="64"/>
+      <c r="B293" s="62"/>
+      <c r="C293" s="60"/>
       <c r="D293" s="36" t="s">
         <v>13</v>
       </c>
@@ -19285,14 +19285,14 @@
       </c>
     </row>
     <row r="294" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A294" s="58">
+      <c r="A294" s="64">
         <v>98</v>
       </c>
-      <c r="B294" s="77" cm="1">
+      <c r="B294" s="62" cm="1">
         <f t="array" aca="1" ref="B294" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B294))</f>
         <v>-6.2805099999999996</v>
       </c>
-      <c r="C294" s="70" cm="1">
+      <c r="C294" s="60" cm="1">
         <f t="array" aca="1" ref="C294" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C294))</f>
         <v>9.3329199999999997</v>
       </c>
@@ -19349,9 +19349,9 @@
       </c>
     </row>
     <row r="295" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A295" s="58"/>
-      <c r="B295" s="77"/>
-      <c r="C295" s="70"/>
+      <c r="A295" s="64"/>
+      <c r="B295" s="62"/>
+      <c r="C295" s="60"/>
       <c r="D295" s="36">
         <v>0.12</v>
       </c>
@@ -19405,9 +19405,9 @@
       </c>
     </row>
     <row r="296" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A296" s="58"/>
-      <c r="B296" s="77"/>
-      <c r="C296" s="70"/>
+      <c r="A296" s="64"/>
+      <c r="B296" s="62"/>
+      <c r="C296" s="60"/>
       <c r="D296" s="36" t="s">
         <v>13</v>
       </c>
@@ -19461,14 +19461,14 @@
       </c>
     </row>
     <row r="297" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A297" s="58">
+      <c r="A297" s="64">
         <v>99</v>
       </c>
-      <c r="B297" s="77" cm="1">
+      <c r="B297" s="62" cm="1">
         <f t="array" aca="1" ref="B297" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B297))</f>
         <v>-3.5979800000000002</v>
       </c>
-      <c r="C297" s="70" cm="1">
+      <c r="C297" s="60" cm="1">
         <f t="array" aca="1" ref="C297" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C297))</f>
         <v>-1.02477</v>
       </c>
@@ -19525,9 +19525,9 @@
       </c>
     </row>
     <row r="298" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A298" s="58"/>
-      <c r="B298" s="77"/>
-      <c r="C298" s="70"/>
+      <c r="A298" s="64"/>
+      <c r="B298" s="62"/>
+      <c r="C298" s="60"/>
       <c r="D298" s="36">
         <v>0.12</v>
       </c>
@@ -19581,9 +19581,9 @@
       </c>
     </row>
     <row r="299" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A299" s="58"/>
-      <c r="B299" s="77"/>
-      <c r="C299" s="70"/>
+      <c r="A299" s="64"/>
+      <c r="B299" s="62"/>
+      <c r="C299" s="60"/>
       <c r="D299" s="36" t="s">
         <v>13</v>
       </c>
@@ -19637,14 +19637,14 @@
       </c>
     </row>
     <row r="300" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A300" s="58">
+      <c r="A300" s="64">
         <v>100</v>
       </c>
-      <c r="B300" s="77" cm="1">
+      <c r="B300" s="62" cm="1">
         <f t="array" aca="1" ref="B300" ca="1">INDEX($U$3:$U$102,COUNTA(B$3:B300))</f>
         <v>3.9505499999999998</v>
       </c>
-      <c r="C300" s="70" cm="1">
+      <c r="C300" s="60" cm="1">
         <f t="array" aca="1" ref="C300" ca="1">INDEX($V$3:$V$102,COUNTA(C$3:C300))</f>
         <v>-3.30328</v>
       </c>
@@ -19701,9 +19701,9 @@
       </c>
     </row>
     <row r="301" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A301" s="58"/>
-      <c r="B301" s="77"/>
-      <c r="C301" s="70"/>
+      <c r="A301" s="64"/>
+      <c r="B301" s="62"/>
+      <c r="C301" s="60"/>
       <c r="D301" s="36">
         <v>0.12</v>
       </c>
@@ -19757,9 +19757,9 @@
       </c>
     </row>
     <row r="302" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="71"/>
-      <c r="B302" s="78"/>
-      <c r="C302" s="79"/>
+      <c r="A302" s="65"/>
+      <c r="B302" s="63"/>
+      <c r="C302" s="61"/>
       <c r="D302" s="37" t="s">
         <v>13</v>
       </c>
@@ -19823,91 +19823,204 @@
     </row>
   </sheetData>
   <mergeCells count="307">
-    <mergeCell ref="C294:C296"/>
-    <mergeCell ref="C297:C299"/>
-    <mergeCell ref="C300:C302"/>
-    <mergeCell ref="C279:C281"/>
-    <mergeCell ref="C282:C284"/>
-    <mergeCell ref="C285:C287"/>
-    <mergeCell ref="C288:C290"/>
-    <mergeCell ref="C291:C293"/>
-    <mergeCell ref="C264:C266"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="C270:C272"/>
-    <mergeCell ref="C273:C275"/>
-    <mergeCell ref="C276:C278"/>
-    <mergeCell ref="C249:C251"/>
-    <mergeCell ref="C252:C254"/>
-    <mergeCell ref="C255:C257"/>
-    <mergeCell ref="C258:C260"/>
-    <mergeCell ref="C261:C263"/>
-    <mergeCell ref="C234:C236"/>
-    <mergeCell ref="C237:C239"/>
-    <mergeCell ref="C240:C242"/>
-    <mergeCell ref="C243:C245"/>
-    <mergeCell ref="C246:C248"/>
-    <mergeCell ref="C219:C221"/>
-    <mergeCell ref="C222:C224"/>
-    <mergeCell ref="C225:C227"/>
-    <mergeCell ref="C228:C230"/>
-    <mergeCell ref="C231:C233"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="C207:C209"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="C216:C218"/>
-    <mergeCell ref="C189:C191"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="C186:C188"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="B297:B299"/>
-    <mergeCell ref="B300:B302"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B204:B206"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="A297:A299"/>
+    <mergeCell ref="A300:A302"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A279:A281"/>
+    <mergeCell ref="A282:A284"/>
+    <mergeCell ref="A285:A287"/>
+    <mergeCell ref="A288:A290"/>
+    <mergeCell ref="A291:A293"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B276:B278"/>
+    <mergeCell ref="B279:B281"/>
+    <mergeCell ref="B282:B284"/>
+    <mergeCell ref="B285:B287"/>
+    <mergeCell ref="B288:B290"/>
+    <mergeCell ref="B261:B263"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="B270:B272"/>
+    <mergeCell ref="B273:B275"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="B234:B236"/>
+    <mergeCell ref="B237:B239"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="B216:B218"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="C39:C41"/>
@@ -19932,204 +20045,91 @@
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B276:B278"/>
-    <mergeCell ref="B279:B281"/>
-    <mergeCell ref="B282:B284"/>
-    <mergeCell ref="B285:B287"/>
-    <mergeCell ref="B288:B290"/>
-    <mergeCell ref="B261:B263"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="B267:B269"/>
-    <mergeCell ref="B270:B272"/>
-    <mergeCell ref="B273:B275"/>
-    <mergeCell ref="B246:B248"/>
-    <mergeCell ref="B249:B251"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="B234:B236"/>
-    <mergeCell ref="B237:B239"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A294:A296"/>
-    <mergeCell ref="A297:A299"/>
-    <mergeCell ref="A300:A302"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A279:A281"/>
-    <mergeCell ref="A282:A284"/>
-    <mergeCell ref="A285:A287"/>
-    <mergeCell ref="A288:A290"/>
-    <mergeCell ref="A291:A293"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="A267:A269"/>
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B297:B299"/>
+    <mergeCell ref="B300:B302"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C189:C191"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="C186:C188"/>
+    <mergeCell ref="C219:C221"/>
+    <mergeCell ref="C222:C224"/>
+    <mergeCell ref="C225:C227"/>
+    <mergeCell ref="C228:C230"/>
+    <mergeCell ref="C231:C233"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="C207:C209"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="C216:C218"/>
+    <mergeCell ref="C249:C251"/>
+    <mergeCell ref="C252:C254"/>
+    <mergeCell ref="C255:C257"/>
+    <mergeCell ref="C258:C260"/>
+    <mergeCell ref="C261:C263"/>
+    <mergeCell ref="C234:C236"/>
+    <mergeCell ref="C237:C239"/>
+    <mergeCell ref="C240:C242"/>
+    <mergeCell ref="C243:C245"/>
+    <mergeCell ref="C246:C248"/>
+    <mergeCell ref="C294:C296"/>
+    <mergeCell ref="C297:C299"/>
+    <mergeCell ref="C300:C302"/>
+    <mergeCell ref="C279:C281"/>
+    <mergeCell ref="C282:C284"/>
+    <mergeCell ref="C285:C287"/>
+    <mergeCell ref="C288:C290"/>
+    <mergeCell ref="C291:C293"/>
+    <mergeCell ref="C264:C266"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="C270:C272"/>
+    <mergeCell ref="C273:C275"/>
+    <mergeCell ref="C276:C278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20141,7 +20141,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20156,34 +20156,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="59" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="74" t="s">
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="75"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="48" t="s">
         <v>3</v>
       </c>
@@ -20472,75 +20472,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="83" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="76" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="69"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="81"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="77">
+      <c r="A2" s="82"/>
+      <c r="B2" s="62">
         <v>0.05</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84">
         <v>0.12</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="85">
+      <c r="G2" s="60"/>
+      <c r="H2" s="87">
         <v>0.05</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84">
         <v>0.12</v>
       </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82" t="s">
+      <c r="K2" s="84"/>
+      <c r="L2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="77">
+      <c r="M2" s="88"/>
+      <c r="N2" s="62">
         <v>0.05</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82">
+      <c r="O2" s="84"/>
+      <c r="P2" s="84">
         <v>0.12</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82" t="s">
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="70"/>
+      <c r="S2" s="60"/>
     </row>
     <row r="3" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
@@ -27267,20 +27267,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
@@ -27307,10 +27307,10 @@
       <c r="B3" s="20">
         <v>-193459</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="58">
         <v>3106750</v>
       </c>
-      <c r="D3" s="87">
+      <c r="D3" s="58">
         <v>-3207820</v>
       </c>
       <c r="E3" s="44" t="s">
@@ -27319,7 +27319,7 @@
       <c r="F3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="88">
+      <c r="G3" s="59">
         <v>10001</v>
       </c>
     </row>
